--- a/secteur-action-publique/securite/regions/barometre-resultats-securite-regions-synthese.xlsx
+++ b/secteur-action-publique/securite/regions/barometre-resultats-securite-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="282">
   <si>
     <t>mesure</t>
   </si>
@@ -78,6 +78,33 @@
     <t>unite</t>
   </si>
   <si>
+    <t>Lutter contre les stupéfiants</t>
+  </si>
+  <si>
+    <t>Nombre d'amendes forfaitaires délictuelles dressées</t>
+  </si>
+  <si>
+    <t>nb-amendes-delictuelles-dressees</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>133.0</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>amendes dressées dans l'année</t>
+  </si>
+  <si>
     <t>Lutter contre les violences faites aux femmes</t>
   </si>
   <si>
@@ -87,658 +114,769 @@
     <t>nb-ordonnances-delivrees</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>ordonnances dans l'année</t>
+  </si>
+  <si>
+    <t>Lutter contre les atteintes aux principes républicains</t>
+  </si>
+  <si>
+    <t>Nombre de contrôles réalisés dans le cadre des CLIR ou des dispositifs existant localement avant la mise en place progressive des CLIR</t>
+  </si>
+  <si>
+    <t>nb-controles-clir</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>contrôles dans l'année</t>
+  </si>
+  <si>
+    <t>Réduire la mortalité sur les routes</t>
+  </si>
+  <si>
+    <t>Nombre de morts sur les routes</t>
+  </si>
+  <si>
+    <t>nb-morts-routes</t>
+  </si>
+  <si>
+    <t>49.0</t>
   </si>
   <si>
     <t>41.0</t>
   </si>
   <si>
-    <t>2019-12-31</t>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>morts dans l'année</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>125.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>-2.0</t>
+  </si>
+  <si>
+    <t>-7.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
   </si>
   <si>
     <t>23.0</t>
   </si>
   <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>78.0</t>
-  </si>
-  <si>
-    <t>ordonnances dans l'année</t>
-  </si>
-  <si>
-    <t>Lutter contre les stupéfiants</t>
-  </si>
-  <si>
-    <t>Nombre d'amendes forfaitaires délictuelles dressées</t>
-  </si>
-  <si>
-    <t>nb-amendes-delictuelles-dressees</t>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>244.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>-5.0</t>
+  </si>
+  <si>
+    <t>-11.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>Renforcer la sécurité du quotidien</t>
+  </si>
+  <si>
+    <t>Nombre d’heures de patrouille de voie publique</t>
+  </si>
+  <si>
+    <t>nb-heures-patrouille</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>1645413.0</t>
+  </si>
+  <si>
+    <t>2021-02-28</t>
+  </si>
+  <si>
+    <t>2654515.0</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>-1009102.0</t>
+  </si>
+  <si>
+    <t>-38.0</t>
+  </si>
+  <si>
+    <t>heures de patrouille dans l'année</t>
+  </si>
+  <si>
+    <t>8004.0</t>
+  </si>
+  <si>
+    <t>846.0</t>
+  </si>
+  <si>
+    <t>449.0</t>
+  </si>
+  <si>
+    <t>397.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>2394.0</t>
+  </si>
+  <si>
+    <t>2651.0</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>-257.0</t>
+  </si>
+  <si>
+    <t>-10.0</t>
+  </si>
+  <si>
+    <t>252.0</t>
+  </si>
+  <si>
+    <t>319.0</t>
+  </si>
+  <si>
+    <t>-67.0</t>
+  </si>
+  <si>
+    <t>-21.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>419666.0</t>
+  </si>
+  <si>
+    <t>670207.0</t>
+  </si>
+  <si>
+    <t>-250541.0</t>
+  </si>
+  <si>
+    <t>-37.0</t>
+  </si>
+  <si>
+    <t>750.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>137.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>-82.0</t>
+  </si>
+  <si>
+    <t>-43.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>525693.0</t>
+  </si>
+  <si>
+    <t>841186.0</t>
+  </si>
+  <si>
+    <t>-315493.0</t>
+  </si>
+  <si>
+    <t>809.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>126.0</t>
+  </si>
+  <si>
+    <t>969.0</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>-79.0</t>
+  </si>
+  <si>
+    <t>-32.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>485683.0</t>
+  </si>
+  <si>
+    <t>795487.0</t>
+  </si>
+  <si>
+    <t>-309804.0</t>
+  </si>
+  <si>
+    <t>-39.0</t>
+  </si>
+  <si>
+    <t>865.0</t>
+  </si>
+  <si>
+    <t>217.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>201.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>191.0</t>
+  </si>
+  <si>
+    <t>-45.0</t>
+  </si>
+  <si>
+    <t>-24.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>632905.0</t>
+  </si>
+  <si>
+    <t>954815.0</t>
+  </si>
+  <si>
+    <t>-321910.0</t>
+  </si>
+  <si>
+    <t>-34.0</t>
+  </si>
+  <si>
+    <t>2455.0</t>
+  </si>
+  <si>
+    <t>199.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>275.0</t>
+  </si>
+  <si>
+    <t>382.0</t>
+  </si>
+  <si>
+    <t>268.0</t>
+  </si>
+  <si>
+    <t>114.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>289.0</t>
+  </si>
+  <si>
+    <t>-97.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>792183.0</t>
+  </si>
+  <si>
+    <t>1320923.0</t>
+  </si>
+  <si>
+    <t>-528740.0</t>
+  </si>
+  <si>
+    <t>-40.0</t>
+  </si>
+  <si>
+    <t>1165.0</t>
+  </si>
+  <si>
+    <t>196.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
   </si>
   <si>
     <t>115.0</t>
   </si>
   <si>
-    <t>2020-10-31</t>
-  </si>
-  <si>
-    <t>amendes dressées dans l'année</t>
-  </si>
-  <si>
-    <t>Réduire la mortalité sur les routes</t>
-  </si>
-  <si>
-    <t>Nombre de morts sur les routes</t>
-  </si>
-  <si>
-    <t>nb-morts-routes</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>morts dans l'année</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>105.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>-3.0</t>
-  </si>
-  <si>
-    <t>-10.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>-5.0</t>
-  </si>
-  <si>
-    <t>-50.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
+    <t>142.0</t>
+  </si>
+  <si>
+    <t>409.0</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t>271.0</t>
+  </si>
+  <si>
+    <t>223.0</t>
+  </si>
+  <si>
+    <t>281.0</t>
+  </si>
+  <si>
+    <t>-58.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>480243.0</t>
+  </si>
+  <si>
+    <t>713149.0</t>
+  </si>
+  <si>
+    <t>-232906.0</t>
+  </si>
+  <si>
+    <t>-33.0</t>
+  </si>
+  <si>
+    <t>399.0</t>
   </si>
   <si>
     <t>35.0</t>
   </si>
   <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>103.0</t>
-  </si>
-  <si>
-    <t>-8.0</t>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>483.0</t>
+  </si>
+  <si>
+    <t>439.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>215.0</t>
+  </si>
+  <si>
+    <t>-55.0</t>
+  </si>
+  <si>
+    <t>-26.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>417959.0</t>
+  </si>
+  <si>
+    <t>653687.0</t>
+  </si>
+  <si>
+    <t>-235728.0</t>
+  </si>
+  <si>
+    <t>-36.0</t>
+  </si>
+  <si>
+    <t>569.0</t>
+  </si>
+  <si>
+    <t>163.0</t>
+  </si>
+  <si>
+    <t>208.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>177.0</t>
+  </si>
+  <si>
+    <t>-22.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>940532.0</t>
+  </si>
+  <si>
+    <t>1497348.0</t>
+  </si>
+  <si>
+    <t>-556816.0</t>
+  </si>
+  <si>
+    <t>1383.0</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>141.0</t>
+  </si>
+  <si>
+    <t>123.0</t>
+  </si>
+  <si>
+    <t>299.0</t>
+  </si>
+  <si>
+    <t>362.0</t>
+  </si>
+  <si>
+    <t>-63.0</t>
   </si>
   <si>
     <t>-17.0</t>
   </si>
   <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>1203.0</t>
-  </si>
-  <si>
-    <t>1072.0</t>
-  </si>
-  <si>
-    <t>131.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>Renforcer la sécurité du quotidien</t>
-  </si>
-  <si>
-    <t>Nombre d’heures de patrouille de voie publique</t>
-  </si>
-  <si>
-    <t>nb-heures-patrouille</t>
-  </si>
-  <si>
-    <t>8590324.0</t>
-  </si>
-  <si>
-    <t>heures de patrouille dans l'année</t>
-  </si>
-  <si>
-    <t>4609.0</t>
-  </si>
-  <si>
-    <t>Lutter contre les atteintes aux principes républicains</t>
-  </si>
-  <si>
-    <t>Nombre de contrôles réalisés par les plans de lutte contre la radicalisation dans les quartiers (PLR-Q) et les cellules départementales de lutte contre l'islamisme et le repli communautaire (CLIR)</t>
-  </si>
-  <si>
-    <t>nb-controles-clir</t>
-  </si>
-  <si>
-    <t>2457.0</t>
-  </si>
-  <si>
-    <t>2651.0</t>
-  </si>
-  <si>
-    <t>2018-12-31</t>
-  </si>
-  <si>
-    <t>-194.0</t>
-  </si>
-  <si>
-    <t>-7.0</t>
-  </si>
-  <si>
-    <t>contrôles dans l'année</t>
-  </si>
-  <si>
-    <t>267.0</t>
-  </si>
-  <si>
-    <t>319.0</t>
-  </si>
-  <si>
-    <t>-52.0</t>
-  </si>
-  <si>
-    <t>-16.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>1796373.0</t>
-  </si>
-  <si>
-    <t>406.0</t>
-  </si>
-  <si>
-    <t>163.0</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>-29.0</t>
-  </si>
-  <si>
-    <t>-15.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>123.0</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>71.0</t>
-  </si>
-  <si>
-    <t>137.0</t>
-  </si>
-  <si>
-    <t>2282750.0</t>
-  </si>
-  <si>
-    <t>439.0</t>
-  </si>
-  <si>
-    <t>155.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>142.0</t>
-  </si>
-  <si>
-    <t>1092.0</t>
-  </si>
-  <si>
-    <t>207.0</t>
-  </si>
-  <si>
-    <t>244.0</t>
-  </si>
-  <si>
-    <t>-37.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>171.0</t>
-  </si>
-  <si>
-    <t>149.0</t>
-  </si>
-  <si>
-    <t>2415259.0</t>
-  </si>
-  <si>
-    <t>483.0</t>
-  </si>
-  <si>
-    <t>173.0</t>
-  </si>
-  <si>
-    <t>191.0</t>
-  </si>
-  <si>
-    <t>-18.0</t>
-  </si>
-  <si>
-    <t>-9.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>214.0</t>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>945594.0</t>
+  </si>
+  <si>
+    <t>1545510.0</t>
+  </si>
+  <si>
+    <t>-599916.0</t>
+  </si>
+  <si>
+    <t>1815.0</t>
+  </si>
+  <si>
+    <t>159.0</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>129.0</t>
+  </si>
+  <si>
+    <t>285.0</t>
+  </si>
+  <si>
+    <t>392.0</t>
+  </si>
+  <si>
+    <t>-107.0</t>
+  </si>
+  <si>
+    <t>-27.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>1187564.0</t>
+  </si>
+  <si>
+    <t>1832463.0</t>
+  </si>
+  <si>
+    <t>-644899.0</t>
+  </si>
+  <si>
+    <t>-35.0</t>
+  </si>
+  <si>
+    <t>2848.0</t>
+  </si>
+  <si>
+    <t>318.0</t>
   </si>
   <si>
     <t>130.0</t>
   </si>
   <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>3778661.0</t>
-  </si>
-  <si>
-    <t>1565.0</t>
-  </si>
-  <si>
-    <t>971.0</t>
-  </si>
-  <si>
-    <t>268.0</t>
-  </si>
-  <si>
-    <t>703.0</t>
-  </si>
-  <si>
-    <t>262.0</t>
-  </si>
-  <si>
-    <t>257.0</t>
-  </si>
-  <si>
-    <t>289.0</t>
-  </si>
-  <si>
-    <t>-32.0</t>
-  </si>
-  <si>
-    <t>-11.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>288.0</t>
-  </si>
-  <si>
-    <t>117.0</t>
-  </si>
-  <si>
-    <t>68.0</t>
-  </si>
-  <si>
-    <t>3807585.0</t>
-  </si>
-  <si>
-    <t>781.0</t>
-  </si>
-  <si>
-    <t>246.0</t>
-  </si>
-  <si>
-    <t>138.0</t>
-  </si>
-  <si>
-    <t>108.0</t>
-  </si>
-  <si>
-    <t>276.0</t>
-  </si>
-  <si>
-    <t>281.0</t>
-  </si>
-  <si>
-    <t>-2.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>2416781.0</t>
-  </si>
-  <si>
-    <t>378.0</t>
-  </si>
-  <si>
-    <t>195.0</t>
-  </si>
-  <si>
-    <t>215.0</t>
-  </si>
-  <si>
-    <t>-20.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>156.0</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>1804573.0</t>
-  </si>
-  <si>
-    <t>749.0</t>
-  </si>
-  <si>
-    <t>177.0</t>
-  </si>
-  <si>
-    <t>-6.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>371.0</t>
-  </si>
-  <si>
-    <t>228.0</t>
+    <t>188.0</t>
+  </si>
+  <si>
+    <t>507.0</t>
+  </si>
+  <si>
+    <t>997.0</t>
+  </si>
+  <si>
+    <t>-490.0</t>
+  </si>
+  <si>
+    <t>-49.0</t>
+  </si>
+  <si>
+    <t>332.0</t>
+  </si>
+  <si>
+    <t>410.0</t>
+  </si>
+  <si>
+    <t>-78.0</t>
+  </si>
+  <si>
+    <t>-19.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>542811.0</t>
+  </si>
+  <si>
+    <t>914402.0</t>
+  </si>
+  <si>
+    <t>-371591.0</t>
+  </si>
+  <si>
+    <t>-41.0</t>
+  </si>
+  <si>
+    <t>4592.0</t>
+  </si>
+  <si>
+    <t>367.0</t>
   </si>
   <si>
     <t>143.0</t>
   </si>
   <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>4503543.0</t>
-  </si>
-  <si>
-    <t>806.0</t>
-  </si>
-  <si>
-    <t>361.0</t>
-  </si>
-  <si>
-    <t>362.0</t>
-  </si>
-  <si>
-    <t>-1.0</t>
-  </si>
-  <si>
-    <t>-0.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>331.0</t>
-  </si>
-  <si>
-    <t>320.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>4627029.0</t>
-  </si>
-  <si>
-    <t>1220.0</t>
-  </si>
-  <si>
-    <t>121.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>133.0</t>
-  </si>
-  <si>
-    <t>390.0</t>
-  </si>
-  <si>
-    <t>392.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>352.0</t>
-  </si>
-  <si>
-    <t>278.0</t>
-  </si>
-  <si>
-    <t>74.0</t>
-  </si>
-  <si>
-    <t>5458711.0</t>
-  </si>
-  <si>
-    <t>1509.0</t>
-  </si>
-  <si>
-    <t>1031.0</t>
-  </si>
-  <si>
-    <t>997.0</t>
-  </si>
-  <si>
-    <t>451.0</t>
-  </si>
-  <si>
-    <t>410.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>418.0</t>
-  </si>
-  <si>
-    <t>312.0</t>
-  </si>
-  <si>
-    <t>106.0</t>
-  </si>
-  <si>
-    <t>3142160.0</t>
-  </si>
-  <si>
-    <t>2862.0</t>
-  </si>
-  <si>
-    <t>221.0</t>
+    <t>224.0</t>
+  </si>
+  <si>
+    <t>157.0</t>
+  </si>
+  <si>
+    <t>-47.0</t>
+  </si>
+  <si>
+    <t>227.0</t>
+  </si>
+  <si>
+    <t>346.0</t>
+  </si>
+  <si>
+    <t>-119.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>79889.0</t>
+  </si>
+  <si>
+    <t>138366.0</t>
+  </si>
+  <si>
+    <t>-58477.0</t>
+  </si>
+  <si>
+    <t>-42.0</t>
   </si>
   <si>
     <t>44.0</t>
   </si>
   <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>303.0</t>
-  </si>
-  <si>
-    <t>346.0</t>
-  </si>
-  <si>
-    <t>-43.0</t>
-  </si>
-  <si>
-    <t>-12.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>419285.0</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
+    <t>-13.0</t>
   </si>
 </sst>
 </file>
@@ -1070,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1148,28 +1286,22 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1178,24 +1310,24 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1204,25 +1336,51 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="K4" t="s">
+      <c r="C5" t="s">
         <v>38</v>
       </c>
-      <c r="O4" t="s">
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1287,168 +1445,186 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F3" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>158</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+      <c r="F4" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>148</v>
+      </c>
+      <c r="K4" t="s">
+        <v>161</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" t="s">
-        <v>139</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="E5" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>141</v>
+        <v>163</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="K5" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" t="s">
+        <v>117</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" t="s">
-        <v>144</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
       <c r="H6" t="s">
-        <v>145</v>
+        <v>166</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="K6" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1513,168 +1689,186 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>171</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="K2" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="E3" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>174</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>176</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>177</v>
+      </c>
+      <c r="K4" t="s">
+        <v>178</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>148</v>
-      </c>
-      <c r="E4" t="s">
-        <v>149</v>
-      </c>
-      <c r="F4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>168</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" t="s">
+        <v>182</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
       <c r="H6" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="K6" t="s">
-        <v>160</v>
+        <v>103</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1684,7 +1878,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1739,130 +1933,174 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="E2" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="F2" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="K2" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="F3" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>191</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>193</v>
+      </c>
+      <c r="K4" t="s">
+        <v>194</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E4" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" t="s">
-        <v>168</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" t="s">
+        <v>195</v>
+      </c>
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="O5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>170</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>171</v>
-      </c>
-      <c r="K5" t="s">
-        <v>131</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>185</v>
+      </c>
+      <c r="E6" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>198</v>
+      </c>
+      <c r="K6" t="s">
+        <v>199</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1872,7 +2110,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1927,130 +2165,174 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>42</v>
+        <v>204</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>206</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" t="s">
+        <v>201</v>
+      </c>
+      <c r="F4" t="s">
+        <v>207</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>116</v>
+      </c>
+      <c r="K4" t="s">
+        <v>208</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F4" t="s">
-        <v>177</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>200</v>
+      </c>
+      <c r="E5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="O5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E5" t="s">
-        <v>173</v>
-      </c>
-      <c r="F5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>178</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" t="s">
-        <v>48</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" t="s">
+        <v>180</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>210</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" t="s">
+        <v>211</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2060,7 +2342,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2115,130 +2397,174 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="K2" t="s">
-        <v>185</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>217</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>217</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" t="s">
+        <v>213</v>
+      </c>
+      <c r="F4" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>177</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>219</v>
+      </c>
+      <c r="K4" t="s">
+        <v>220</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>180</v>
-      </c>
-      <c r="E4" t="s">
-        <v>181</v>
-      </c>
-      <c r="F4" t="s">
-        <v>187</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="O5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5" t="s">
-        <v>188</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>189</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>190</v>
-      </c>
-      <c r="K5" t="s">
-        <v>191</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" t="s">
+        <v>213</v>
+      </c>
+      <c r="F6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>222</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K6" t="s">
+        <v>224</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2303,168 +2629,186 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="F2" t="s">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>195</v>
+        <v>228</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="K2" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="E3" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="F3" t="s">
-        <v>197</v>
+        <v>230</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>230</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>225</v>
+      </c>
+      <c r="E4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>231</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>232</v>
+      </c>
+      <c r="K4" t="s">
+        <v>233</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" t="s">
-        <v>193</v>
-      </c>
-      <c r="F4" t="s">
-        <v>198</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="K5" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" t="s">
+        <v>226</v>
+      </c>
+      <c r="F6" t="s">
+        <v>237</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" t="s">
-        <v>193</v>
-      </c>
-      <c r="F6" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
       <c r="H6" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="K6" t="s">
-        <v>190</v>
+        <v>240</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2529,168 +2873,186 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="E2" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="F2" t="s">
-        <v>206</v>
+        <v>243</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>207</v>
+        <v>244</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="E3" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="F3" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>247</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>249</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>250</v>
+      </c>
+      <c r="K4" t="s">
+        <v>146</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E4" t="s">
-        <v>205</v>
-      </c>
-      <c r="F4" t="s">
-        <v>210</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>241</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>242</v>
       </c>
       <c r="F5" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>163</v>
+        <v>253</v>
       </c>
       <c r="K5" t="s">
-        <v>166</v>
+        <v>254</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" t="s">
+        <v>255</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>204</v>
-      </c>
-      <c r="E6" t="s">
-        <v>205</v>
-      </c>
-      <c r="F6" t="s">
-        <v>213</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
       <c r="H6" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>257</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>258</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2755,168 +3117,186 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>261</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>218</v>
+        <v>262</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>219</v>
+        <v>263</v>
       </c>
       <c r="K2" t="s">
-        <v>163</v>
+        <v>264</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>265</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>265</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>259</v>
+      </c>
+      <c r="E4" t="s">
+        <v>260</v>
+      </c>
+      <c r="F4" t="s">
+        <v>266</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>267</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>268</v>
+      </c>
+      <c r="K4" t="s">
+        <v>269</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>215</v>
-      </c>
-      <c r="E4" t="s">
-        <v>216</v>
-      </c>
-      <c r="F4" t="s">
-        <v>221</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>259</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>260</v>
       </c>
       <c r="F5" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>178</v>
+        <v>210</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="K5" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>259</v>
+      </c>
+      <c r="E6" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>215</v>
-      </c>
-      <c r="E6" t="s">
-        <v>216</v>
-      </c>
-      <c r="F6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
       <c r="H6" t="s">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>227</v>
+        <v>273</v>
       </c>
       <c r="K6" t="s">
-        <v>228</v>
+        <v>157</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2981,130 +3361,136 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>276</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>53</v>
+        <v>277</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="K2" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>280</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="E4" t="s">
-        <v>230</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
-        <v>234</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" t="s">
-        <v>230</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
       <c r="K5" t="s">
-        <v>235</v>
+        <v>119</v>
       </c>
       <c r="O5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3113,6 +3499,564 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>59</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I3" t="s">
+        <v>66</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
+        <v>68</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>70</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -3178,543 +4122,89 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
       <c r="J4" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" t="s">
-        <v>56</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="H2" t="s">
-        <v>63</v>
-      </c>
-      <c r="I2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K2" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>71</v>
-      </c>
-      <c r="I3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" t="s">
-        <v>72</v>
-      </c>
-      <c r="O3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3779,168 +4269,186 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="K2" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>81</v>
       </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>90</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E4" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E6" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
       <c r="H6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -3950,7 +4458,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4005,130 +4513,174 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>108</v>
       </c>
       <c r="K2" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>110</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K4" t="s">
+        <v>114</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="O5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
         <v>104</v>
       </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="E6" t="s">
         <v>105</v>
       </c>
-      <c r="K5" t="s">
-        <v>106</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>117</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K6" t="s">
+        <v>119</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4193,168 +4745,186 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E2" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F2" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>125</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" t="s">
+        <v>129</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" t="s">
-        <v>108</v>
-      </c>
-      <c r="F4" t="s">
-        <v>114</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="I5" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="K5" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="O5" t="s">
-        <v>93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E6" t="s">
-        <v>108</v>
-      </c>
-      <c r="F6" t="s">
-        <v>119</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
       <c r="H6" t="s">
-        <v>120</v>
+        <v>68</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="O6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4364,7 +4934,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4419,130 +4989,174 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="H2" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="J2" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>142</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>143</v>
       </c>
       <c r="O3" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" t="s">
+        <v>138</v>
+      </c>
+      <c r="F4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>145</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>146</v>
+      </c>
+      <c r="K4" t="s">
+        <v>147</v>
+      </c>
+      <c r="O4" t="s">
         <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" t="s">
-        <v>127</v>
-      </c>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" t="s">
+      <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="C5" t="s">
+      <c r="O5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E5" t="s">
-        <v>123</v>
-      </c>
-      <c r="F5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" t="s">
-        <v>129</v>
-      </c>
-      <c r="I5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" t="s">
-        <v>130</v>
-      </c>
-      <c r="K5" t="s">
-        <v>131</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" t="s">
+        <v>149</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K6" t="s">
+        <v>151</v>
+      </c>
+      <c r="O6" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/securite/regions/barometre-resultats-securite-regions-synthese.xlsx
+++ b/secteur-action-publique/securite/regions/barometre-resultats-securite-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="397">
   <si>
     <t>mesure</t>
   </si>
@@ -78,6 +78,84 @@
     <t>unite</t>
   </si>
   <si>
+    <t>Renforcer la sécurité du quotidien</t>
+  </si>
+  <si>
+    <t>Nombre d’heures de patrouille de voie publique</t>
+  </si>
+  <si>
+    <t>nb-heures-patrouille</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>326599.0</t>
+  </si>
+  <si>
+    <t>2021-05-31</t>
+  </si>
+  <si>
+    <t>67440.0</t>
+  </si>
+  <si>
+    <t>2021-01-31</t>
+  </si>
+  <si>
+    <t>259159.0</t>
+  </si>
+  <si>
+    <t>384.0</t>
+  </si>
+  <si>
+    <t>heures de patrouille sur douze mois *</t>
+  </si>
+  <si>
+    <t>Atteintes aux personnes dans les transports en commun</t>
+  </si>
+  <si>
+    <t>nb-atteintes-personnes</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>atteintes aux personnes entre janvier et juin</t>
+  </si>
+  <si>
+    <t>Atteintes aux biens dans les transports en commun</t>
+  </si>
+  <si>
+    <t>nb-atteintes-biens</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>atteintes aux biens entre janvier et juin</t>
+  </si>
+  <si>
     <t>Lutter contre les stupéfiants</t>
   </si>
   <si>
@@ -87,748 +165,1012 @@
     <t>nb-amendes-delictuelles-dressees</t>
   </si>
   <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>Guadeloupe</t>
+    <t>275.0</t>
+  </si>
+  <si>
+    <t>amendes dressées dans l'année</t>
+  </si>
+  <si>
+    <t>Lutter contre les violences faites aux femmes</t>
+  </si>
+  <si>
+    <t>Nombre d’ordonnances de protection délivrées</t>
+  </si>
+  <si>
+    <t>nb-ordonnances-delivrees</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>ordonnances dans l'année</t>
+  </si>
+  <si>
+    <t>Lutter contre les atteintes aux principes républicains</t>
+  </si>
+  <si>
+    <t>Nombre de contrôles réalisés dans le cadre des CLIR ou des dispositifs existant localement avant la mise en place progressive des CLIR</t>
+  </si>
+  <si>
+    <t>nb-controles-clir</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>contrôles dans l'année</t>
+  </si>
+  <si>
+    <t>Réduire la mortalité sur les routes</t>
+  </si>
+  <si>
+    <t>Nombre de morts sur les routes</t>
+  </si>
+  <si>
+    <t>nb-morts-routes</t>
+  </si>
+  <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>morts dans l'année</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>243125.0</t>
+  </si>
+  <si>
+    <t>52122.0</t>
+  </si>
+  <si>
+    <t>191003.0</t>
+  </si>
+  <si>
+    <t>366.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>-22.0</t>
+  </si>
+  <si>
+    <t>-49.0</t>
+  </si>
+  <si>
+    <t>260.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>-2.0</t>
+  </si>
+  <si>
+    <t>-7.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>450978.0</t>
+  </si>
+  <si>
+    <t>92790.0</t>
+  </si>
+  <si>
+    <t>358188.0</t>
+  </si>
+  <si>
+    <t>386.0</t>
+  </si>
+  <si>
+    <t>-4.0</t>
+  </si>
+  <si>
+    <t>-12.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>-13.0</t>
+  </si>
+  <si>
+    <t>-31.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>411875.0</t>
+  </si>
+  <si>
+    <t>59686.0</t>
+  </si>
+  <si>
+    <t>352189.0</t>
+  </si>
+  <si>
+    <t>590.0</t>
+  </si>
+  <si>
+    <t>91.0</t>
   </si>
   <si>
     <t>133.0</t>
   </si>
   <si>
-    <t>2021-03-31</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>amendes dressées dans l'année</t>
-  </si>
-  <si>
-    <t>Lutter contre les violences faites aux femmes</t>
-  </si>
-  <si>
-    <t>Nombre d’ordonnances de protection délivrées</t>
-  </si>
-  <si>
-    <t>nb-ordonnances-delivrees</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>2020-09-30</t>
-  </si>
-  <si>
-    <t>ordonnances dans l'année</t>
-  </si>
-  <si>
-    <t>Lutter contre les atteintes aux principes républicains</t>
-  </si>
-  <si>
-    <t>Nombre de contrôles réalisés dans le cadre des CLIR ou des dispositifs existant localement avant la mise en place progressive des CLIR</t>
-  </si>
-  <si>
-    <t>nb-controles-clir</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>contrôles dans l'année</t>
-  </si>
-  <si>
-    <t>Réduire la mortalité sur les routes</t>
-  </si>
-  <si>
-    <t>Nombre de morts sur les routes</t>
-  </si>
-  <si>
-    <t>nb-morts-routes</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>morts dans l'année</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
+    <t>-42.0</t>
+  </si>
+  <si>
+    <t>-32.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>151.0</t>
+  </si>
+  <si>
+    <t>-67.0</t>
+  </si>
+  <si>
+    <t>-44.0</t>
+  </si>
+  <si>
+    <t>181.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>244.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>-5.0</t>
+  </si>
+  <si>
+    <t>-11.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>278837.0</t>
+  </si>
+  <si>
+    <t>57752.0</t>
+  </si>
+  <si>
+    <t>221085.0</t>
+  </si>
+  <si>
+    <t>383.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
   </si>
   <si>
     <t>125.0</t>
   </si>
   <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>-2.0</t>
-  </si>
-  <si>
-    <t>-7.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>12126459.0</t>
+  </si>
+  <si>
+    <t>10283763.0</t>
+  </si>
+  <si>
+    <t>2018-01-31</t>
+  </si>
+  <si>
+    <t>1842696.0</t>
+  </si>
+  <si>
+    <t>18.0</t>
+  </si>
+  <si>
+    <t>7320.0</t>
+  </si>
+  <si>
+    <t>8495.0</t>
+  </si>
+  <si>
+    <t>-1175.0</t>
+  </si>
+  <si>
+    <t>-14.0</t>
+  </si>
+  <si>
+    <t>29643.0</t>
+  </si>
+  <si>
+    <t>39095.0</t>
+  </si>
+  <si>
+    <t>-9452.0</t>
+  </si>
+  <si>
+    <t>-24.0</t>
+  </si>
+  <si>
+    <t>15753.0</t>
+  </si>
+  <si>
+    <t>846.0</t>
+  </si>
+  <si>
+    <t>449.0</t>
+  </si>
+  <si>
+    <t>397.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>2394.0</t>
+  </si>
+  <si>
+    <t>2651.0</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>-257.0</t>
+  </si>
+  <si>
+    <t>-10.0</t>
+  </si>
+  <si>
+    <t>252.0</t>
+  </si>
+  <si>
+    <t>319.0</t>
+  </si>
+  <si>
+    <t>-21.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>2591294.0</t>
+  </si>
+  <si>
+    <t>2703188.0</t>
+  </si>
+  <si>
+    <t>-111894.0</t>
+  </si>
+  <si>
+    <t>289.0</t>
+  </si>
+  <si>
+    <t>298.0</t>
+  </si>
+  <si>
+    <t>-9.0</t>
+  </si>
+  <si>
+    <t>-3.0</t>
+  </si>
+  <si>
+    <t>724.0</t>
+  </si>
+  <si>
+    <t>883.0</t>
+  </si>
+  <si>
+    <t>-159.0</t>
+  </si>
+  <si>
+    <t>-18.0</t>
+  </si>
+  <si>
+    <t>1483.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>137.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>-82.0</t>
+  </si>
+  <si>
+    <t>-43.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>3140403.0</t>
+  </si>
+  <si>
+    <t>3241179.0</t>
+  </si>
+  <si>
+    <t>-100776.0</t>
+  </si>
+  <si>
+    <t>290.0</t>
+  </si>
+  <si>
+    <t>226.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>569.0</t>
+  </si>
+  <si>
+    <t>780.0</t>
+  </si>
+  <si>
+    <t>-211.0</t>
+  </si>
+  <si>
+    <t>-27.0</t>
+  </si>
+  <si>
+    <t>1563.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>126.0</t>
+  </si>
+  <si>
+    <t>969.0</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>-79.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>3292150.0</t>
+  </si>
+  <si>
+    <t>3145516.0</t>
+  </si>
+  <si>
+    <t>146634.0</t>
+  </si>
+  <si>
+    <t>242.0</t>
+  </si>
+  <si>
+    <t>745.0</t>
+  </si>
+  <si>
+    <t>897.0</t>
+  </si>
+  <si>
+    <t>-152.0</t>
+  </si>
+  <si>
+    <t>-17.0</t>
+  </si>
+  <si>
+    <t>1962.0</t>
+  </si>
+  <si>
+    <t>217.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>201.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>191.0</t>
+  </si>
+  <si>
+    <t>-45.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>5074678.0</t>
+  </si>
+  <si>
+    <t>3810934.0</t>
+  </si>
+  <si>
+    <t>1263744.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>659.0</t>
+  </si>
+  <si>
+    <t>763.0</t>
+  </si>
+  <si>
+    <t>-104.0</t>
+  </si>
+  <si>
+    <t>1587.0</t>
+  </si>
+  <si>
+    <t>1995.0</t>
+  </si>
+  <si>
+    <t>-408.0</t>
+  </si>
+  <si>
+    <t>-20.0</t>
+  </si>
+  <si>
+    <t>4841.0</t>
+  </si>
+  <si>
+    <t>199.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>382.0</t>
+  </si>
+  <si>
+    <t>268.0</t>
+  </si>
+  <si>
+    <t>114.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>-97.0</t>
+  </si>
+  <si>
+    <t>-34.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>5440326.0</t>
+  </si>
+  <si>
+    <t>5305399.0</t>
+  </si>
+  <si>
+    <t>134927.0</t>
+  </si>
+  <si>
+    <t>651.0</t>
+  </si>
+  <si>
+    <t>608.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>1513.0</t>
+  </si>
+  <si>
+    <t>1744.0</t>
+  </si>
+  <si>
+    <t>-231.0</t>
+  </si>
+  <si>
+    <t>2273.0</t>
+  </si>
+  <si>
+    <t>196.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>115.0</t>
+  </si>
+  <si>
+    <t>142.0</t>
+  </si>
+  <si>
+    <t>409.0</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t>271.0</t>
+  </si>
+  <si>
+    <t>223.0</t>
+  </si>
+  <si>
+    <t>281.0</t>
+  </si>
+  <si>
+    <t>-58.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>3220932.0</t>
+  </si>
+  <si>
+    <t>2897659.0</t>
+  </si>
+  <si>
+    <t>323273.0</t>
+  </si>
+  <si>
+    <t>452.0</t>
+  </si>
+  <si>
+    <t>430.0</t>
+  </si>
+  <si>
+    <t>1390.0</t>
+  </si>
+  <si>
+    <t>1520.0</t>
+  </si>
+  <si>
+    <t>-130.0</t>
+  </si>
+  <si>
+    <t>799.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>483.0</t>
+  </si>
+  <si>
+    <t>439.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>215.0</t>
+  </si>
+  <si>
+    <t>-55.0</t>
+  </si>
+  <si>
+    <t>-26.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>2588132.0</t>
+  </si>
+  <si>
+    <t>2714893.0</t>
+  </si>
+  <si>
+    <t>-126761.0</t>
+  </si>
+  <si>
+    <t>288.0</t>
+  </si>
+  <si>
+    <t>262.0</t>
+  </si>
+  <si>
+    <t>639.0</t>
+  </si>
+  <si>
+    <t>903.0</t>
+  </si>
+  <si>
+    <t>-264.0</t>
+  </si>
+  <si>
+    <t>-29.0</t>
+  </si>
+  <si>
+    <t>1064.0</t>
+  </si>
+  <si>
+    <t>163.0</t>
+  </si>
+  <si>
+    <t>208.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>177.0</t>
+  </si>
+  <si>
+    <t>-39.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>6204075.0</t>
+  </si>
+  <si>
+    <t>5773429.0</t>
+  </si>
+  <si>
+    <t>430646.0</t>
+  </si>
+  <si>
+    <t>503.0</t>
+  </si>
+  <si>
+    <t>463.0</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>1534.0</t>
+  </si>
+  <si>
+    <t>2093.0</t>
+  </si>
+  <si>
+    <t>-559.0</t>
+  </si>
+  <si>
+    <t>2635.0</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>141.0</t>
+  </si>
+  <si>
+    <t>123.0</t>
   </si>
   <si>
     <t>55.0</t>
   </si>
   <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>2017-09-30</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>244.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>-5.0</t>
-  </si>
-  <si>
-    <t>-11.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>Renforcer la sécurité du quotidien</t>
-  </si>
-  <si>
-    <t>Nombre d’heures de patrouille de voie publique</t>
-  </si>
-  <si>
-    <t>nb-heures-patrouille</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>1645413.0</t>
-  </si>
-  <si>
-    <t>2021-02-28</t>
-  </si>
-  <si>
-    <t>2654515.0</t>
-  </si>
-  <si>
-    <t>2017-03-31</t>
-  </si>
-  <si>
-    <t>-1009102.0</t>
-  </si>
-  <si>
-    <t>-38.0</t>
-  </si>
-  <si>
-    <t>heures de patrouille dans l'année</t>
-  </si>
-  <si>
-    <t>8004.0</t>
-  </si>
-  <si>
-    <t>846.0</t>
-  </si>
-  <si>
-    <t>449.0</t>
-  </si>
-  <si>
-    <t>397.0</t>
-  </si>
-  <si>
-    <t>88.0</t>
-  </si>
-  <si>
-    <t>2394.0</t>
-  </si>
-  <si>
-    <t>2651.0</t>
-  </si>
-  <si>
-    <t>2018-12-31</t>
-  </si>
-  <si>
-    <t>-257.0</t>
-  </si>
-  <si>
-    <t>-10.0</t>
-  </si>
-  <si>
-    <t>252.0</t>
-  </si>
-  <si>
-    <t>319.0</t>
-  </si>
-  <si>
-    <t>-67.0</t>
-  </si>
-  <si>
-    <t>-21.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>419666.0</t>
-  </si>
-  <si>
-    <t>670207.0</t>
-  </si>
-  <si>
-    <t>-250541.0</t>
+    <t>299.0</t>
+  </si>
+  <si>
+    <t>362.0</t>
+  </si>
+  <si>
+    <t>-63.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>6346785.0</t>
+  </si>
+  <si>
+    <t>6122686.0</t>
+  </si>
+  <si>
+    <t>224099.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>740.0</t>
+  </si>
+  <si>
+    <t>796.0</t>
+  </si>
+  <si>
+    <t>-56.0</t>
+  </si>
+  <si>
+    <t>3022.0</t>
+  </si>
+  <si>
+    <t>3886.0</t>
+  </si>
+  <si>
+    <t>-864.0</t>
+  </si>
+  <si>
+    <t>3564.0</t>
+  </si>
+  <si>
+    <t>159.0</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>129.0</t>
+  </si>
+  <si>
+    <t>285.0</t>
+  </si>
+  <si>
+    <t>392.0</t>
+  </si>
+  <si>
+    <t>-107.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>7571315.0</t>
+  </si>
+  <si>
+    <t>6960783.0</t>
+  </si>
+  <si>
+    <t>610532.0</t>
+  </si>
+  <si>
+    <t>1424.0</t>
+  </si>
+  <si>
+    <t>1273.0</t>
+  </si>
+  <si>
+    <t>6265.0</t>
+  </si>
+  <si>
+    <t>6053.0</t>
+  </si>
+  <si>
+    <t>212.0</t>
+  </si>
+  <si>
+    <t>5668.0</t>
+  </si>
+  <si>
+    <t>318.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>188.0</t>
+  </si>
+  <si>
+    <t>507.0</t>
+  </si>
+  <si>
+    <t>997.0</t>
+  </si>
+  <si>
+    <t>-490.0</t>
+  </si>
+  <si>
+    <t>332.0</t>
+  </si>
+  <si>
+    <t>410.0</t>
+  </si>
+  <si>
+    <t>-78.0</t>
+  </si>
+  <si>
+    <t>-19.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>4573337.0</t>
+  </si>
+  <si>
+    <t>3538225.0</t>
+  </si>
+  <si>
+    <t>1035112.0</t>
+  </si>
+  <si>
+    <t>696.0</t>
+  </si>
+  <si>
+    <t>792.0</t>
+  </si>
+  <si>
+    <t>-96.0</t>
+  </si>
+  <si>
+    <t>2701.0</t>
+  </si>
+  <si>
+    <t>4266.0</t>
+  </si>
+  <si>
+    <t>-1565.0</t>
   </si>
   <si>
     <t>-37.0</t>
   </si>
   <si>
-    <t>750.0</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>137.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>110.0</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>-82.0</t>
-  </si>
-  <si>
-    <t>-43.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>525693.0</t>
-  </si>
-  <si>
-    <t>841186.0</t>
-  </si>
-  <si>
-    <t>-315493.0</t>
-  </si>
-  <si>
-    <t>809.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>300.0</t>
-  </si>
-  <si>
-    <t>139.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>126.0</t>
-  </si>
-  <si>
-    <t>969.0</t>
-  </si>
-  <si>
-    <t>165.0</t>
-  </si>
-  <si>
-    <t>-79.0</t>
-  </si>
-  <si>
-    <t>-32.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>485683.0</t>
-  </si>
-  <si>
-    <t>795487.0</t>
-  </si>
-  <si>
-    <t>-309804.0</t>
-  </si>
-  <si>
-    <t>-39.0</t>
-  </si>
-  <si>
-    <t>865.0</t>
-  </si>
-  <si>
-    <t>217.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>145.0</t>
-  </si>
-  <si>
-    <t>201.0</t>
-  </si>
-  <si>
-    <t>146.0</t>
-  </si>
-  <si>
-    <t>191.0</t>
-  </si>
-  <si>
-    <t>-45.0</t>
-  </si>
-  <si>
-    <t>-24.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>632905.0</t>
-  </si>
-  <si>
-    <t>954815.0</t>
-  </si>
-  <si>
-    <t>-321910.0</t>
-  </si>
-  <si>
-    <t>-34.0</t>
-  </si>
-  <si>
-    <t>2455.0</t>
-  </si>
-  <si>
-    <t>199.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>275.0</t>
-  </si>
-  <si>
-    <t>382.0</t>
-  </si>
-  <si>
-    <t>268.0</t>
-  </si>
-  <si>
-    <t>114.0</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>289.0</t>
-  </si>
-  <si>
-    <t>-97.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>792183.0</t>
-  </si>
-  <si>
-    <t>1320923.0</t>
-  </si>
-  <si>
-    <t>-528740.0</t>
-  </si>
-  <si>
-    <t>-40.0</t>
-  </si>
-  <si>
-    <t>1165.0</t>
-  </si>
-  <si>
-    <t>196.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>115.0</t>
-  </si>
-  <si>
-    <t>142.0</t>
-  </si>
-  <si>
-    <t>409.0</t>
-  </si>
-  <si>
-    <t>138.0</t>
-  </si>
-  <si>
-    <t>271.0</t>
-  </si>
-  <si>
-    <t>223.0</t>
-  </si>
-  <si>
-    <t>281.0</t>
-  </si>
-  <si>
-    <t>-58.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>480243.0</t>
-  </si>
-  <si>
-    <t>713149.0</t>
-  </si>
-  <si>
-    <t>-232906.0</t>
-  </si>
-  <si>
-    <t>-33.0</t>
-  </si>
-  <si>
-    <t>399.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>483.0</t>
-  </si>
-  <si>
-    <t>439.0</t>
-  </si>
-  <si>
-    <t>160.0</t>
-  </si>
-  <si>
-    <t>215.0</t>
-  </si>
-  <si>
-    <t>-55.0</t>
-  </si>
-  <si>
-    <t>-26.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>417959.0</t>
-  </si>
-  <si>
-    <t>653687.0</t>
-  </si>
-  <si>
-    <t>-235728.0</t>
-  </si>
-  <si>
-    <t>-36.0</t>
-  </si>
-  <si>
-    <t>569.0</t>
-  </si>
-  <si>
-    <t>163.0</t>
-  </si>
-  <si>
-    <t>208.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>177.0</t>
-  </si>
-  <si>
-    <t>-22.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>940532.0</t>
-  </si>
-  <si>
-    <t>1497348.0</t>
-  </si>
-  <si>
-    <t>-556816.0</t>
-  </si>
-  <si>
-    <t>1383.0</t>
-  </si>
-  <si>
-    <t>256.0</t>
-  </si>
-  <si>
-    <t>141.0</t>
-  </si>
-  <si>
-    <t>123.0</t>
-  </si>
-  <si>
-    <t>299.0</t>
-  </si>
-  <si>
-    <t>362.0</t>
-  </si>
-  <si>
-    <t>-63.0</t>
-  </si>
-  <si>
-    <t>-17.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>945594.0</t>
-  </si>
-  <si>
-    <t>1545510.0</t>
-  </si>
-  <si>
-    <t>-599916.0</t>
-  </si>
-  <si>
-    <t>1815.0</t>
-  </si>
-  <si>
-    <t>159.0</t>
-  </si>
-  <si>
-    <t>122.0</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>119.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>129.0</t>
-  </si>
-  <si>
-    <t>285.0</t>
-  </si>
-  <si>
-    <t>392.0</t>
-  </si>
-  <si>
-    <t>-107.0</t>
-  </si>
-  <si>
-    <t>-27.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>1187564.0</t>
-  </si>
-  <si>
-    <t>1832463.0</t>
-  </si>
-  <si>
-    <t>-644899.0</t>
-  </si>
-  <si>
-    <t>-35.0</t>
-  </si>
-  <si>
-    <t>2848.0</t>
-  </si>
-  <si>
-    <t>318.0</t>
-  </si>
-  <si>
-    <t>130.0</t>
-  </si>
-  <si>
-    <t>188.0</t>
-  </si>
-  <si>
-    <t>507.0</t>
-  </si>
-  <si>
-    <t>997.0</t>
-  </si>
-  <si>
-    <t>-490.0</t>
-  </si>
-  <si>
-    <t>-49.0</t>
-  </si>
-  <si>
-    <t>332.0</t>
-  </si>
-  <si>
-    <t>410.0</t>
-  </si>
-  <si>
-    <t>-78.0</t>
-  </si>
-  <si>
-    <t>-19.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>542811.0</t>
-  </si>
-  <si>
-    <t>914402.0</t>
-  </si>
-  <si>
-    <t>-371591.0</t>
-  </si>
-  <si>
-    <t>-41.0</t>
-  </si>
-  <si>
-    <t>4592.0</t>
+    <t>9243.0</t>
   </si>
   <si>
     <t>367.0</t>
@@ -861,22 +1203,25 @@
     <t>Corse</t>
   </si>
   <si>
-    <t>79889.0</t>
-  </si>
-  <si>
-    <t>138366.0</t>
-  </si>
-  <si>
-    <t>-58477.0</t>
-  </si>
-  <si>
-    <t>-42.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>-13.0</t>
+    <t>623565.0</t>
+  </si>
+  <si>
+    <t>522909.0</t>
+  </si>
+  <si>
+    <t>100656.0</t>
+  </si>
+  <si>
+    <t>210.0</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>89.0</t>
   </si>
 </sst>
 </file>
@@ -1208,7 +1553,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1286,22 +1631,28 @@
       <c r="H2" t="s">
         <v>22</v>
       </c>
+      <c r="I2" t="s">
+        <v>23</v>
+      </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="K2" t="s">
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1310,24 +1661,36 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>34</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1336,24 +1699,36 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" t="s">
+        <v>39</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1362,25 +1737,109 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
       <c r="J5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K8" t="s">
+        <v>65</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1390,7 +1849,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1445,40 +1904,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>228</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>229</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>230</v>
       </c>
       <c r="K2" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1486,145 +1945,221 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>233</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>158</v>
+        <v>234</v>
+      </c>
+      <c r="K3" t="s">
+        <v>146</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>235</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>160</v>
+        <v>236</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>148</v>
+        <v>237</v>
       </c>
       <c r="K4" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E5" t="s">
-        <v>153</v>
-      </c>
-      <c r="F5" t="s">
-        <v>162</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" t="s">
-        <v>163</v>
-      </c>
-      <c r="I5" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>164</v>
-      </c>
-      <c r="K5" t="s">
-        <v>165</v>
+        <v>239</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>226</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>240</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>166</v>
+        <v>241</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>167</v>
+        <v>223</v>
       </c>
       <c r="K6" t="s">
-        <v>157</v>
+        <v>44</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>226</v>
+      </c>
+      <c r="E7" t="s">
+        <v>227</v>
+      </c>
+      <c r="F7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>243</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K7" t="s">
+        <v>245</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>169</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>246</v>
+      </c>
+      <c r="K8" t="s">
+        <v>247</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1634,7 +2169,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1689,40 +2224,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="E2" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="F2" t="s">
-        <v>170</v>
+        <v>250</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>251</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>172</v>
+        <v>252</v>
       </c>
       <c r="K2" t="s">
-        <v>173</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1730,145 +2265,221 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>253</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>254</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>174</v>
+        <v>245</v>
+      </c>
+      <c r="K3" t="s">
+        <v>255</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="E4" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="F4" t="s">
-        <v>175</v>
+        <v>256</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>176</v>
+        <v>257</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>177</v>
+        <v>258</v>
       </c>
       <c r="K4" t="s">
-        <v>178</v>
+        <v>93</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>168</v>
-      </c>
-      <c r="E5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" t="s">
-        <v>179</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" t="s">
-        <v>180</v>
-      </c>
-      <c r="I5" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>181</v>
-      </c>
-      <c r="K5" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="E6" t="s">
-        <v>169</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
-        <v>182</v>
+        <v>260</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>183</v>
+        <v>261</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>184</v>
+        <v>262</v>
       </c>
       <c r="K6" t="s">
-        <v>103</v>
+        <v>263</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>265</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" t="s">
+        <v>266</v>
+      </c>
+      <c r="K7" t="s">
+        <v>260</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>248</v>
+      </c>
+      <c r="E8" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" t="s">
+        <v>267</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>268</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>269</v>
+      </c>
+      <c r="K8" t="s">
+        <v>163</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1878,7 +2489,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1933,40 +2544,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
-        <v>187</v>
+        <v>272</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>188</v>
+        <v>273</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>189</v>
+        <v>274</v>
       </c>
       <c r="K2" t="s">
-        <v>190</v>
+        <v>133</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1974,133 +2585,209 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="F3" t="s">
-        <v>191</v>
+        <v>275</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>276</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>191</v>
+        <v>116</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>277</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>59</v>
+        <v>278</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>193</v>
+        <v>279</v>
       </c>
       <c r="K4" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E5" t="s">
+        <v>271</v>
+      </c>
+      <c r="F5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" t="s">
-        <v>186</v>
-      </c>
-      <c r="F5" t="s">
-        <v>195</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>280</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>185</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>271</v>
       </c>
       <c r="F6" t="s">
-        <v>196</v>
+        <v>281</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="J6" t="s">
-        <v>198</v>
+        <v>74</v>
       </c>
       <c r="K6" t="s">
-        <v>199</v>
+        <v>282</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>270</v>
+      </c>
+      <c r="E7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F8" t="s">
+        <v>284</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>285</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>286</v>
+      </c>
+      <c r="K8" t="s">
+        <v>287</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +2797,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2165,40 +2852,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
-        <v>202</v>
+        <v>290</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>203</v>
+        <v>291</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>204</v>
+        <v>292</v>
       </c>
       <c r="K2" t="s">
-        <v>205</v>
+        <v>119</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2206,133 +2893,209 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>289</v>
       </c>
       <c r="F3" t="s">
-        <v>206</v>
+        <v>293</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>294</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>206</v>
+        <v>96</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>289</v>
       </c>
       <c r="F4" t="s">
-        <v>207</v>
+        <v>295</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>160</v>
+        <v>296</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>116</v>
+        <v>297</v>
       </c>
       <c r="K4" t="s">
-        <v>208</v>
+        <v>298</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>200</v>
-      </c>
-      <c r="E5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5" t="s">
-        <v>209</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>299</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>289</v>
       </c>
       <c r="F6" t="s">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="K6" t="s">
-        <v>211</v>
+        <v>301</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F7" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>288</v>
+      </c>
+      <c r="E8" t="s">
+        <v>289</v>
+      </c>
+      <c r="F8" t="s">
+        <v>265</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>303</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>304</v>
+      </c>
+      <c r="K8" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2342,7 +3105,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2397,40 +3160,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>307</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>215</v>
+        <v>308</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>216</v>
+        <v>309</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>255</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2438,133 +3201,209 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>310</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>311</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>217</v>
+        <v>312</v>
+      </c>
+      <c r="K3" t="s">
+        <v>114</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="F4" t="s">
-        <v>218</v>
+        <v>313</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>177</v>
+        <v>314</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>219</v>
+        <v>315</v>
       </c>
       <c r="K4" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" t="s">
+        <v>316</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>212</v>
-      </c>
-      <c r="E5" t="s">
-        <v>213</v>
-      </c>
-      <c r="F5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>316</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>305</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>306</v>
       </c>
       <c r="F6" t="s">
-        <v>221</v>
+        <v>317</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>223</v>
+        <v>318</v>
       </c>
       <c r="K6" t="s">
-        <v>224</v>
+        <v>319</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>305</v>
+      </c>
+      <c r="E8" t="s">
+        <v>306</v>
+      </c>
+      <c r="F8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>322</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>323</v>
+      </c>
+      <c r="K8" t="s">
+        <v>217</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2574,7 +3413,7 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2629,40 +3468,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>324</v>
       </c>
       <c r="E2" t="s">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="F2" t="s">
-        <v>227</v>
+        <v>326</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>228</v>
+        <v>327</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>229</v>
+        <v>328</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>329</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2670,145 +3509,221 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>225</v>
+        <v>324</v>
       </c>
       <c r="E3" t="s">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="F3" t="s">
-        <v>230</v>
+        <v>330</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>331</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>230</v>
+        <v>332</v>
+      </c>
+      <c r="K3" t="s">
+        <v>83</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>225</v>
+        <v>324</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="F4" t="s">
-        <v>183</v>
+        <v>333</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>231</v>
+        <v>334</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>232</v>
+        <v>335</v>
       </c>
       <c r="K4" t="s">
-        <v>233</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" t="s">
+        <v>325</v>
+      </c>
+      <c r="F5" t="s">
+        <v>336</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" t="s">
-        <v>226</v>
-      </c>
-      <c r="F5" t="s">
-        <v>234</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" t="s">
-        <v>113</v>
-      </c>
-      <c r="I5" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>235</v>
-      </c>
-      <c r="K5" t="s">
-        <v>236</v>
+        <v>336</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>225</v>
+        <v>324</v>
       </c>
       <c r="E6" t="s">
-        <v>226</v>
+        <v>325</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>238</v>
+        <v>337</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>239</v>
+        <v>338</v>
       </c>
       <c r="K6" t="s">
-        <v>240</v>
+        <v>339</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F7" t="s">
+        <v>340</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" t="s">
+        <v>341</v>
+      </c>
+      <c r="K7" t="s">
+        <v>342</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>324</v>
+      </c>
+      <c r="E8" t="s">
+        <v>325</v>
+      </c>
+      <c r="F8" t="s">
+        <v>343</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>344</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>345</v>
+      </c>
+      <c r="K8" t="s">
+        <v>198</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2818,7 +3733,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2873,40 +3788,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>241</v>
+        <v>346</v>
       </c>
       <c r="E2" t="s">
-        <v>242</v>
+        <v>347</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>348</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>244</v>
+        <v>349</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>245</v>
+        <v>350</v>
       </c>
       <c r="K2" t="s">
-        <v>246</v>
+        <v>114</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2914,145 +3829,221 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>241</v>
+        <v>346</v>
       </c>
       <c r="E3" t="s">
-        <v>242</v>
+        <v>347</v>
       </c>
       <c r="F3" t="s">
-        <v>247</v>
+        <v>351</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>352</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>247</v>
+        <v>109</v>
+      </c>
+      <c r="K3" t="s">
+        <v>128</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>241</v>
+        <v>346</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>347</v>
       </c>
       <c r="F4" t="s">
-        <v>248</v>
+        <v>353</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>249</v>
+        <v>354</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>250</v>
+        <v>355</v>
       </c>
       <c r="K4" t="s">
-        <v>146</v>
+        <v>329</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>346</v>
+      </c>
+      <c r="E5" t="s">
+        <v>347</v>
+      </c>
+      <c r="F5" t="s">
+        <v>356</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E5" t="s">
-        <v>242</v>
-      </c>
-      <c r="F5" t="s">
-        <v>251</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" t="s">
-        <v>252</v>
-      </c>
-      <c r="I5" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>253</v>
-      </c>
-      <c r="K5" t="s">
-        <v>254</v>
+        <v>356</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>241</v>
+        <v>346</v>
       </c>
       <c r="E6" t="s">
-        <v>242</v>
+        <v>347</v>
       </c>
       <c r="F6" t="s">
-        <v>255</v>
+        <v>357</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>256</v>
+        <v>358</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>257</v>
+        <v>359</v>
       </c>
       <c r="K6" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>346</v>
+      </c>
+      <c r="E7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>361</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K7" t="s">
+        <v>78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>346</v>
+      </c>
+      <c r="E8" t="s">
+        <v>347</v>
+      </c>
+      <c r="F8" t="s">
+        <v>363</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>364</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>365</v>
+      </c>
+      <c r="K8" t="s">
+        <v>366</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3062,7 +4053,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3117,40 +4108,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>259</v>
+        <v>367</v>
       </c>
       <c r="E2" t="s">
-        <v>260</v>
+        <v>368</v>
       </c>
       <c r="F2" t="s">
-        <v>261</v>
+        <v>369</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>262</v>
+        <v>370</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>263</v>
+        <v>371</v>
       </c>
       <c r="K2" t="s">
-        <v>264</v>
+        <v>74</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3158,145 +4149,221 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>259</v>
+        <v>367</v>
       </c>
       <c r="E3" t="s">
-        <v>260</v>
+        <v>368</v>
       </c>
       <c r="F3" t="s">
-        <v>265</v>
+        <v>372</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>373</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>265</v>
+        <v>374</v>
+      </c>
+      <c r="K3" t="s">
+        <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>259</v>
+        <v>367</v>
       </c>
       <c r="E4" t="s">
-        <v>260</v>
+        <v>368</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>375</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>267</v>
+        <v>376</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>268</v>
+        <v>377</v>
       </c>
       <c r="K4" t="s">
-        <v>269</v>
+        <v>378</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" t="s">
+        <v>379</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>259</v>
-      </c>
-      <c r="E5" t="s">
-        <v>260</v>
-      </c>
-      <c r="F5" t="s">
-        <v>249</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" t="s">
-        <v>210</v>
-      </c>
-      <c r="I5" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>270</v>
-      </c>
-      <c r="K5" t="s">
-        <v>240</v>
+        <v>379</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>259</v>
+        <v>367</v>
       </c>
       <c r="E6" t="s">
-        <v>260</v>
+        <v>368</v>
       </c>
       <c r="F6" t="s">
-        <v>271</v>
+        <v>380</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>272</v>
+        <v>381</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>273</v>
+        <v>382</v>
       </c>
       <c r="K6" t="s">
-        <v>157</v>
+        <v>383</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>367</v>
+      </c>
+      <c r="E7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>303</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K7" t="s">
+        <v>198</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>367</v>
+      </c>
+      <c r="E8" t="s">
+        <v>368</v>
+      </c>
+      <c r="F8" t="s">
+        <v>385</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>386</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>387</v>
+      </c>
+      <c r="K8" t="s">
+        <v>247</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3306,7 +4373,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3361,40 +4428,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>388</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>389</v>
       </c>
       <c r="F2" t="s">
-        <v>276</v>
+        <v>390</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>391</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>278</v>
+        <v>392</v>
       </c>
       <c r="K2" t="s">
-        <v>279</v>
+        <v>132</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3402,95 +4469,206 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>388</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>389</v>
       </c>
       <c r="F3" t="s">
-        <v>280</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>49</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>280</v>
+        <v>31</v>
+      </c>
+      <c r="K3" t="s">
+        <v>393</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E4" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
-        <v>274</v>
-      </c>
-      <c r="E4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
+      <c r="J4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K4" t="s">
+        <v>395</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>388</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>389</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>396</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>281</v>
-      </c>
-      <c r="K5" t="s">
-        <v>119</v>
+        <v>396</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" t="s">
+        <v>389</v>
+      </c>
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
+        <v>128</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>388</v>
+      </c>
+      <c r="E7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E8" t="s">
+        <v>389</v>
+      </c>
+      <c r="F8" t="s">
+        <v>302</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3500,7 +4678,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3564,115 +4742,229 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F2" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>70</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>47</v>
+        <v>71</v>
+      </c>
+      <c r="K2" t="s">
+        <v>72</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
+      <c r="J4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>79</v>
+      </c>
+      <c r="O5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" t="s">
         <v>38</v>
       </c>
-      <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" t="s">
-        <v>44</v>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3682,7 +4974,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3746,115 +5038,229 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>88</v>
+      </c>
+      <c r="K2" t="s">
+        <v>89</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" t="s">
+        <v>90</v>
+      </c>
+      <c r="K3" t="s">
+        <v>91</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
+      <c r="J4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s">
+        <v>94</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>95</v>
+      </c>
+      <c r="O5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="E5" t="s">
+      <c r="C7" t="s">
         <v>54</v>
       </c>
-      <c r="F5" t="s">
+      <c r="D7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
         <v>57</v>
       </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
         <v>58</v>
       </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="B8" t="s">
         <v>59</v>
       </c>
-      <c r="K5" t="s">
+      <c r="C8" t="s">
         <v>60</v>
       </c>
-      <c r="O5" t="s">
-        <v>44</v>
+      <c r="D8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>96</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>97</v>
+      </c>
+      <c r="K8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3864,7 +5270,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3928,127 +5334,241 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>101</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>102</v>
+      </c>
+      <c r="K2" t="s">
+        <v>103</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="O3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>108</v>
+      </c>
+      <c r="G4" t="s">
         <v>30</v>
       </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="H4" t="s">
+        <v>109</v>
+      </c>
+      <c r="I4" t="s">
         <v>32</v>
       </c>
-      <c r="D4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-      <c r="F4" t="s">
-        <v>59</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
+      <c r="J4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" t="s">
+        <v>111</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
-      </c>
-      <c r="K5" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" t="s">
+        <v>116</v>
+      </c>
+      <c r="K6" t="s">
+        <v>117</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>118</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4058,7 +5578,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4122,48 +5642,66 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>124</v>
+      </c>
+      <c r="I2" t="s">
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>65</v>
+        <v>125</v>
+      </c>
+      <c r="K2" t="s">
+        <v>126</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>128</v>
+      </c>
+      <c r="I3" t="s">
         <v>32</v>
       </c>
-      <c r="D3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
-      </c>
-      <c r="G3" t="s">
-        <v>34</v>
+      <c r="J3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" t="s">
+        <v>130</v>
       </c>
       <c r="O3" t="s">
         <v>35</v>
@@ -4171,40 +5709,171 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>37</v>
       </c>
-      <c r="C4" t="s">
-        <v>38</v>
-      </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
+        <v>128</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>114</v>
+      </c>
+      <c r="K4" t="s">
+        <v>131</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
         <v>42</v>
       </c>
-      <c r="I4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O4" t="s">
-        <v>44</v>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>132</v>
+      </c>
+      <c r="O5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>134</v>
+      </c>
+      <c r="K8" t="s">
+        <v>135</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4214,7 +5883,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4269,40 +5938,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4310,145 +5979,221 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="F3" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>144</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>90</v>
+        <v>145</v>
+      </c>
+      <c r="K3" t="s">
+        <v>146</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E4" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="F4" t="s">
-        <v>91</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>150</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+      <c r="F5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I5" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K5" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="E6" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>152</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>101</v>
+        <v>153</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="K6" t="s">
-        <v>103</v>
+        <v>155</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>157</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K7" t="s">
+        <v>160</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+      <c r="F8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>162</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" t="s">
+        <v>163</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4458,7 +6203,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4513,40 +6258,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="E2" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>166</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>167</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>168</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4554,133 +6299,209 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
+        <v>169</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>170</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>171</v>
+      </c>
+      <c r="K3" t="s">
+        <v>172</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="E4" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>174</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="K4" t="s">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" t="s">
+        <v>177</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E5" t="s">
-        <v>105</v>
-      </c>
-      <c r="F5" t="s">
-        <v>115</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>177</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="E6" t="s">
-        <v>105</v>
+        <v>165</v>
       </c>
       <c r="F6" t="s">
-        <v>116</v>
+        <v>178</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>117</v>
+        <v>179</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>118</v>
+        <v>180</v>
       </c>
       <c r="K6" t="s">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>184</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>185</v>
+      </c>
+      <c r="K8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4690,7 +6511,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4745,40 +6566,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="F2" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="I2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="J2" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4786,145 +6607,221 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="E3" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>193</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>125</v>
+        <v>194</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="F4" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>127</v>
+        <v>196</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="K4" t="s">
-        <v>129</v>
+        <v>198</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>120</v>
-      </c>
-      <c r="E5" t="s">
-        <v>121</v>
-      </c>
-      <c r="F5" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
       <c r="H5" t="s">
-        <v>131</v>
-      </c>
-      <c r="I5" t="s">
-        <v>97</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K5" t="s">
-        <v>133</v>
+        <v>199</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="E6" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="F6" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="J6" t="s">
-        <v>135</v>
+        <v>200</v>
       </c>
       <c r="K6" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I7" t="s">
+        <v>158</v>
+      </c>
+      <c r="J7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K7" t="s">
+        <v>205</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E8" t="s">
+        <v>188</v>
+      </c>
+      <c r="F8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -4934,7 +6831,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O6"/>
+  <dimension ref="A1:O8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4989,40 +6886,40 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>210</v>
       </c>
       <c r="G2" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="H2" t="s">
+        <v>211</v>
+      </c>
+      <c r="I2" t="s">
         <v>140</v>
       </c>
-      <c r="I2" t="s">
-        <v>86</v>
-      </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>212</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>55</v>
       </c>
       <c r="O2" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5030,133 +6927,209 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>213</v>
       </c>
       <c r="G3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>22</v>
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>143</v>
+        <v>176</v>
+      </c>
+      <c r="K3" t="s">
+        <v>83</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="E4" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>214</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H4" t="s">
-        <v>145</v>
+        <v>215</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>146</v>
+        <v>216</v>
       </c>
       <c r="K4" t="s">
-        <v>147</v>
+        <v>217</v>
       </c>
       <c r="O4" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>208</v>
+      </c>
+      <c r="E5" t="s">
+        <v>209</v>
+      </c>
+      <c r="F5" t="s">
+        <v>218</v>
+      </c>
+      <c r="G5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" t="s">
-        <v>138</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
+      <c r="H5" t="s">
+        <v>39</v>
+      </c>
+      <c r="J5" t="s">
+        <v>218</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>208</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
-        <v>148</v>
+        <v>219</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H6" t="s">
-        <v>149</v>
+        <v>220</v>
       </c>
       <c r="I6" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
+        <v>221</v>
+      </c>
+      <c r="K6" t="s">
+        <v>222</v>
+      </c>
+      <c r="O6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="O7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" t="s">
+        <v>208</v>
+      </c>
+      <c r="E8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>224</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" t="s">
         <v>150</v>
       </c>
-      <c r="K6" t="s">
-        <v>151</v>
-      </c>
-      <c r="O6" t="s">
-        <v>44</v>
+      <c r="O8" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/securite/regions/barometre-resultats-securite-regions-synthese.xlsx
+++ b/secteur-action-publique/securite/regions/barometre-resultats-securite-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="388">
   <si>
     <t>mesure</t>
   </si>
@@ -93,22 +93,13 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>326599.0</t>
-  </si>
-  <si>
-    <t>2021-05-31</t>
-  </si>
-  <si>
-    <t>67440.0</t>
-  </si>
-  <si>
-    <t>2021-01-31</t>
-  </si>
-  <si>
-    <t>259159.0</t>
-  </si>
-  <si>
-    <t>384.0</t>
+    <t>577411.0</t>
+  </si>
+  <si>
+    <t>2021-10-31</t>
+  </si>
+  <si>
+    <t>0.0</t>
   </si>
   <si>
     <t>heures de patrouille sur douze mois *</t>
@@ -120,1108 +111,1090 @@
     <t>nb-atteintes-personnes</t>
   </si>
   <si>
+    <t>49.0</t>
+  </si>
+  <si>
+    <t>2021-11-30</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>2017-11-30</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>atteintes aux personnes entre janvier et novembre</t>
+  </si>
+  <si>
+    <t>Atteintes aux biens dans les transports en commun</t>
+  </si>
+  <si>
+    <t>nb-atteintes-biens</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>-7.0</t>
+  </si>
+  <si>
+    <t>-13.0</t>
+  </si>
+  <si>
+    <t>atteintes aux biens entre janvier et novembre</t>
+  </si>
+  <si>
+    <t>Lutter contre les stupéfiants</t>
+  </si>
+  <si>
+    <t>Nombre d'amendes forfaitaires délictuelles dressées</t>
+  </si>
+  <si>
+    <t>nb-amendes-delictuelles-dressees</t>
+  </si>
+  <si>
+    <t>432.0</t>
+  </si>
+  <si>
+    <t>amendes dressées</t>
+  </si>
+  <si>
+    <t>Lutter contre les violences faites aux femmes</t>
+  </si>
+  <si>
+    <t>Nombre d’ordonnances de protection délivrées</t>
+  </si>
+  <si>
+    <t>nb-ordonnances-delivrees</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>233.0</t>
+  </si>
+  <si>
+    <t>ordonnances dans l'année</t>
+  </si>
+  <si>
+    <t>Lutter contre les atteintes aux principes républicains</t>
+  </si>
+  <si>
+    <t>Nombre de contrôles réalisés dans le cadre des CLIR ou des dispositifs existant localement avant la mise en place progressive des CLIR</t>
+  </si>
+  <si>
+    <t>nb-controles-clir</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>contrôles</t>
+  </si>
+  <si>
+    <t>Réduire la mortalité sur les routes</t>
+  </si>
+  <si>
+    <t>Nombre de morts sur les routes</t>
+  </si>
+  <si>
+    <t>nb-morts-routes</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
     <t>24.0</t>
   </si>
   <si>
-    <t>2021-06-30</t>
+    <t>morts</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>418919.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>-2.0</t>
+  </si>
+  <si>
+    <t>45.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>-27.0</t>
+  </si>
+  <si>
+    <t>-38.0</t>
+  </si>
+  <si>
+    <t>548.0</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>860980.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>56.0</t>
+  </si>
+  <si>
+    <t>-4.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>-31.0</t>
+  </si>
+  <si>
+    <t>147.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>731208.0</t>
+  </si>
+  <si>
+    <t>177.0</t>
+  </si>
+  <si>
+    <t>259.0</t>
+  </si>
+  <si>
+    <t>-82.0</t>
+  </si>
+  <si>
+    <t>-32.0</t>
+  </si>
+  <si>
+    <t>148.0</t>
+  </si>
+  <si>
+    <t>266.0</t>
+  </si>
+  <si>
+    <t>-118.0</t>
+  </si>
+  <si>
+    <t>-44.0</t>
+  </si>
+  <si>
+    <t>306.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>222.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>-9.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>489838.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>89.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>13729636.0</t>
+  </si>
+  <si>
+    <t>10331587.0</t>
+  </si>
+  <si>
+    <t>3398049.0</t>
+  </si>
+  <si>
+    <t>13025.0</t>
+  </si>
+  <si>
+    <t>14724.0</t>
+  </si>
+  <si>
+    <t>-1699.0</t>
+  </si>
+  <si>
+    <t>-12.0</t>
+  </si>
+  <si>
+    <t>56133.0</t>
+  </si>
+  <si>
+    <t>67357.0</t>
+  </si>
+  <si>
+    <t>-11224.0</t>
+  </si>
+  <si>
+    <t>-17.0</t>
+  </si>
+  <si>
+    <t>28675.0</t>
+  </si>
+  <si>
+    <t>799.0</t>
+  </si>
+  <si>
+    <t>428.0</t>
+  </si>
+  <si>
+    <t>371.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>2394.0</t>
+  </si>
+  <si>
+    <t>2651.0</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>-257.0</t>
+  </si>
+  <si>
+    <t>-10.0</t>
+  </si>
+  <si>
+    <t>249.0</t>
+  </si>
+  <si>
+    <t>319.0</t>
+  </si>
+  <si>
+    <t>-70.0</t>
+  </si>
+  <si>
+    <t>-22.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>2600512.0</t>
+  </si>
+  <si>
+    <t>2697668.0</t>
+  </si>
+  <si>
+    <t>-97156.0</t>
+  </si>
+  <si>
+    <t>506.0</t>
+  </si>
+  <si>
+    <t>528.0</t>
+  </si>
+  <si>
+    <t>1387.0</t>
+  </si>
+  <si>
+    <t>1542.0</t>
+  </si>
+  <si>
+    <t>-155.0</t>
+  </si>
+  <si>
+    <t>2691.0</t>
+  </si>
+  <si>
+    <t>101.0</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>127.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>-65.0</t>
+  </si>
+  <si>
+    <t>-34.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>3115504.0</t>
+  </si>
+  <si>
+    <t>3243281.0</t>
+  </si>
+  <si>
+    <t>-127777.0</t>
+  </si>
+  <si>
+    <t>520.0</t>
+  </si>
+  <si>
+    <t>414.0</t>
+  </si>
+  <si>
+    <t>106.0</t>
+  </si>
+  <si>
+    <t>1111.0</t>
+  </si>
+  <si>
+    <t>1552.0</t>
+  </si>
+  <si>
+    <t>-441.0</t>
+  </si>
+  <si>
+    <t>-28.0</t>
+  </si>
+  <si>
+    <t>2844.0</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>368.0</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>126.0</t>
+  </si>
+  <si>
+    <t>969.0</t>
+  </si>
+  <si>
+    <t>244.0</t>
+  </si>
+  <si>
+    <t>-117.0</t>
+  </si>
+  <si>
+    <t>-48.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>3464653.0</t>
+  </si>
+  <si>
+    <t>3135245.0</t>
+  </si>
+  <si>
+    <t>329408.0</t>
+  </si>
+  <si>
+    <t>459.0</t>
+  </si>
+  <si>
+    <t>495.0</t>
+  </si>
+  <si>
+    <t>-36.0</t>
+  </si>
+  <si>
+    <t>1427.0</t>
+  </si>
+  <si>
+    <t>1606.0</t>
+  </si>
+  <si>
+    <t>-179.0</t>
+  </si>
+  <si>
+    <t>-11.0</t>
+  </si>
+  <si>
+    <t>4207.0</t>
+  </si>
+  <si>
+    <t>217.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>201.0</t>
+  </si>
+  <si>
+    <t>137.0</t>
+  </si>
+  <si>
+    <t>191.0</t>
+  </si>
+  <si>
+    <t>-54.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>5610296.0</t>
+  </si>
+  <si>
+    <t>3796842.0</t>
+  </si>
+  <si>
+    <t>1813454.0</t>
+  </si>
+  <si>
+    <t>1172.0</t>
+  </si>
+  <si>
+    <t>1316.0</t>
+  </si>
+  <si>
+    <t>-144.0</t>
+  </si>
+  <si>
+    <t>3086.0</t>
+  </si>
+  <si>
+    <t>3581.0</t>
+  </si>
+  <si>
+    <t>-495.0</t>
+  </si>
+  <si>
+    <t>-14.0</t>
+  </si>
+  <si>
+    <t>8691.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>277.0</t>
+  </si>
+  <si>
+    <t>382.0</t>
+  </si>
+  <si>
+    <t>268.0</t>
+  </si>
+  <si>
+    <t>114.0</t>
+  </si>
+  <si>
+    <t>289.0</t>
+  </si>
+  <si>
+    <t>-97.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>5548815.0</t>
+  </si>
+  <si>
+    <t>5281563.0</t>
+  </si>
+  <si>
+    <t>267252.0</t>
+  </si>
+  <si>
+    <t>1147.0</t>
+  </si>
+  <si>
+    <t>1046.0</t>
+  </si>
+  <si>
+    <t>2903.0</t>
+  </si>
+  <si>
+    <t>3285.0</t>
+  </si>
+  <si>
+    <t>-382.0</t>
+  </si>
+  <si>
+    <t>3920.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>409.0</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t>271.0</t>
+  </si>
+  <si>
+    <t>196.0</t>
+  </si>
+  <si>
+    <t>221.0</t>
+  </si>
+  <si>
+    <t>281.0</t>
+  </si>
+  <si>
+    <t>-60.0</t>
+  </si>
+  <si>
+    <t>-21.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>3281160.0</t>
+  </si>
+  <si>
+    <t>2894031.0</t>
+  </si>
+  <si>
+    <t>387129.0</t>
+  </si>
+  <si>
+    <t>793.0</t>
+  </si>
+  <si>
+    <t>752.0</t>
+  </si>
+  <si>
+    <t>2724.0</t>
+  </si>
+  <si>
+    <t>2765.0</t>
+  </si>
+  <si>
+    <t>-41.0</t>
+  </si>
+  <si>
+    <t>1555.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>439.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>215.0</t>
+  </si>
+  <si>
+    <t>-55.0</t>
+  </si>
+  <si>
+    <t>-26.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>2630527.0</t>
+  </si>
+  <si>
+    <t>2696803.0</t>
+  </si>
+  <si>
+    <t>-66276.0</t>
+  </si>
+  <si>
+    <t>479.0</t>
+  </si>
+  <si>
+    <t>465.0</t>
+  </si>
+  <si>
+    <t>1451.0</t>
+  </si>
+  <si>
+    <t>1772.0</t>
+  </si>
+  <si>
+    <t>-321.0</t>
+  </si>
+  <si>
+    <t>-18.0</t>
+  </si>
+  <si>
+    <t>2173.0</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>152.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>-66.0</t>
+  </si>
+  <si>
+    <t>-37.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>6403216.0</t>
+  </si>
+  <si>
+    <t>5806893.0</t>
+  </si>
+  <si>
+    <t>596323.0</t>
+  </si>
+  <si>
+    <t>947.0</t>
+  </si>
+  <si>
+    <t>859.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>3505.0</t>
+  </si>
+  <si>
+    <t>3927.0</t>
+  </si>
+  <si>
+    <t>-422.0</t>
+  </si>
+  <si>
+    <t>4650.0</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>113.0</t>
+  </si>
+  <si>
+    <t>167.0</t>
+  </si>
+  <si>
+    <t>333.0</t>
+  </si>
+  <si>
+    <t>362.0</t>
+  </si>
+  <si>
+    <t>-29.0</t>
+  </si>
+  <si>
+    <t>-8.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>6521633.0</t>
+  </si>
+  <si>
+    <t>6114011.0</t>
+  </si>
+  <si>
+    <t>407622.0</t>
+  </si>
+  <si>
+    <t>1418.0</t>
+  </si>
+  <si>
+    <t>1356.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>5539.0</t>
+  </si>
+  <si>
+    <t>6730.0</t>
+  </si>
+  <si>
+    <t>-1191.0</t>
+  </si>
+  <si>
+    <t>7129.0</t>
+  </si>
+  <si>
+    <t>284.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>129.0</t>
+  </si>
+  <si>
+    <t>286.0</t>
+  </si>
+  <si>
+    <t>392.0</t>
+  </si>
+  <si>
+    <t>-106.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>7789461.0</t>
+  </si>
+  <si>
+    <t>6953065.0</t>
+  </si>
+  <si>
+    <t>836396.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>2610.0</t>
+  </si>
+  <si>
+    <t>2251.0</t>
+  </si>
+  <si>
+    <t>359.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>11964.0</t>
+  </si>
+  <si>
+    <t>11125.0</t>
+  </si>
+  <si>
+    <t>839.0</t>
+  </si>
+  <si>
+    <t>11152.0</t>
+  </si>
+  <si>
+    <t>309.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>507.0</t>
+  </si>
+  <si>
+    <t>997.0</t>
+  </si>
+  <si>
+    <t>-490.0</t>
+  </si>
+  <si>
+    <t>-49.0</t>
+  </si>
+  <si>
+    <t>313.0</t>
+  </si>
+  <si>
+    <t>410.0</t>
+  </si>
+  <si>
+    <t>-24.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>5200242.0</t>
+  </si>
+  <si>
+    <t>3541725.0</t>
+  </si>
+  <si>
+    <t>1658517.0</t>
+  </si>
+  <si>
+    <t>1306.0</t>
+  </si>
+  <si>
+    <t>1375.0</t>
+  </si>
+  <si>
+    <t>-69.0</t>
+  </si>
+  <si>
+    <t>-5.0</t>
+  </si>
+  <si>
+    <t>5447.0</t>
+  </si>
+  <si>
+    <t>7898.0</t>
+  </si>
+  <si>
+    <t>-2451.0</t>
+  </si>
+  <si>
+    <t>17642.0</t>
+  </si>
+  <si>
+    <t>399.0</t>
+  </si>
+  <si>
+    <t>239.0</t>
+  </si>
+  <si>
+    <t>149.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>-47.0</t>
+  </si>
+  <si>
+    <t>229.0</t>
+  </si>
+  <si>
+    <t>346.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>724515.0</t>
+  </si>
+  <si>
+    <t>526289.0</t>
+  </si>
+  <si>
+    <t>198226.0</t>
   </si>
   <si>
     <t>21.0</t>
   </si>
   <si>
+    <t>143.0</t>
+  </si>
+  <si>
+    <t>70.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>155.0</t>
+  </si>
+  <si>
     <t>2017-06-30</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>atteintes aux personnes entre janvier et juin</t>
-  </si>
-  <si>
-    <t>Atteintes aux biens dans les transports en commun</t>
-  </si>
-  <si>
-    <t>nb-atteintes-biens</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>atteintes aux biens entre janvier et juin</t>
-  </si>
-  <si>
-    <t>Lutter contre les stupéfiants</t>
-  </si>
-  <si>
-    <t>Nombre d'amendes forfaitaires délictuelles dressées</t>
-  </si>
-  <si>
-    <t>nb-amendes-delictuelles-dressees</t>
-  </si>
-  <si>
-    <t>275.0</t>
-  </si>
-  <si>
-    <t>amendes dressées dans l'année</t>
-  </si>
-  <si>
-    <t>Lutter contre les violences faites aux femmes</t>
-  </si>
-  <si>
-    <t>Nombre d’ordonnances de protection délivrées</t>
-  </si>
-  <si>
-    <t>nb-ordonnances-delivrees</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>2020-09-30</t>
-  </si>
-  <si>
-    <t>ordonnances dans l'année</t>
-  </si>
-  <si>
-    <t>Lutter contre les atteintes aux principes républicains</t>
-  </si>
-  <si>
-    <t>Nombre de contrôles réalisés dans le cadre des CLIR ou des dispositifs existant localement avant la mise en place progressive des CLIR</t>
-  </si>
-  <si>
-    <t>nb-controles-clir</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>contrôles dans l'année</t>
-  </si>
-  <si>
-    <t>Réduire la mortalité sur les routes</t>
-  </si>
-  <si>
-    <t>Nombre de morts sur les routes</t>
-  </si>
-  <si>
-    <t>nb-morts-routes</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>morts dans l'année</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>243125.0</t>
-  </si>
-  <si>
-    <t>52122.0</t>
-  </si>
-  <si>
-    <t>191003.0</t>
-  </si>
-  <si>
-    <t>366.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>-22.0</t>
-  </si>
-  <si>
-    <t>-49.0</t>
-  </si>
-  <si>
-    <t>260.0</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>-2.0</t>
-  </si>
-  <si>
-    <t>-7.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>450978.0</t>
-  </si>
-  <si>
-    <t>92790.0</t>
-  </si>
-  <si>
-    <t>358188.0</t>
-  </si>
-  <si>
-    <t>386.0</t>
-  </si>
-  <si>
-    <t>-4.0</t>
-  </si>
-  <si>
-    <t>-12.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>-13.0</t>
-  </si>
-  <si>
-    <t>-31.0</t>
-  </si>
-  <si>
-    <t>85.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>411875.0</t>
-  </si>
-  <si>
-    <t>59686.0</t>
-  </si>
-  <si>
-    <t>352189.0</t>
-  </si>
-  <si>
-    <t>590.0</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>133.0</t>
-  </si>
-  <si>
-    <t>-42.0</t>
-  </si>
-  <si>
-    <t>-32.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>151.0</t>
-  </si>
-  <si>
-    <t>-67.0</t>
-  </si>
-  <si>
-    <t>-44.0</t>
-  </si>
-  <si>
-    <t>181.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>2017-09-30</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>244.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>-5.0</t>
-  </si>
-  <si>
-    <t>-11.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>278837.0</t>
-  </si>
-  <si>
-    <t>57752.0</t>
-  </si>
-  <si>
-    <t>221085.0</t>
-  </si>
-  <si>
-    <t>383.0</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>125.0</t>
-  </si>
-  <si>
-    <t>75.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>12126459.0</t>
-  </si>
-  <si>
-    <t>10283763.0</t>
-  </si>
-  <si>
-    <t>2018-01-31</t>
-  </si>
-  <si>
-    <t>1842696.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>7320.0</t>
-  </si>
-  <si>
-    <t>8495.0</t>
-  </si>
-  <si>
-    <t>-1175.0</t>
-  </si>
-  <si>
-    <t>-14.0</t>
-  </si>
-  <si>
-    <t>29643.0</t>
-  </si>
-  <si>
-    <t>39095.0</t>
-  </si>
-  <si>
-    <t>-9452.0</t>
-  </si>
-  <si>
-    <t>-24.0</t>
-  </si>
-  <si>
-    <t>15753.0</t>
-  </si>
-  <si>
-    <t>846.0</t>
-  </si>
-  <si>
-    <t>449.0</t>
-  </si>
-  <si>
-    <t>397.0</t>
-  </si>
-  <si>
-    <t>88.0</t>
-  </si>
-  <si>
-    <t>2394.0</t>
-  </si>
-  <si>
-    <t>2651.0</t>
-  </si>
-  <si>
-    <t>2018-12-31</t>
-  </si>
-  <si>
-    <t>-257.0</t>
-  </si>
-  <si>
-    <t>-10.0</t>
-  </si>
-  <si>
-    <t>252.0</t>
-  </si>
-  <si>
-    <t>319.0</t>
-  </si>
-  <si>
-    <t>-21.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>2591294.0</t>
-  </si>
-  <si>
-    <t>2703188.0</t>
-  </si>
-  <si>
-    <t>-111894.0</t>
-  </si>
-  <si>
-    <t>289.0</t>
-  </si>
-  <si>
-    <t>298.0</t>
-  </si>
-  <si>
-    <t>-9.0</t>
-  </si>
-  <si>
-    <t>-3.0</t>
-  </si>
-  <si>
-    <t>724.0</t>
-  </si>
-  <si>
-    <t>883.0</t>
-  </si>
-  <si>
-    <t>-159.0</t>
-  </si>
-  <si>
-    <t>-18.0</t>
-  </si>
-  <si>
-    <t>1483.0</t>
-  </si>
-  <si>
-    <t>90.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>137.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>110.0</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>-82.0</t>
-  </si>
-  <si>
-    <t>-43.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>3140403.0</t>
-  </si>
-  <si>
-    <t>3241179.0</t>
-  </si>
-  <si>
-    <t>-100776.0</t>
-  </si>
-  <si>
-    <t>290.0</t>
-  </si>
-  <si>
-    <t>226.0</t>
-  </si>
-  <si>
-    <t>64.0</t>
-  </si>
-  <si>
-    <t>569.0</t>
-  </si>
-  <si>
-    <t>780.0</t>
-  </si>
-  <si>
-    <t>-211.0</t>
-  </si>
-  <si>
-    <t>-27.0</t>
-  </si>
-  <si>
-    <t>1563.0</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>300.0</t>
-  </si>
-  <si>
-    <t>139.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>126.0</t>
-  </si>
-  <si>
-    <t>969.0</t>
-  </si>
-  <si>
-    <t>165.0</t>
-  </si>
-  <si>
-    <t>-79.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>3292150.0</t>
-  </si>
-  <si>
-    <t>3145516.0</t>
-  </si>
-  <si>
-    <t>146634.0</t>
-  </si>
-  <si>
-    <t>242.0</t>
-  </si>
-  <si>
-    <t>745.0</t>
-  </si>
-  <si>
-    <t>897.0</t>
-  </si>
-  <si>
-    <t>-152.0</t>
-  </si>
-  <si>
-    <t>-17.0</t>
-  </si>
-  <si>
-    <t>1962.0</t>
-  </si>
-  <si>
-    <t>217.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>145.0</t>
-  </si>
-  <si>
-    <t>201.0</t>
-  </si>
-  <si>
-    <t>146.0</t>
-  </si>
-  <si>
-    <t>191.0</t>
-  </si>
-  <si>
-    <t>-45.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>5074678.0</t>
-  </si>
-  <si>
-    <t>3810934.0</t>
-  </si>
-  <si>
-    <t>1263744.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>659.0</t>
-  </si>
-  <si>
-    <t>763.0</t>
-  </si>
-  <si>
-    <t>-104.0</t>
-  </si>
-  <si>
-    <t>1587.0</t>
-  </si>
-  <si>
-    <t>1995.0</t>
-  </si>
-  <si>
-    <t>-408.0</t>
-  </si>
-  <si>
-    <t>-20.0</t>
-  </si>
-  <si>
-    <t>4841.0</t>
-  </si>
-  <si>
-    <t>199.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>382.0</t>
-  </si>
-  <si>
-    <t>268.0</t>
-  </si>
-  <si>
-    <t>114.0</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>-97.0</t>
-  </si>
-  <si>
-    <t>-34.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>5440326.0</t>
-  </si>
-  <si>
-    <t>5305399.0</t>
-  </si>
-  <si>
-    <t>134927.0</t>
-  </si>
-  <si>
-    <t>651.0</t>
-  </si>
-  <si>
-    <t>608.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>1513.0</t>
-  </si>
-  <si>
-    <t>1744.0</t>
-  </si>
-  <si>
-    <t>-231.0</t>
-  </si>
-  <si>
-    <t>2273.0</t>
-  </si>
-  <si>
-    <t>196.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>115.0</t>
-  </si>
-  <si>
-    <t>142.0</t>
-  </si>
-  <si>
-    <t>409.0</t>
-  </si>
-  <si>
-    <t>138.0</t>
-  </si>
-  <si>
-    <t>271.0</t>
-  </si>
-  <si>
-    <t>223.0</t>
-  </si>
-  <si>
-    <t>281.0</t>
-  </si>
-  <si>
-    <t>-58.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>3220932.0</t>
-  </si>
-  <si>
-    <t>2897659.0</t>
-  </si>
-  <si>
-    <t>323273.0</t>
-  </si>
-  <si>
-    <t>452.0</t>
-  </si>
-  <si>
-    <t>430.0</t>
-  </si>
-  <si>
-    <t>1390.0</t>
-  </si>
-  <si>
-    <t>1520.0</t>
-  </si>
-  <si>
-    <t>-130.0</t>
-  </si>
-  <si>
-    <t>799.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>483.0</t>
-  </si>
-  <si>
-    <t>439.0</t>
-  </si>
-  <si>
-    <t>160.0</t>
-  </si>
-  <si>
-    <t>215.0</t>
-  </si>
-  <si>
-    <t>-55.0</t>
-  </si>
-  <si>
-    <t>-26.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>2588132.0</t>
-  </si>
-  <si>
-    <t>2714893.0</t>
-  </si>
-  <si>
-    <t>-126761.0</t>
-  </si>
-  <si>
-    <t>288.0</t>
-  </si>
-  <si>
-    <t>262.0</t>
-  </si>
-  <si>
-    <t>639.0</t>
-  </si>
-  <si>
-    <t>903.0</t>
-  </si>
-  <si>
-    <t>-264.0</t>
-  </si>
-  <si>
-    <t>-29.0</t>
-  </si>
-  <si>
-    <t>1064.0</t>
-  </si>
-  <si>
-    <t>163.0</t>
-  </si>
-  <si>
-    <t>208.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>177.0</t>
-  </si>
-  <si>
-    <t>-39.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>6204075.0</t>
-  </si>
-  <si>
-    <t>5773429.0</t>
-  </si>
-  <si>
-    <t>430646.0</t>
-  </si>
-  <si>
-    <t>503.0</t>
-  </si>
-  <si>
-    <t>463.0</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>1534.0</t>
-  </si>
-  <si>
-    <t>2093.0</t>
-  </si>
-  <si>
-    <t>-559.0</t>
-  </si>
-  <si>
-    <t>2635.0</t>
-  </si>
-  <si>
-    <t>256.0</t>
-  </si>
-  <si>
-    <t>141.0</t>
-  </si>
-  <si>
-    <t>123.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>299.0</t>
-  </si>
-  <si>
-    <t>362.0</t>
-  </si>
-  <si>
-    <t>-63.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>6346785.0</t>
-  </si>
-  <si>
-    <t>6122686.0</t>
-  </si>
-  <si>
-    <t>224099.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>740.0</t>
-  </si>
-  <si>
-    <t>796.0</t>
-  </si>
-  <si>
-    <t>-56.0</t>
-  </si>
-  <si>
-    <t>3022.0</t>
-  </si>
-  <si>
-    <t>3886.0</t>
-  </si>
-  <si>
-    <t>-864.0</t>
-  </si>
-  <si>
-    <t>3564.0</t>
-  </si>
-  <si>
-    <t>159.0</t>
-  </si>
-  <si>
-    <t>122.0</t>
-  </si>
-  <si>
-    <t>77.0</t>
-  </si>
-  <si>
-    <t>119.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>129.0</t>
-  </si>
-  <si>
-    <t>285.0</t>
-  </si>
-  <si>
-    <t>392.0</t>
-  </si>
-  <si>
-    <t>-107.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>7571315.0</t>
-  </si>
-  <si>
-    <t>6960783.0</t>
-  </si>
-  <si>
-    <t>610532.0</t>
-  </si>
-  <si>
-    <t>1424.0</t>
-  </si>
-  <si>
-    <t>1273.0</t>
-  </si>
-  <si>
-    <t>6265.0</t>
-  </si>
-  <si>
-    <t>6053.0</t>
-  </si>
-  <si>
-    <t>212.0</t>
-  </si>
-  <si>
-    <t>5668.0</t>
-  </si>
-  <si>
-    <t>318.0</t>
-  </si>
-  <si>
-    <t>130.0</t>
-  </si>
-  <si>
-    <t>188.0</t>
-  </si>
-  <si>
-    <t>507.0</t>
-  </si>
-  <si>
-    <t>997.0</t>
-  </si>
-  <si>
-    <t>-490.0</t>
-  </si>
-  <si>
-    <t>332.0</t>
-  </si>
-  <si>
-    <t>410.0</t>
-  </si>
-  <si>
-    <t>-78.0</t>
-  </si>
-  <si>
-    <t>-19.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>4573337.0</t>
-  </si>
-  <si>
-    <t>3538225.0</t>
-  </si>
-  <si>
-    <t>1035112.0</t>
-  </si>
-  <si>
-    <t>696.0</t>
-  </si>
-  <si>
-    <t>792.0</t>
-  </si>
-  <si>
-    <t>-96.0</t>
-  </si>
-  <si>
-    <t>2701.0</t>
-  </si>
-  <si>
-    <t>4266.0</t>
-  </si>
-  <si>
-    <t>-1565.0</t>
-  </si>
-  <si>
-    <t>-37.0</t>
-  </si>
-  <si>
-    <t>9243.0</t>
-  </si>
-  <si>
-    <t>367.0</t>
-  </si>
-  <si>
-    <t>143.0</t>
-  </si>
-  <si>
-    <t>224.0</t>
-  </si>
-  <si>
-    <t>157.0</t>
-  </si>
-  <si>
-    <t>-47.0</t>
-  </si>
-  <si>
-    <t>227.0</t>
-  </si>
-  <si>
-    <t>346.0</t>
-  </si>
-  <si>
-    <t>-119.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>623565.0</t>
-  </si>
-  <si>
-    <t>522909.0</t>
-  </si>
-  <si>
-    <t>100656.0</t>
-  </si>
-  <si>
-    <t>210.0</t>
-  </si>
-  <si>
-    <t>46.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>89.0</t>
   </si>
 </sst>
 </file>
@@ -1629,19 +1602,19 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1649,10 +1622,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1661,25 +1634,25 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1687,10 +1660,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1699,36 +1672,36 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="O4" t="s">
         <v>39</v>
-      </c>
-      <c r="K4" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1737,30 +1710,30 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" t="s">
         <v>44</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1769,24 +1742,36 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
         <v>49</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>50</v>
       </c>
+      <c r="J6" t="s">
+        <v>51</v>
+      </c>
+      <c r="K6" t="s">
+        <v>52</v>
+      </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1795,24 +1780,24 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1821,25 +1806,25 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1913,31 +1898,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E2" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F2" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="K2" t="s">
-        <v>231</v>
+        <v>35</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1945,37 +1930,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" t="s">
+        <v>214</v>
+      </c>
+      <c r="F3" t="s">
+        <v>218</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>226</v>
-      </c>
-      <c r="E3" t="s">
-        <v>227</v>
-      </c>
-      <c r="F3" t="s">
-        <v>232</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>220</v>
+      </c>
+      <c r="K3" t="s">
+        <v>205</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>234</v>
-      </c>
-      <c r="K3" t="s">
-        <v>146</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1983,183 +1968,183 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E4" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F4" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="K4" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E5" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F5" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F6" t="s">
         <v>226</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
         <v>227</v>
       </c>
-      <c r="F6" t="s">
-        <v>240</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>241</v>
-      </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>223</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="E7" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="F7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="J7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="K7" t="s">
-        <v>245</v>
+        <v>112</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>226</v>
-      </c>
-      <c r="E8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F8" t="s">
-        <v>184</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
-        <v>169</v>
+        <v>232</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="K8" t="s">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2233,31 +2218,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="F2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="K2" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2265,37 +2250,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F3" t="s">
+        <v>239</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>248</v>
-      </c>
-      <c r="E3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F3" t="s">
-        <v>253</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>245</v>
-      </c>
-      <c r="K3" t="s">
-        <v>255</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2303,183 +2288,183 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="F4" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="K4" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E5" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="F5" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E6" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="F6" t="s">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>262</v>
+        <v>118</v>
       </c>
       <c r="K6" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E7" t="s">
+        <v>235</v>
+      </c>
+      <c r="F7" t="s">
+        <v>247</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
         <v>248</v>
       </c>
-      <c r="E7" t="s">
+      <c r="I7" t="s">
+        <v>145</v>
+      </c>
+      <c r="J7" t="s">
         <v>249</v>
       </c>
-      <c r="F7" t="s">
-        <v>264</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>265</v>
-      </c>
-      <c r="I7" t="s">
-        <v>158</v>
-      </c>
-      <c r="J7" t="s">
-        <v>266</v>
-      </c>
       <c r="K7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E8" t="s">
+        <v>235</v>
+      </c>
+      <c r="F8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>248</v>
-      </c>
-      <c r="E8" t="s">
-        <v>249</v>
-      </c>
-      <c r="F8" t="s">
-        <v>267</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
-        <v>268</v>
+        <v>252</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="K8" t="s">
-        <v>163</v>
+        <v>254</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2553,31 +2538,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F2" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2585,37 +2570,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" t="s">
+        <v>261</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
-        <v>270</v>
-      </c>
-      <c r="E3" t="s">
-        <v>271</v>
-      </c>
-      <c r="F3" t="s">
-        <v>275</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
-        <v>276</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>116</v>
-      </c>
-      <c r="K3" t="s">
-        <v>55</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2623,171 +2608,171 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F4" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="K4" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F5" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="K6" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="F7" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" t="s">
+        <v>256</v>
+      </c>
+      <c r="F8" t="s">
+        <v>270</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>270</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
         <v>271</v>
       </c>
-      <c r="F8" t="s">
-        <v>284</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>285</v>
-      </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="K8" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2861,31 +2846,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F2" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="K2" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2893,37 +2878,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>288</v>
-      </c>
-      <c r="E3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F3" t="s">
-        <v>293</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" t="s">
+        <v>123</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2931,171 +2916,171 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E4" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="K4" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E5" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F5" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
+        <v>274</v>
+      </c>
+      <c r="E6" t="s">
+        <v>275</v>
+      </c>
+      <c r="F6" t="s">
+        <v>286</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>287</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
         <v>288</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>289</v>
       </c>
-      <c r="F6" t="s">
-        <v>300</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>241</v>
-      </c>
-      <c r="I6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" t="s">
-        <v>183</v>
-      </c>
-      <c r="K6" t="s">
-        <v>301</v>
-      </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E7" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F7" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" t="s">
+        <v>286</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>288</v>
-      </c>
-      <c r="E8" t="s">
-        <v>289</v>
-      </c>
-      <c r="F8" t="s">
-        <v>265</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
-        <v>303</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>292</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3169,31 +3154,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E2" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F2" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="K2" t="s">
-        <v>255</v>
+        <v>65</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3201,37 +3186,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>305</v>
-      </c>
-      <c r="E3" t="s">
-        <v>306</v>
-      </c>
-      <c r="F3" t="s">
-        <v>310</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>300</v>
+      </c>
+      <c r="K3" t="s">
+        <v>65</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>312</v>
-      </c>
-      <c r="K3" t="s">
-        <v>114</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3239,171 +3224,171 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E4" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F4" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="K4" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E5" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F5" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
+        <v>293</v>
+      </c>
+      <c r="E6" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" t="s">
         <v>305</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
         <v>306</v>
       </c>
-      <c r="F6" t="s">
-        <v>317</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>262</v>
-      </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="K6" t="s">
-        <v>319</v>
+        <v>104</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="E7" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="F7" t="s">
-        <v>320</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>293</v>
+      </c>
+      <c r="E8" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" t="s">
+        <v>308</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>305</v>
-      </c>
-      <c r="E8" t="s">
-        <v>306</v>
-      </c>
-      <c r="F8" t="s">
-        <v>321</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="K8" t="s">
-        <v>217</v>
+        <v>311</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3477,31 +3462,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E2" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="F2" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="K2" t="s">
-        <v>329</v>
+        <v>95</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3509,37 +3494,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>324</v>
-      </c>
-      <c r="E3" t="s">
-        <v>325</v>
-      </c>
-      <c r="F3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>319</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>332</v>
-      </c>
-      <c r="K3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3547,183 +3532,183 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E4" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="F4" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="K4" t="s">
-        <v>77</v>
+        <v>284</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="F5" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E6" t="s">
+        <v>313</v>
+      </c>
+      <c r="F6" t="s">
         <v>324</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
         <v>325</v>
       </c>
-      <c r="F6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>337</v>
-      </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>338</v>
+        <v>248</v>
       </c>
       <c r="K6" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="E7" t="s">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="F7" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>180</v>
+        <v>328</v>
       </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="J7" t="s">
-        <v>341</v>
+        <v>288</v>
       </c>
       <c r="K7" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" t="s">
+        <v>313</v>
+      </c>
+      <c r="F8" t="s">
+        <v>330</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>324</v>
-      </c>
-      <c r="E8" t="s">
-        <v>325</v>
-      </c>
-      <c r="F8" t="s">
-        <v>343</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>345</v>
+        <v>332</v>
       </c>
       <c r="K8" t="s">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3797,31 +3782,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="E2" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="F2" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
+        <v>338</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3829,37 +3814,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>333</v>
+      </c>
+      <c r="E3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E3" t="s">
-        <v>347</v>
-      </c>
-      <c r="F3" t="s">
-        <v>351</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>341</v>
+      </c>
+      <c r="K3" t="s">
+        <v>342</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>109</v>
-      </c>
-      <c r="K3" t="s">
-        <v>128</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3867,183 +3852,183 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="E4" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="F4" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>344</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>345</v>
+      </c>
+      <c r="K4" t="s">
         <v>30</v>
       </c>
-      <c r="H4" t="s">
-        <v>354</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>355</v>
-      </c>
-      <c r="K4" t="s">
-        <v>329</v>
-      </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F5" t="s">
         <v>346</v>
       </c>
-      <c r="E5" t="s">
-        <v>347</v>
-      </c>
-      <c r="F5" t="s">
-        <v>356</v>
-      </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="E6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F6" t="s">
         <v>347</v>
       </c>
-      <c r="F6" t="s">
-        <v>357</v>
-      </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>359</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>221</v>
+        <v>349</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="E7" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
       <c r="F7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="J7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>333</v>
+      </c>
+      <c r="E8" t="s">
+        <v>334</v>
+      </c>
+      <c r="F8" t="s">
+        <v>354</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>346</v>
-      </c>
-      <c r="E8" t="s">
-        <v>347</v>
-      </c>
-      <c r="F8" t="s">
-        <v>363</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>365</v>
+        <v>233</v>
       </c>
       <c r="K8" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4117,31 +4102,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E2" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F2" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4149,37 +4134,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E3" t="s">
-        <v>368</v>
-      </c>
-      <c r="F3" t="s">
-        <v>372</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>364</v>
+      </c>
+      <c r="K3" t="s">
+        <v>365</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>374</v>
-      </c>
-      <c r="K3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4187,183 +4172,183 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
         <v>367</v>
       </c>
-      <c r="E4" t="s">
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
         <v>368</v>
       </c>
-      <c r="F4" t="s">
-        <v>375</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>376</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>377</v>
-      </c>
       <c r="K4" t="s">
-        <v>378</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E5" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F5" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E6" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F6" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>381</v>
+        <v>270</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="K6" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="E7" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="F7" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>303</v>
+        <v>100</v>
       </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="J7" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="K7" t="s">
-        <v>198</v>
+        <v>77</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>357</v>
+      </c>
+      <c r="E8" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" t="s">
+        <v>375</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>367</v>
-      </c>
-      <c r="E8" t="s">
-        <v>368</v>
-      </c>
-      <c r="F8" t="s">
-        <v>385</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>387</v>
+        <v>192</v>
       </c>
       <c r="K8" t="s">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4437,31 +4422,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E2" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F2" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4469,37 +4454,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E3" t="s">
+        <v>378</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>388</v>
-      </c>
-      <c r="E3" t="s">
-        <v>389</v>
-      </c>
-      <c r="F3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>49</v>
+        <v>382</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
+      </c>
+      <c r="K3" t="s">
+        <v>383</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>393</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4507,168 +4492,168 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E4" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F4" t="s">
-        <v>394</v>
+        <v>163</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>113</v>
+        <v>384</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>129</v>
+        <v>385</v>
       </c>
       <c r="K4" t="s">
-        <v>395</v>
+        <v>287</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E5" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F5" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>377</v>
+      </c>
+      <c r="E6" t="s">
+        <v>378</v>
+      </c>
+      <c r="F6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
-        <v>388</v>
-      </c>
-      <c r="E6" t="s">
-        <v>389</v>
-      </c>
-      <c r="F6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>387</v>
       </c>
       <c r="J6" t="s">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="E7" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8" t="s">
+        <v>378</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>388</v>
-      </c>
-      <c r="E8" t="s">
-        <v>389</v>
-      </c>
-      <c r="F8" t="s">
-        <v>302</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>186</v>
+        <v>142</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -4742,13 +4727,13 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
@@ -4757,16 +4742,16 @@
         <v>70</v>
       </c>
       <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K2" t="s">
-        <v>72</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4774,37 +4759,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
         <v>73</v>
       </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>74</v>
       </c>
-      <c r="I3" t="s">
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K3" t="s">
-        <v>49</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4812,28 +4797,28 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F4" t="s">
         <v>75</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
         <v>76</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
         <v>77</v>
@@ -4842,129 +4827,138 @@
         <v>78</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F5" t="s">
         <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
         <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
         <v>80</v>
       </c>
-      <c r="G6" t="s">
-        <v>56</v>
+      <c r="J6" t="s">
+        <v>63</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="H8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K8" t="s">
+        <v>37</v>
+      </c>
+      <c r="O8" t="s">
         <v>67</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -5038,31 +5032,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" t="s">
         <v>84</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>85</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" t="s">
-        <v>89</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5070,37 +5064,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-      <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>90</v>
-      </c>
-      <c r="K3" t="s">
-        <v>91</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5108,159 +5102,168 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" t="s">
         <v>84</v>
       </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
       <c r="F4" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="K4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E5" t="s">
         <v>84</v>
       </c>
-      <c r="E5" t="s">
-        <v>85</v>
-      </c>
       <c r="F5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
         <v>84</v>
       </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
+        <v>51</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" t="s">
         <v>84</v>
       </c>
-      <c r="E7" t="s">
-        <v>85</v>
-      </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>84</v>
-      </c>
-      <c r="E8" t="s">
-        <v>85</v>
-      </c>
-      <c r="F8" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
+        <v>94</v>
+      </c>
+      <c r="I8" t="s">
+        <v>64</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
         <v>96</v>
       </c>
-      <c r="I8" t="s">
-        <v>63</v>
-      </c>
-      <c r="J8" t="s">
-        <v>97</v>
-      </c>
-      <c r="K8" t="s">
-        <v>75</v>
-      </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -5334,31 +5337,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" t="s">
         <v>98</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>99</v>
-      </c>
-      <c r="F2" t="s">
-        <v>100</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K2" t="s">
-        <v>103</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5366,37 +5369,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F3" t="s">
-        <v>104</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" t="s">
+        <v>103</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>106</v>
-      </c>
-      <c r="K3" t="s">
-        <v>107</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5404,171 +5407,171 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" t="s">
         <v>98</v>
       </c>
-      <c r="E4" t="s">
-        <v>99</v>
-      </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
         <v>98</v>
       </c>
-      <c r="E5" t="s">
-        <v>99</v>
-      </c>
       <c r="F5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" t="s">
         <v>98</v>
       </c>
-      <c r="E6" t="s">
-        <v>99</v>
-      </c>
       <c r="F6" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
         <v>98</v>
       </c>
-      <c r="E7" t="s">
-        <v>99</v>
-      </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" t="s">
-        <v>92</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -5642,31 +5645,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" t="s">
         <v>23</v>
-      </c>
-      <c r="J2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K2" t="s">
-        <v>126</v>
-      </c>
-      <c r="O2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5674,37 +5677,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5712,168 +5715,168 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="K4" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" t="s">
         <v>121</v>
       </c>
-      <c r="E5" t="s">
-        <v>122</v>
-      </c>
-      <c r="F5" t="s">
-        <v>132</v>
-      </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" t="s">
+        <v>116</v>
+      </c>
+      <c r="F6" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
         <v>48</v>
       </c>
-      <c r="D6" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
-      </c>
       <c r="H6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F7" t="s">
         <v>122</v>
       </c>
-      <c r="F7" t="s">
-        <v>133</v>
-      </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E8" t="s">
+        <v>116</v>
+      </c>
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
         <v>64</v>
       </c>
-      <c r="I8" t="s">
-        <v>63</v>
-      </c>
       <c r="J8" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="K8" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -5947,31 +5950,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="K2" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5979,37 +5982,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>132</v>
+      </c>
+      <c r="K3" t="s">
+        <v>133</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" t="s">
-        <v>146</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6017,183 +6020,183 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
         <v>136</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
         <v>137</v>
       </c>
-      <c r="F4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>148</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" t="s">
-        <v>149</v>
-      </c>
-      <c r="K4" t="s">
-        <v>150</v>
-      </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E5" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F6" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J6" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="F7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="J7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="K7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F8" t="s">
+        <v>148</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E8" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K8" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -6267,31 +6270,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F2" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="K2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -6299,37 +6302,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" t="s">
+        <v>157</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E3" t="s">
-        <v>165</v>
-      </c>
-      <c r="F3" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>151</v>
+      </c>
+      <c r="K3" t="s">
+        <v>88</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K3" t="s">
-        <v>172</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6337,171 +6340,171 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="K4" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" t="s">
+        <v>163</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
         <v>164</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>165</v>
       </c>
-      <c r="F6" t="s">
-        <v>178</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>179</v>
-      </c>
-      <c r="I6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" t="s">
-        <v>180</v>
-      </c>
-      <c r="K6" t="s">
-        <v>181</v>
-      </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8" t="s">
-        <v>183</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="K8" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -6575,31 +6578,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E2" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="K2" t="s">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -6607,37 +6610,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" t="s">
+        <v>172</v>
+      </c>
+      <c r="F3" t="s">
+        <v>176</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F3" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>194</v>
-      </c>
-      <c r="K3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6645,183 +6648,183 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F4" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="K4" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F5" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
-        <v>108</v>
+        <v>184</v>
       </c>
       <c r="G6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>115</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="K6" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
+        <v>171</v>
+      </c>
+      <c r="E7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F7" t="s">
         <v>187</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
         <v>188</v>
       </c>
-      <c r="F7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H7" t="s">
-        <v>203</v>
-      </c>
       <c r="I7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="J7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="K7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" t="s">
+        <v>167</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>187</v>
-      </c>
-      <c r="E8" t="s">
-        <v>188</v>
-      </c>
-      <c r="F8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
-        <v>117</v>
+        <v>191</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>193</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -6895,31 +6898,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F2" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="I2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="K2" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -6927,37 +6930,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>194</v>
+      </c>
+      <c r="E3" t="s">
+        <v>195</v>
+      </c>
+      <c r="F3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G3" t="s">
         <v>27</v>
       </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E3" t="s">
-        <v>209</v>
-      </c>
-      <c r="F3" t="s">
-        <v>213</v>
-      </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>79</v>
+        <v>200</v>
       </c>
       <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
         <v>32</v>
-      </c>
-      <c r="J3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K3" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6965,171 +6968,171 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F4" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
       <c r="K4" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" t="s">
         <v>41</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>42</v>
       </c>
-      <c r="C5" t="s">
-        <v>43</v>
-      </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>47</v>
       </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
       <c r="D6" t="s">
+        <v>194</v>
+      </c>
+      <c r="E6" t="s">
+        <v>195</v>
+      </c>
+      <c r="F6" t="s">
+        <v>207</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" t="s">
+        <v>76</v>
+      </c>
+      <c r="I6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J6" t="s">
         <v>208</v>
       </c>
-      <c r="E6" t="s">
+      <c r="K6" t="s">
         <v>209</v>
       </c>
-      <c r="F6" t="s">
-        <v>219</v>
-      </c>
-      <c r="G6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" t="s">
-        <v>220</v>
-      </c>
-      <c r="I6" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" t="s">
-        <v>221</v>
-      </c>
-      <c r="K6" t="s">
-        <v>222</v>
-      </c>
       <c r="O6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="F7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" t="s">
-        <v>208</v>
-      </c>
-      <c r="E8" t="s">
-        <v>209</v>
-      </c>
-      <c r="F8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G8" t="s">
-        <v>56</v>
-      </c>
       <c r="H8" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="I8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="K8" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/securite/regions/barometre-resultats-securite-regions-synthese.xlsx
+++ b/secteur-action-publique/securite/regions/barometre-resultats-securite-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="393">
   <si>
     <t>mesure</t>
   </si>
@@ -165,6 +165,9 @@
     <t>432.0</t>
   </si>
   <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
     <t>amendes dressées</t>
   </si>
   <si>
@@ -402,783 +405,792 @@
     <t>11.0</t>
   </si>
   <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>13729636.0</t>
+  </si>
+  <si>
+    <t>10331587.0</t>
+  </si>
+  <si>
+    <t>3398049.0</t>
+  </si>
+  <si>
+    <t>13025.0</t>
+  </si>
+  <si>
+    <t>14724.0</t>
+  </si>
+  <si>
+    <t>-1699.0</t>
+  </si>
+  <si>
+    <t>-12.0</t>
+  </si>
+  <si>
+    <t>56133.0</t>
+  </si>
+  <si>
+    <t>67357.0</t>
+  </si>
+  <si>
+    <t>-11224.0</t>
+  </si>
+  <si>
+    <t>-17.0</t>
+  </si>
+  <si>
+    <t>28675.0</t>
+  </si>
+  <si>
+    <t>799.0</t>
+  </si>
+  <si>
+    <t>428.0</t>
+  </si>
+  <si>
+    <t>371.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>2394.0</t>
+  </si>
+  <si>
+    <t>2651.0</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>-257.0</t>
+  </si>
+  <si>
+    <t>-10.0</t>
+  </si>
+  <si>
+    <t>249.0</t>
+  </si>
+  <si>
+    <t>319.0</t>
+  </si>
+  <si>
+    <t>-70.0</t>
+  </si>
+  <si>
+    <t>-22.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>2600512.0</t>
+  </si>
+  <si>
+    <t>2697668.0</t>
+  </si>
+  <si>
+    <t>-97156.0</t>
+  </si>
+  <si>
+    <t>506.0</t>
+  </si>
+  <si>
+    <t>528.0</t>
+  </si>
+  <si>
+    <t>1387.0</t>
+  </si>
+  <si>
+    <t>1542.0</t>
+  </si>
+  <si>
+    <t>-155.0</t>
+  </si>
+  <si>
+    <t>2691.0</t>
+  </si>
+  <si>
+    <t>101.0</t>
+  </si>
+  <si>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>-81.0</t>
+  </si>
+  <si>
+    <t>-42.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>3115504.0</t>
+  </si>
+  <si>
+    <t>3243281.0</t>
+  </si>
+  <si>
+    <t>-127777.0</t>
+  </si>
+  <si>
+    <t>520.0</t>
+  </si>
+  <si>
+    <t>414.0</t>
+  </si>
+  <si>
+    <t>106.0</t>
+  </si>
+  <si>
+    <t>1111.0</t>
+  </si>
+  <si>
+    <t>1552.0</t>
+  </si>
+  <si>
+    <t>-441.0</t>
+  </si>
+  <si>
+    <t>-28.0</t>
+  </si>
+  <si>
+    <t>2844.0</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>368.0</t>
+  </si>
+  <si>
+    <t>139.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>126.0</t>
+  </si>
+  <si>
+    <t>969.0</t>
+  </si>
+  <si>
+    <t>164.0</t>
+  </si>
+  <si>
+    <t>244.0</t>
+  </si>
+  <si>
+    <t>-80.0</t>
+  </si>
+  <si>
+    <t>-33.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>3464653.0</t>
+  </si>
+  <si>
+    <t>3135245.0</t>
+  </si>
+  <si>
+    <t>329408.0</t>
+  </si>
+  <si>
+    <t>459.0</t>
+  </si>
+  <si>
+    <t>495.0</t>
+  </si>
+  <si>
+    <t>-36.0</t>
+  </si>
+  <si>
+    <t>1427.0</t>
+  </si>
+  <si>
+    <t>1606.0</t>
+  </si>
+  <si>
+    <t>-179.0</t>
+  </si>
+  <si>
+    <t>-11.0</t>
+  </si>
+  <si>
+    <t>4207.0</t>
+  </si>
+  <si>
+    <t>217.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>201.0</t>
+  </si>
+  <si>
+    <t>191.0</t>
+  </si>
+  <si>
+    <t>-46.0</t>
+  </si>
+  <si>
+    <t>-24.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>5610296.0</t>
+  </si>
+  <si>
+    <t>3796842.0</t>
+  </si>
+  <si>
+    <t>1813454.0</t>
+  </si>
+  <si>
+    <t>1172.0</t>
+  </si>
+  <si>
+    <t>1316.0</t>
+  </si>
+  <si>
+    <t>-144.0</t>
+  </si>
+  <si>
+    <t>3086.0</t>
+  </si>
+  <si>
+    <t>3581.0</t>
+  </si>
+  <si>
+    <t>-495.0</t>
+  </si>
+  <si>
+    <t>-14.0</t>
+  </si>
+  <si>
+    <t>8691.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>277.0</t>
+  </si>
+  <si>
+    <t>382.0</t>
+  </si>
+  <si>
+    <t>268.0</t>
+  </si>
+  <si>
+    <t>114.0</t>
+  </si>
+  <si>
+    <t>289.0</t>
+  </si>
+  <si>
+    <t>-97.0</t>
+  </si>
+  <si>
+    <t>-34.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>5548815.0</t>
+  </si>
+  <si>
+    <t>5281563.0</t>
+  </si>
+  <si>
+    <t>267252.0</t>
+  </si>
+  <si>
+    <t>1147.0</t>
+  </si>
+  <si>
+    <t>1046.0</t>
+  </si>
+  <si>
+    <t>2903.0</t>
+  </si>
+  <si>
+    <t>3285.0</t>
+  </si>
+  <si>
+    <t>-382.0</t>
+  </si>
+  <si>
+    <t>3920.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>409.0</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t>271.0</t>
+  </si>
+  <si>
+    <t>196.0</t>
+  </si>
+  <si>
+    <t>221.0</t>
+  </si>
+  <si>
+    <t>281.0</t>
+  </si>
+  <si>
+    <t>-60.0</t>
+  </si>
+  <si>
+    <t>-21.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>3281160.0</t>
+  </si>
+  <si>
+    <t>2894031.0</t>
+  </si>
+  <si>
+    <t>387129.0</t>
+  </si>
+  <si>
+    <t>793.0</t>
+  </si>
+  <si>
+    <t>752.0</t>
+  </si>
+  <si>
+    <t>2724.0</t>
+  </si>
+  <si>
+    <t>2765.0</t>
+  </si>
+  <si>
+    <t>-41.0</t>
+  </si>
+  <si>
+    <t>1555.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>439.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>215.0</t>
+  </si>
+  <si>
+    <t>-55.0</t>
+  </si>
+  <si>
+    <t>-26.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>2630527.0</t>
+  </si>
+  <si>
+    <t>2696803.0</t>
+  </si>
+  <si>
+    <t>-66276.0</t>
+  </si>
+  <si>
+    <t>479.0</t>
+  </si>
+  <si>
+    <t>465.0</t>
+  </si>
+  <si>
     <t>3.0</t>
   </si>
   <si>
+    <t>1451.0</t>
+  </si>
+  <si>
+    <t>1772.0</t>
+  </si>
+  <si>
+    <t>-321.0</t>
+  </si>
+  <si>
+    <t>-18.0</t>
+  </si>
+  <si>
+    <t>2173.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>152.0</t>
+  </si>
+  <si>
+    <t>17.0</t>
+  </si>
+  <si>
+    <t>-39.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>6403216.0</t>
+  </si>
+  <si>
+    <t>5806893.0</t>
+  </si>
+  <si>
+    <t>596323.0</t>
+  </si>
+  <si>
+    <t>947.0</t>
+  </si>
+  <si>
+    <t>859.0</t>
+  </si>
+  <si>
+    <t>88.0</t>
+  </si>
+  <si>
+    <t>3505.0</t>
+  </si>
+  <si>
+    <t>3927.0</t>
+  </si>
+  <si>
+    <t>-422.0</t>
+  </si>
+  <si>
+    <t>4650.0</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>113.0</t>
+  </si>
+  <si>
+    <t>167.0</t>
+  </si>
+  <si>
+    <t>298.0</t>
+  </si>
+  <si>
+    <t>362.0</t>
+  </si>
+  <si>
+    <t>-64.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>6521633.0</t>
+  </si>
+  <si>
+    <t>6114011.0</t>
+  </si>
+  <si>
+    <t>407622.0</t>
+  </si>
+  <si>
+    <t>1418.0</t>
+  </si>
+  <si>
+    <t>1356.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>5539.0</t>
+  </si>
+  <si>
+    <t>6730.0</t>
+  </si>
+  <si>
+    <t>-1191.0</t>
+  </si>
+  <si>
+    <t>7129.0</t>
+  </si>
+  <si>
+    <t>284.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>119.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>129.0</t>
+  </si>
+  <si>
+    <t>286.0</t>
+  </si>
+  <si>
+    <t>392.0</t>
+  </si>
+  <si>
+    <t>-106.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>7789461.0</t>
+  </si>
+  <si>
+    <t>6953065.0</t>
+  </si>
+  <si>
+    <t>836396.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>2610.0</t>
+  </si>
+  <si>
+    <t>2251.0</t>
+  </si>
+  <si>
+    <t>359.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>11964.0</t>
+  </si>
+  <si>
+    <t>11125.0</t>
+  </si>
+  <si>
+    <t>839.0</t>
+  </si>
+  <si>
+    <t>11152.0</t>
+  </si>
+  <si>
+    <t>309.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>507.0</t>
+  </si>
+  <si>
+    <t>997.0</t>
+  </si>
+  <si>
+    <t>-490.0</t>
+  </si>
+  <si>
+    <t>-49.0</t>
+  </si>
+  <si>
+    <t>331.0</t>
+  </si>
+  <si>
+    <t>410.0</t>
+  </si>
+  <si>
+    <t>-79.0</t>
+  </si>
+  <si>
+    <t>-19.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>5200242.0</t>
+  </si>
+  <si>
+    <t>3541725.0</t>
+  </si>
+  <si>
+    <t>1658517.0</t>
+  </si>
+  <si>
+    <t>1306.0</t>
+  </si>
+  <si>
+    <t>1375.0</t>
+  </si>
+  <si>
+    <t>-69.0</t>
+  </si>
+  <si>
+    <t>-5.0</t>
+  </si>
+  <si>
+    <t>5447.0</t>
+  </si>
+  <si>
+    <t>7898.0</t>
+  </si>
+  <si>
+    <t>-2451.0</t>
+  </si>
+  <si>
+    <t>17642.0</t>
+  </si>
+  <si>
+    <t>399.0</t>
+  </si>
+  <si>
+    <t>239.0</t>
+  </si>
+  <si>
+    <t>149.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>-47.0</t>
+  </si>
+  <si>
+    <t>229.0</t>
+  </si>
+  <si>
+    <t>346.0</t>
+  </si>
+  <si>
+    <t>-117.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>724515.0</t>
+  </si>
+  <si>
+    <t>526289.0</t>
+  </si>
+  <si>
+    <t>198226.0</t>
+  </si>
+  <si>
     <t>38.0</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>13729636.0</t>
-  </si>
-  <si>
-    <t>10331587.0</t>
-  </si>
-  <si>
-    <t>3398049.0</t>
-  </si>
-  <si>
-    <t>13025.0</t>
-  </si>
-  <si>
-    <t>14724.0</t>
-  </si>
-  <si>
-    <t>-1699.0</t>
-  </si>
-  <si>
-    <t>-12.0</t>
-  </si>
-  <si>
-    <t>56133.0</t>
-  </si>
-  <si>
-    <t>67357.0</t>
-  </si>
-  <si>
-    <t>-11224.0</t>
-  </si>
-  <si>
-    <t>-17.0</t>
-  </si>
-  <si>
-    <t>28675.0</t>
-  </si>
-  <si>
-    <t>799.0</t>
-  </si>
-  <si>
-    <t>428.0</t>
-  </si>
-  <si>
-    <t>371.0</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>2394.0</t>
-  </si>
-  <si>
-    <t>2651.0</t>
-  </si>
-  <si>
-    <t>2018-12-31</t>
-  </si>
-  <si>
-    <t>-257.0</t>
-  </si>
-  <si>
-    <t>-10.0</t>
-  </si>
-  <si>
-    <t>249.0</t>
-  </si>
-  <si>
-    <t>319.0</t>
-  </si>
-  <si>
-    <t>-70.0</t>
-  </si>
-  <si>
-    <t>-22.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>2600512.0</t>
-  </si>
-  <si>
-    <t>2697668.0</t>
-  </si>
-  <si>
-    <t>-97156.0</t>
-  </si>
-  <si>
-    <t>506.0</t>
-  </si>
-  <si>
-    <t>528.0</t>
-  </si>
-  <si>
-    <t>1387.0</t>
-  </si>
-  <si>
-    <t>1542.0</t>
-  </si>
-  <si>
-    <t>-155.0</t>
-  </si>
-  <si>
-    <t>2691.0</t>
-  </si>
-  <si>
-    <t>101.0</t>
-  </si>
-  <si>
-    <t>46.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>127.0</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>-65.0</t>
-  </si>
-  <si>
-    <t>-34.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>3115504.0</t>
-  </si>
-  <si>
-    <t>3243281.0</t>
-  </si>
-  <si>
-    <t>-127777.0</t>
-  </si>
-  <si>
-    <t>520.0</t>
-  </si>
-  <si>
-    <t>414.0</t>
-  </si>
-  <si>
-    <t>106.0</t>
-  </si>
-  <si>
-    <t>1111.0</t>
-  </si>
-  <si>
-    <t>1552.0</t>
-  </si>
-  <si>
-    <t>-441.0</t>
-  </si>
-  <si>
-    <t>-28.0</t>
-  </si>
-  <si>
-    <t>2844.0</t>
-  </si>
-  <si>
-    <t>103.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>368.0</t>
-  </si>
-  <si>
-    <t>139.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>126.0</t>
-  </si>
-  <si>
-    <t>969.0</t>
-  </si>
-  <si>
-    <t>244.0</t>
-  </si>
-  <si>
-    <t>-117.0</t>
-  </si>
-  <si>
-    <t>-48.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>3464653.0</t>
-  </si>
-  <si>
-    <t>3135245.0</t>
-  </si>
-  <si>
-    <t>329408.0</t>
-  </si>
-  <si>
-    <t>459.0</t>
-  </si>
-  <si>
-    <t>495.0</t>
-  </si>
-  <si>
-    <t>-36.0</t>
-  </si>
-  <si>
-    <t>1427.0</t>
-  </si>
-  <si>
-    <t>1606.0</t>
-  </si>
-  <si>
-    <t>-179.0</t>
-  </si>
-  <si>
-    <t>-11.0</t>
-  </si>
-  <si>
-    <t>4207.0</t>
-  </si>
-  <si>
-    <t>217.0</t>
-  </si>
-  <si>
-    <t>145.0</t>
-  </si>
-  <si>
-    <t>201.0</t>
-  </si>
-  <si>
-    <t>137.0</t>
-  </si>
-  <si>
-    <t>191.0</t>
-  </si>
-  <si>
-    <t>-54.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>5610296.0</t>
-  </si>
-  <si>
-    <t>3796842.0</t>
-  </si>
-  <si>
-    <t>1813454.0</t>
-  </si>
-  <si>
-    <t>1172.0</t>
-  </si>
-  <si>
-    <t>1316.0</t>
-  </si>
-  <si>
-    <t>-144.0</t>
-  </si>
-  <si>
-    <t>3086.0</t>
-  </si>
-  <si>
-    <t>3581.0</t>
-  </si>
-  <si>
-    <t>-495.0</t>
-  </si>
-  <si>
-    <t>-14.0</t>
-  </si>
-  <si>
-    <t>8691.0</t>
-  </si>
-  <si>
-    <t>200.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>277.0</t>
-  </si>
-  <si>
-    <t>382.0</t>
-  </si>
-  <si>
-    <t>268.0</t>
-  </si>
-  <si>
-    <t>114.0</t>
-  </si>
-  <si>
-    <t>289.0</t>
-  </si>
-  <si>
-    <t>-97.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>5548815.0</t>
-  </si>
-  <si>
-    <t>5281563.0</t>
-  </si>
-  <si>
-    <t>267252.0</t>
-  </si>
-  <si>
-    <t>1147.0</t>
-  </si>
-  <si>
-    <t>1046.0</t>
-  </si>
-  <si>
-    <t>2903.0</t>
-  </si>
-  <si>
-    <t>3285.0</t>
-  </si>
-  <si>
-    <t>-382.0</t>
-  </si>
-  <si>
-    <t>3920.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>165.0</t>
-  </si>
-  <si>
-    <t>409.0</t>
-  </si>
-  <si>
-    <t>138.0</t>
-  </si>
-  <si>
-    <t>271.0</t>
-  </si>
-  <si>
-    <t>196.0</t>
-  </si>
-  <si>
-    <t>221.0</t>
-  </si>
-  <si>
-    <t>281.0</t>
-  </si>
-  <si>
-    <t>-60.0</t>
-  </si>
-  <si>
-    <t>-21.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>3281160.0</t>
-  </si>
-  <si>
-    <t>2894031.0</t>
-  </si>
-  <si>
-    <t>387129.0</t>
-  </si>
-  <si>
-    <t>793.0</t>
-  </si>
-  <si>
-    <t>752.0</t>
-  </si>
-  <si>
-    <t>2724.0</t>
-  </si>
-  <si>
-    <t>2765.0</t>
-  </si>
-  <si>
-    <t>-41.0</t>
-  </si>
-  <si>
-    <t>1555.0</t>
-  </si>
-  <si>
-    <t>97.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>246.0</t>
-  </si>
-  <si>
-    <t>439.0</t>
-  </si>
-  <si>
-    <t>160.0</t>
-  </si>
-  <si>
-    <t>215.0</t>
-  </si>
-  <si>
-    <t>-55.0</t>
-  </si>
-  <si>
-    <t>-26.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>2630527.0</t>
-  </si>
-  <si>
-    <t>2696803.0</t>
-  </si>
-  <si>
-    <t>-66276.0</t>
-  </si>
-  <si>
-    <t>479.0</t>
-  </si>
-  <si>
-    <t>465.0</t>
-  </si>
-  <si>
-    <t>1451.0</t>
-  </si>
-  <si>
-    <t>1772.0</t>
-  </si>
-  <si>
-    <t>-321.0</t>
-  </si>
-  <si>
-    <t>-18.0</t>
-  </si>
-  <si>
-    <t>2173.0</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>152.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>-66.0</t>
-  </si>
-  <si>
-    <t>-37.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>6403216.0</t>
-  </si>
-  <si>
-    <t>5806893.0</t>
-  </si>
-  <si>
-    <t>596323.0</t>
-  </si>
-  <si>
-    <t>947.0</t>
-  </si>
-  <si>
-    <t>859.0</t>
-  </si>
-  <si>
-    <t>88.0</t>
-  </si>
-  <si>
-    <t>3505.0</t>
-  </si>
-  <si>
-    <t>3927.0</t>
-  </si>
-  <si>
-    <t>-422.0</t>
-  </si>
-  <si>
-    <t>4650.0</t>
-  </si>
-  <si>
-    <t>280.0</t>
-  </si>
-  <si>
-    <t>113.0</t>
-  </si>
-  <si>
-    <t>167.0</t>
-  </si>
-  <si>
-    <t>333.0</t>
-  </si>
-  <si>
-    <t>362.0</t>
-  </si>
-  <si>
-    <t>-29.0</t>
-  </si>
-  <si>
-    <t>-8.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>6521633.0</t>
-  </si>
-  <si>
-    <t>6114011.0</t>
-  </si>
-  <si>
-    <t>407622.0</t>
-  </si>
-  <si>
-    <t>1418.0</t>
-  </si>
-  <si>
-    <t>1356.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>5539.0</t>
-  </si>
-  <si>
-    <t>6730.0</t>
-  </si>
-  <si>
-    <t>-1191.0</t>
-  </si>
-  <si>
-    <t>7129.0</t>
-  </si>
-  <si>
-    <t>284.0</t>
-  </si>
-  <si>
-    <t>146.0</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>119.0</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>129.0</t>
-  </si>
-  <si>
-    <t>286.0</t>
-  </si>
-  <si>
-    <t>392.0</t>
-  </si>
-  <si>
-    <t>-106.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>7789461.0</t>
-  </si>
-  <si>
-    <t>6953065.0</t>
-  </si>
-  <si>
-    <t>836396.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>2610.0</t>
-  </si>
-  <si>
-    <t>2251.0</t>
-  </si>
-  <si>
-    <t>359.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>11964.0</t>
-  </si>
-  <si>
-    <t>11125.0</t>
-  </si>
-  <si>
-    <t>839.0</t>
-  </si>
-  <si>
-    <t>11152.0</t>
-  </si>
-  <si>
-    <t>309.0</t>
-  </si>
-  <si>
-    <t>132.0</t>
-  </si>
-  <si>
-    <t>134.0</t>
-  </si>
-  <si>
-    <t>507.0</t>
-  </si>
-  <si>
-    <t>997.0</t>
-  </si>
-  <si>
-    <t>-490.0</t>
-  </si>
-  <si>
-    <t>-49.0</t>
-  </si>
-  <si>
-    <t>313.0</t>
-  </si>
-  <si>
-    <t>410.0</t>
-  </si>
-  <si>
-    <t>-24.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>5200242.0</t>
-  </si>
-  <si>
-    <t>3541725.0</t>
-  </si>
-  <si>
-    <t>1658517.0</t>
-  </si>
-  <si>
-    <t>1306.0</t>
-  </si>
-  <si>
-    <t>1375.0</t>
-  </si>
-  <si>
-    <t>-69.0</t>
-  </si>
-  <si>
-    <t>-5.0</t>
-  </si>
-  <si>
-    <t>5447.0</t>
-  </si>
-  <si>
-    <t>7898.0</t>
-  </si>
-  <si>
-    <t>-2451.0</t>
-  </si>
-  <si>
-    <t>17642.0</t>
-  </si>
-  <si>
-    <t>399.0</t>
-  </si>
-  <si>
-    <t>239.0</t>
-  </si>
-  <si>
-    <t>149.0</t>
-  </si>
-  <si>
-    <t>130.0</t>
-  </si>
-  <si>
-    <t>-47.0</t>
-  </si>
-  <si>
-    <t>229.0</t>
-  </si>
-  <si>
-    <t>346.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>724515.0</t>
-  </si>
-  <si>
-    <t>526289.0</t>
-  </si>
-  <si>
-    <t>198226.0</t>
-  </si>
-  <si>
     <t>21.0</t>
   </si>
   <si>
@@ -1195,6 +1207,9 @@
   </si>
   <si>
     <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>-43.0</t>
   </si>
 </sst>
 </file>
@@ -1718,22 +1733,25 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
         <v>43</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1745,33 +1763,33 @@
         <v>31</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1780,24 +1798,24 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1806,25 +1824,25 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1898,25 +1916,25 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K2" t="s">
         <v>35</v>
@@ -1936,28 +1954,28 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -1974,28 +1992,28 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F4" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K4" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -2012,13 +2030,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -2026,125 +2044,128 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E6" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K8" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2218,28 +2239,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="K2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -2256,28 +2277,28 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -2294,28 +2315,28 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="K4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -2332,13 +2353,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E5" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -2346,125 +2367,128 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E6" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K6" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="K8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2538,28 +2562,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E2" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -2576,19 +2600,19 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F3" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
@@ -2597,7 +2621,7 @@
         <v>28</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -2614,28 +2638,28 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E4" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F4" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -2652,13 +2676,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E5" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -2666,113 +2690,116 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F6" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="K8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2846,28 +2873,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F2" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="K2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -2884,28 +2911,28 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F3" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>284</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -2922,28 +2949,28 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F4" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="K4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -2960,13 +2987,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -2974,113 +3001,116 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F6" t="s">
-        <v>286</v>
+        <v>168</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K6" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="E8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="F8" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="K8" t="s">
-        <v>292</v>
+        <v>152</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3154,28 +3184,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F2" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="K2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -3192,28 +3222,28 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="K3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -3230,28 +3260,28 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="K4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -3268,13 +3298,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -3282,113 +3312,116 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F7" t="s">
         <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="E8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="F8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="K8" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3462,28 +3495,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -3500,28 +3533,28 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -3538,28 +3571,28 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E4" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F4" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="K4" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -3576,13 +3609,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -3590,125 +3623,128 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E6" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F6" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K6" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="K8" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3782,28 +3818,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F2" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -3820,28 +3856,28 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E3" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -3858,25 +3894,25 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K4" t="s">
         <v>30</v>
@@ -3896,13 +3932,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E5" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -3910,125 +3946,128 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E6" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F6" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K6" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="E8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F8" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>233</v>
+        <v>357</v>
       </c>
       <c r="K8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4102,28 +4141,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E2" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F2" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -4140,28 +4179,28 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F3" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="K3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -4178,28 +4217,28 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E4" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F4" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -4216,13 +4255,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -4230,125 +4269,128 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F6" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="K6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="K7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>192</v>
+        <v>379</v>
       </c>
       <c r="K8" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4422,28 +4464,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E2" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F2" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="K2" t="s">
-        <v>124</v>
+        <v>385</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -4460,28 +4502,28 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E3" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F3" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -4498,28 +4540,28 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E4" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -4536,13 +4578,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E5" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F5" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -4550,110 +4592,113 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E6" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="J6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E8" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>293</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>38</v>
       </c>
       <c r="K8" t="s">
-        <v>142</v>
+        <v>392</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4727,19 +4772,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -4765,28 +4810,28 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -4803,28 +4848,28 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -4841,13 +4886,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -4855,110 +4900,113 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5032,19 +5080,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -5070,28 +5118,28 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -5108,28 +5156,28 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -5146,13 +5194,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -5160,110 +5208,113 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5337,19 +5388,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -5375,28 +5426,28 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -5413,28 +5464,28 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -5451,13 +5502,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -5465,113 +5516,116 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
         <v>31</v>
       </c>
       <c r="K6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5645,19 +5699,19 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I2" t="s">
         <v>21</v>
@@ -5683,13 +5737,13 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -5701,10 +5755,10 @@
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -5721,10 +5775,10 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F4" t="s">
         <v>28</v>
@@ -5733,16 +5787,16 @@
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="K4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -5759,13 +5813,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -5773,110 +5827,113 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H6" t="s">
         <v>22</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
         <v>22</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
         <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="K8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5950,28 +6007,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -5988,28 +6045,28 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F3" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -6026,28 +6083,28 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -6064,13 +6121,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -6078,125 +6135,128 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K6" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K8" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6270,28 +6330,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -6308,28 +6368,28 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -6346,28 +6406,28 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -6384,13 +6444,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E5" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -6398,113 +6458,116 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F6" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
         <v>36</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K6" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="K8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6578,28 +6641,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -6616,28 +6679,28 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="K3" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O3" t="s">
         <v>32</v>
@@ -6654,28 +6717,28 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -6692,13 +6755,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -6706,125 +6769,128 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F8" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6898,28 +6964,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E2" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F2" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="K2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="O2" t="s">
         <v>23</v>
@@ -6936,25 +7002,25 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E3" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
       </c>
       <c r="H3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I3" t="s">
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K3" t="s">
         <v>37</v>
@@ -6974,28 +7040,28 @@
         <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I4" t="s">
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K4" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O4" t="s">
         <v>39</v>
@@ -7012,13 +7078,13 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G5" t="s">
         <v>27</v>
@@ -7026,113 +7092,116 @@
       <c r="H5" t="s">
         <v>22</v>
       </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
       <c r="J5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="O5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F8" t="s">
         <v>210</v>
       </c>
       <c r="G8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K8" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="O8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/securite/regions/barometre-resultats-securite-regions-synthese.xlsx
+++ b/secteur-action-publique/securite/regions/barometre-resultats-securite-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="405">
   <si>
     <t>mesure</t>
   </si>
@@ -93,1123 +93,1159 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>577411.0</t>
-  </si>
-  <si>
-    <t>2021-10-31</t>
+    <t>600027.0</t>
+  </si>
+  <si>
+    <t>2022-01-31</t>
+  </si>
+  <si>
+    <t>607406.0</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>-7379.0</t>
+  </si>
+  <si>
+    <t>-1.0</t>
+  </si>
+  <si>
+    <t>heures de patrouille sur douze mois *</t>
+  </si>
+  <si>
+    <t>Atteintes aux personnes dans les transports en commun</t>
+  </si>
+  <si>
+    <t>nb-atteintes-personnes</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>-19.0</t>
+  </si>
+  <si>
+    <t>-44.0</t>
+  </si>
+  <si>
+    <t>atteintes aux personnes dans l'année</t>
+  </si>
+  <si>
+    <t>Atteintes aux biens dans les transports en commun</t>
+  </si>
+  <si>
+    <t>nb-atteintes-biens</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>-28.0</t>
+  </si>
+  <si>
+    <t>-45.0</t>
+  </si>
+  <si>
+    <t>atteintes aux biens dans l'année</t>
+  </si>
+  <si>
+    <t>Lutter contre les stupéfiants</t>
+  </si>
+  <si>
+    <t>Nombre d'amendes forfaitaires délictuelles dressées</t>
+  </si>
+  <si>
+    <t>nb-amendes-delictuelles-dressees</t>
+  </si>
+  <si>
+    <t>465.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>heures de patrouille sur douze mois *</t>
-  </si>
-  <si>
-    <t>Atteintes aux personnes dans les transports en commun</t>
-  </si>
-  <si>
-    <t>nb-atteintes-personnes</t>
-  </si>
-  <si>
-    <t>49.0</t>
-  </si>
-  <si>
-    <t>2021-11-30</t>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>amendes dressées</t>
+  </si>
+  <si>
+    <t>Lutter contre les violences faites aux femmes</t>
+  </si>
+  <si>
+    <t>Nombre d’ordonnances de protection délivrées</t>
+  </si>
+  <si>
+    <t>nb-ordonnances-delivrees</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>127.0</t>
+  </si>
+  <si>
+    <t>ordonnances dans l'année</t>
+  </si>
+  <si>
+    <t>Lutter contre les atteintes aux principes républicains</t>
+  </si>
+  <si>
+    <t>Nombre de contrôles réalisés dans le cadre des CLIR ou des dispositifs existant localement avant la mise en place progressive des CLIR</t>
+  </si>
+  <si>
+    <t>nb-controles-clir</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>contrôles</t>
+  </si>
+  <si>
+    <t>Réduire la mortalité sur les routes</t>
+  </si>
+  <si>
+    <t>Nombre de morts sur les routes</t>
+  </si>
+  <si>
+    <t>nb-morts-routes</t>
+  </si>
+  <si>
+    <t>65.0</t>
   </si>
   <si>
     <t>41.0</t>
   </si>
   <si>
-    <t>2017-11-30</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>20.0</t>
-  </si>
-  <si>
-    <t>atteintes aux personnes entre janvier et novembre</t>
-  </si>
-  <si>
-    <t>Atteintes aux biens dans les transports en commun</t>
-  </si>
-  <si>
-    <t>nb-atteintes-biens</t>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>morts</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>445212.0</t>
+  </si>
+  <si>
+    <t>444319.0</t>
+  </si>
+  <si>
+    <t>893.0</t>
   </si>
   <si>
     <t>48.0</t>
   </si>
   <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>-12.0</t>
+  </si>
+  <si>
+    <t>-20.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>-43.0</t>
+  </si>
+  <si>
+    <t>-54.0</t>
+  </si>
+  <si>
+    <t>601.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>-3.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>966364.0</t>
+  </si>
+  <si>
+    <t>977430.0</t>
+  </si>
+  <si>
+    <t>-11066.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>-16.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>-38.0</t>
+  </si>
+  <si>
+    <t>-42.0</t>
+  </si>
+  <si>
+    <t>162.0</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>743665.0</t>
+  </si>
+  <si>
+    <t>734486.0</t>
+  </si>
+  <si>
+    <t>9179.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>206.0</t>
+  </si>
+  <si>
+    <t>281.0</t>
+  </si>
+  <si>
+    <t>-75.0</t>
+  </si>
+  <si>
+    <t>-27.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>284.0</t>
+  </si>
+  <si>
+    <t>-114.0</t>
+  </si>
+  <si>
+    <t>-40.0</t>
+  </si>
+  <si>
+    <t>321.0</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>233.0</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>-6.0</t>
+  </si>
+  <si>
+    <t>-13.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>482849.0</t>
+  </si>
+  <si>
+    <t>491257.0</t>
+  </si>
+  <si>
+    <t>-8408.0</t>
+  </si>
+  <si>
+    <t>-2.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>-4.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>14160000.0</t>
+  </si>
+  <si>
+    <t>10331587.0</t>
+  </si>
+  <si>
+    <t>3828413.0</t>
+  </si>
+  <si>
+    <t>37.0</t>
+  </si>
+  <si>
+    <t>14594.0</t>
+  </si>
+  <si>
+    <t>15985.0</t>
+  </si>
+  <si>
+    <t>-1391.0</t>
+  </si>
+  <si>
+    <t>-9.0</t>
+  </si>
+  <si>
+    <t>62415.0</t>
+  </si>
+  <si>
+    <t>73666.0</t>
+  </si>
+  <si>
+    <t>-11251.0</t>
+  </si>
+  <si>
+    <t>-15.0</t>
+  </si>
+  <si>
+    <t>31104.0</t>
+  </si>
+  <si>
+    <t>799.0</t>
+  </si>
+  <si>
+    <t>428.0</t>
+  </si>
+  <si>
+    <t>371.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>1754.0</t>
+  </si>
+  <si>
+    <t>2651.0</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>-897.0</t>
+  </si>
+  <si>
+    <t>-34.0</t>
+  </si>
+  <si>
+    <t>292.0</t>
+  </si>
+  <si>
+    <t>319.0</t>
+  </si>
+  <si>
+    <t>-8.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>2534470.0</t>
+  </si>
+  <si>
+    <t>2697668.0</t>
+  </si>
+  <si>
+    <t>-163198.0</t>
+  </si>
+  <si>
+    <t>511.0</t>
+  </si>
+  <si>
+    <t>591.0</t>
+  </si>
+  <si>
+    <t>-80.0</t>
+  </si>
+  <si>
+    <t>-14.0</t>
+  </si>
+  <si>
+    <t>1534.0</t>
+  </si>
+  <si>
+    <t>1710.0</t>
+  </si>
+  <si>
+    <t>-176.0</t>
+  </si>
+  <si>
+    <t>-10.0</t>
+  </si>
+  <si>
+    <t>2878.0</t>
+  </si>
+  <si>
+    <t>101.0</t>
+  </si>
+  <si>
     <t>55.0</t>
   </si>
   <si>
-    <t>-7.0</t>
-  </si>
-  <si>
-    <t>-13.0</t>
-  </si>
-  <si>
-    <t>atteintes aux biens entre janvier et novembre</t>
-  </si>
-  <si>
-    <t>Lutter contre les stupéfiants</t>
-  </si>
-  <si>
-    <t>Nombre d'amendes forfaitaires délictuelles dressées</t>
-  </si>
-  <si>
-    <t>nb-amendes-delictuelles-dressees</t>
-  </si>
-  <si>
-    <t>432.0</t>
-  </si>
-  <si>
-    <t>2020-05-31</t>
-  </si>
-  <si>
-    <t>amendes dressées</t>
-  </si>
-  <si>
-    <t>Lutter contre les violences faites aux femmes</t>
-  </si>
-  <si>
-    <t>Nombre d’ordonnances de protection délivrées</t>
-  </si>
-  <si>
-    <t>nb-ordonnances-delivrees</t>
-  </si>
-  <si>
-    <t>2020-09-30</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>2017-09-30</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>233.0</t>
-  </si>
-  <si>
-    <t>ordonnances dans l'année</t>
-  </si>
-  <si>
-    <t>Lutter contre les atteintes aux principes républicains</t>
-  </si>
-  <si>
-    <t>Nombre de contrôles réalisés dans le cadre des CLIR ou des dispositifs existant localement avant la mise en place progressive des CLIR</t>
-  </si>
-  <si>
-    <t>nb-controles-clir</t>
+    <t>46.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>-52.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>3194089.0</t>
+  </si>
+  <si>
+    <t>3243281.0</t>
+  </si>
+  <si>
+    <t>-49192.0</t>
+  </si>
+  <si>
+    <t>450.0</t>
+  </si>
+  <si>
+    <t>449.0</t>
+  </si>
+  <si>
+    <t>1189.0</t>
+  </si>
+  <si>
+    <t>1698.0</t>
+  </si>
+  <si>
+    <t>-509.0</t>
+  </si>
+  <si>
+    <t>-30.0</t>
+  </si>
+  <si>
+    <t>2995.0</t>
+  </si>
+  <si>
+    <t>103.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>243.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>230.0</t>
+  </si>
+  <si>
+    <t>1769.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>244.0</t>
+  </si>
+  <si>
+    <t>-64.0</t>
+  </si>
+  <si>
+    <t>-26.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>3428437.0</t>
+  </si>
+  <si>
+    <t>3135245.0</t>
+  </si>
+  <si>
+    <t>293192.0</t>
+  </si>
+  <si>
+    <t>461.0</t>
+  </si>
+  <si>
+    <t>550.0</t>
+  </si>
+  <si>
+    <t>-89.0</t>
+  </si>
+  <si>
+    <t>1584.0</t>
+  </si>
+  <si>
+    <t>1749.0</t>
+  </si>
+  <si>
+    <t>-165.0</t>
+  </si>
+  <si>
+    <t>4610.0</t>
+  </si>
+  <si>
+    <t>217.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>201.0</t>
+  </si>
+  <si>
+    <t>155.0</t>
+  </si>
+  <si>
+    <t>191.0</t>
+  </si>
+  <si>
+    <t>-36.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>5721940.0</t>
+  </si>
+  <si>
+    <t>3796842.0</t>
+  </si>
+  <si>
+    <t>1925098.0</t>
+  </si>
+  <si>
+    <t>1323.0</t>
+  </si>
+  <si>
+    <t>1412.0</t>
+  </si>
+  <si>
+    <t>3422.0</t>
+  </si>
+  <si>
+    <t>3905.0</t>
+  </si>
+  <si>
+    <t>-483.0</t>
+  </si>
+  <si>
+    <t>9305.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>147.0</t>
+  </si>
+  <si>
+    <t>277.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>268.0</t>
+  </si>
+  <si>
+    <t>-172.0</t>
+  </si>
+  <si>
+    <t>256.0</t>
+  </si>
+  <si>
+    <t>289.0</t>
+  </si>
+  <si>
+    <t>-33.0</t>
+  </si>
+  <si>
+    <t>-11.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>5578141.0</t>
+  </si>
+  <si>
+    <t>5281563.0</t>
+  </si>
+  <si>
+    <t>296578.0</t>
+  </si>
+  <si>
+    <t>1257.0</t>
+  </si>
+  <si>
+    <t>1153.0</t>
+  </si>
+  <si>
+    <t>104.0</t>
+  </si>
+  <si>
+    <t>3176.0</t>
+  </si>
+  <si>
+    <t>3596.0</t>
+  </si>
+  <si>
+    <t>-420.0</t>
+  </si>
+  <si>
+    <t>4151.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>165.0</t>
+  </si>
+  <si>
+    <t>675.0</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t>537.0</t>
+  </si>
+  <si>
+    <t>389.0</t>
+  </si>
+  <si>
+    <t>241.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>3253741.0</t>
+  </si>
+  <si>
+    <t>2894031.0</t>
+  </si>
+  <si>
+    <t>359710.0</t>
+  </si>
+  <si>
+    <t>859.0</t>
+  </si>
+  <si>
+    <t>802.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>3118.0</t>
+  </si>
+  <si>
+    <t>3037.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>1595.0</t>
+  </si>
+  <si>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>189.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>215.0</t>
+  </si>
+  <si>
+    <t>-55.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>2699494.0</t>
+  </si>
+  <si>
+    <t>2696803.0</t>
+  </si>
+  <si>
+    <t>2691.0</t>
+  </si>
+  <si>
+    <t>544.0</t>
+  </si>
+  <si>
+    <t>517.0</t>
+  </si>
+  <si>
+    <t>27.0</t>
   </si>
   <si>
     <t>5.0</t>
   </si>
   <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>contrôles</t>
-  </si>
-  <si>
-    <t>Réduire la mortalité sur les routes</t>
-  </si>
-  <si>
-    <t>Nombre de morts sur les routes</t>
-  </si>
-  <si>
-    <t>nb-morts-routes</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>morts</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>418919.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>-1.0</t>
-  </si>
-  <si>
-    <t>-2.0</t>
-  </si>
-  <si>
-    <t>45.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>-27.0</t>
-  </si>
-  <si>
-    <t>-38.0</t>
-  </si>
-  <si>
-    <t>548.0</t>
-  </si>
-  <si>
-    <t>2017-03-31</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>860980.0</t>
-  </si>
-  <si>
-    <t>54.0</t>
-  </si>
-  <si>
-    <t>56.0</t>
-  </si>
-  <si>
-    <t>-4.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>86.0</t>
-  </si>
-  <si>
-    <t>-31.0</t>
-  </si>
-  <si>
-    <t>147.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>731208.0</t>
+    <t>1646.0</t>
+  </si>
+  <si>
+    <t>1972.0</t>
+  </si>
+  <si>
+    <t>-326.0</t>
+  </si>
+  <si>
+    <t>-17.0</t>
+  </si>
+  <si>
+    <t>2419.0</t>
+  </si>
+  <si>
+    <t>111.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>152.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
   </si>
   <si>
     <t>177.0</t>
   </si>
   <si>
-    <t>259.0</t>
-  </si>
-  <si>
-    <t>-82.0</t>
-  </si>
-  <si>
-    <t>-32.0</t>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>6195792.0</t>
+  </si>
+  <si>
+    <t>5806893.0</t>
+  </si>
+  <si>
+    <t>388899.0</t>
+  </si>
+  <si>
+    <t>906.0</t>
+  </si>
+  <si>
+    <t>951.0</t>
+  </si>
+  <si>
+    <t>-5.0</t>
+  </si>
+  <si>
+    <t>3917.0</t>
+  </si>
+  <si>
+    <t>4286.0</t>
+  </si>
+  <si>
+    <t>-369.0</t>
+  </si>
+  <si>
+    <t>4871.0</t>
+  </si>
+  <si>
+    <t>280.0</t>
+  </si>
+  <si>
+    <t>113.0</t>
+  </si>
+  <si>
+    <t>167.0</t>
   </si>
   <si>
     <t>148.0</t>
   </si>
   <si>
-    <t>266.0</t>
-  </si>
-  <si>
-    <t>-118.0</t>
-  </si>
-  <si>
-    <t>-44.0</t>
-  </si>
-  <si>
-    <t>306.0</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>222.0</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>-9.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>489838.0</t>
-  </si>
-  <si>
-    <t>135.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>19.0</t>
-  </si>
-  <si>
-    <t>89.0</t>
-  </si>
-  <si>
-    <t>11.0</t>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>349.0</t>
+  </si>
+  <si>
+    <t>362.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>6343493.0</t>
+  </si>
+  <si>
+    <t>6114011.0</t>
+  </si>
+  <si>
+    <t>229482.0</t>
+  </si>
+  <si>
+    <t>1449.0</t>
+  </si>
+  <si>
+    <t>1478.0</t>
+  </si>
+  <si>
+    <t>-29.0</t>
+  </si>
+  <si>
+    <t>6081.0</t>
+  </si>
+  <si>
+    <t>7353.0</t>
+  </si>
+  <si>
+    <t>-1272.0</t>
+  </si>
+  <si>
+    <t>7512.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>95.0</t>
+  </si>
+  <si>
+    <t>499.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>447.0</t>
+  </si>
+  <si>
+    <t>860.0</t>
+  </si>
+  <si>
+    <t>357.0</t>
+  </si>
+  <si>
+    <t>392.0</t>
+  </si>
+  <si>
+    <t>-35.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>7688044.0</t>
+  </si>
+  <si>
+    <t>6953065.0</t>
+  </si>
+  <si>
+    <t>734979.0</t>
+  </si>
+  <si>
+    <t>2872.0</t>
+  </si>
+  <si>
+    <t>2478.0</t>
+  </si>
+  <si>
+    <t>394.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>13377.0</t>
+  </si>
+  <si>
+    <t>12359.0</t>
+  </si>
+  <si>
+    <t>1018.0</t>
+  </si>
+  <si>
+    <t>12088.0</t>
+  </si>
+  <si>
+    <t>309.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>286.0</t>
+  </si>
+  <si>
+    <t>997.0</t>
+  </si>
+  <si>
+    <t>-711.0</t>
+  </si>
+  <si>
+    <t>-71.0</t>
+  </si>
+  <si>
+    <t>347.0</t>
+  </si>
+  <si>
+    <t>410.0</t>
+  </si>
+  <si>
+    <t>-63.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>5308271.0</t>
+  </si>
+  <si>
+    <t>3541725.0</t>
+  </si>
+  <si>
+    <t>1766546.0</t>
+  </si>
+  <si>
+    <t>1417.0</t>
+  </si>
+  <si>
+    <t>1475.0</t>
+  </si>
+  <si>
+    <t>-58.0</t>
+  </si>
+  <si>
+    <t>6042.0</t>
+  </si>
+  <si>
+    <t>8575.0</t>
+  </si>
+  <si>
+    <t>-2533.0</t>
+  </si>
+  <si>
+    <t>19083.0</t>
+  </si>
+  <si>
+    <t>399.0</t>
+  </si>
+  <si>
+    <t>239.0</t>
+  </si>
+  <si>
+    <t>149.0</t>
+  </si>
+  <si>
+    <t>293.0</t>
+  </si>
+  <si>
+    <t>346.0</t>
+  </si>
+  <si>
+    <t>-53.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>587854.0</t>
+  </si>
+  <si>
+    <t>526289.0</t>
+  </si>
+  <si>
+    <t>61565.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
   </si>
   <si>
     <t>2.0</t>
   </si>
   <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>13729636.0</t>
-  </si>
-  <si>
-    <t>10331587.0</t>
-  </si>
-  <si>
-    <t>3398049.0</t>
-  </si>
-  <si>
-    <t>13025.0</t>
-  </si>
-  <si>
-    <t>14724.0</t>
-  </si>
-  <si>
-    <t>-1699.0</t>
-  </si>
-  <si>
-    <t>-12.0</t>
-  </si>
-  <si>
-    <t>56133.0</t>
-  </si>
-  <si>
-    <t>67357.0</t>
-  </si>
-  <si>
-    <t>-11224.0</t>
-  </si>
-  <si>
-    <t>-17.0</t>
-  </si>
-  <si>
-    <t>28675.0</t>
-  </si>
-  <si>
-    <t>799.0</t>
-  </si>
-  <si>
-    <t>428.0</t>
-  </si>
-  <si>
-    <t>371.0</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>2394.0</t>
-  </si>
-  <si>
-    <t>2651.0</t>
-  </si>
-  <si>
-    <t>2018-12-31</t>
-  </si>
-  <si>
-    <t>-257.0</t>
-  </si>
-  <si>
-    <t>-10.0</t>
-  </si>
-  <si>
-    <t>249.0</t>
-  </si>
-  <si>
-    <t>319.0</t>
-  </si>
-  <si>
-    <t>-70.0</t>
-  </si>
-  <si>
-    <t>-22.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>2600512.0</t>
-  </si>
-  <si>
-    <t>2697668.0</t>
-  </si>
-  <si>
-    <t>-97156.0</t>
-  </si>
-  <si>
-    <t>506.0</t>
-  </si>
-  <si>
-    <t>528.0</t>
-  </si>
-  <si>
-    <t>1387.0</t>
-  </si>
-  <si>
-    <t>1542.0</t>
-  </si>
-  <si>
-    <t>-155.0</t>
-  </si>
-  <si>
-    <t>2691.0</t>
-  </si>
-  <si>
-    <t>101.0</t>
-  </si>
-  <si>
-    <t>46.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>-81.0</t>
-  </si>
-  <si>
-    <t>-42.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>3115504.0</t>
-  </si>
-  <si>
-    <t>3243281.0</t>
-  </si>
-  <si>
-    <t>-127777.0</t>
-  </si>
-  <si>
-    <t>520.0</t>
-  </si>
-  <si>
-    <t>414.0</t>
-  </si>
-  <si>
-    <t>106.0</t>
-  </si>
-  <si>
-    <t>1111.0</t>
-  </si>
-  <si>
-    <t>1552.0</t>
-  </si>
-  <si>
-    <t>-441.0</t>
-  </si>
-  <si>
-    <t>-28.0</t>
-  </si>
-  <si>
-    <t>2844.0</t>
-  </si>
-  <si>
-    <t>103.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>368.0</t>
-  </si>
-  <si>
-    <t>139.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>126.0</t>
-  </si>
-  <si>
-    <t>969.0</t>
-  </si>
-  <si>
-    <t>164.0</t>
-  </si>
-  <si>
-    <t>244.0</t>
-  </si>
-  <si>
-    <t>-80.0</t>
-  </si>
-  <si>
-    <t>-33.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>3464653.0</t>
-  </si>
-  <si>
-    <t>3135245.0</t>
-  </si>
-  <si>
-    <t>329408.0</t>
-  </si>
-  <si>
-    <t>459.0</t>
-  </si>
-  <si>
-    <t>495.0</t>
-  </si>
-  <si>
-    <t>-36.0</t>
-  </si>
-  <si>
-    <t>1427.0</t>
-  </si>
-  <si>
-    <t>1606.0</t>
-  </si>
-  <si>
-    <t>-179.0</t>
-  </si>
-  <si>
-    <t>-11.0</t>
-  </si>
-  <si>
-    <t>4207.0</t>
-  </si>
-  <si>
-    <t>217.0</t>
-  </si>
-  <si>
-    <t>145.0</t>
-  </si>
-  <si>
-    <t>201.0</t>
-  </si>
-  <si>
-    <t>191.0</t>
-  </si>
-  <si>
-    <t>-46.0</t>
-  </si>
-  <si>
-    <t>-24.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>5610296.0</t>
-  </si>
-  <si>
-    <t>3796842.0</t>
-  </si>
-  <si>
-    <t>1813454.0</t>
-  </si>
-  <si>
-    <t>1172.0</t>
-  </si>
-  <si>
-    <t>1316.0</t>
-  </si>
-  <si>
-    <t>-144.0</t>
-  </si>
-  <si>
-    <t>3086.0</t>
-  </si>
-  <si>
-    <t>3581.0</t>
-  </si>
-  <si>
-    <t>-495.0</t>
-  </si>
-  <si>
-    <t>-14.0</t>
-  </si>
-  <si>
-    <t>8691.0</t>
-  </si>
-  <si>
-    <t>200.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>277.0</t>
-  </si>
-  <si>
-    <t>382.0</t>
-  </si>
-  <si>
-    <t>268.0</t>
-  </si>
-  <si>
-    <t>114.0</t>
-  </si>
-  <si>
-    <t>289.0</t>
-  </si>
-  <si>
-    <t>-97.0</t>
-  </si>
-  <si>
-    <t>-34.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>5548815.0</t>
-  </si>
-  <si>
-    <t>5281563.0</t>
-  </si>
-  <si>
-    <t>267252.0</t>
-  </si>
-  <si>
-    <t>1147.0</t>
-  </si>
-  <si>
-    <t>1046.0</t>
-  </si>
-  <si>
-    <t>2903.0</t>
-  </si>
-  <si>
-    <t>3285.0</t>
-  </si>
-  <si>
-    <t>-382.0</t>
-  </si>
-  <si>
-    <t>3920.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>165.0</t>
-  </si>
-  <si>
-    <t>409.0</t>
-  </si>
-  <si>
-    <t>138.0</t>
-  </si>
-  <si>
-    <t>271.0</t>
-  </si>
-  <si>
-    <t>196.0</t>
-  </si>
-  <si>
-    <t>221.0</t>
-  </si>
-  <si>
-    <t>281.0</t>
-  </si>
-  <si>
-    <t>-60.0</t>
-  </si>
-  <si>
-    <t>-21.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>3281160.0</t>
-  </si>
-  <si>
-    <t>2894031.0</t>
-  </si>
-  <si>
-    <t>387129.0</t>
-  </si>
-  <si>
-    <t>793.0</t>
-  </si>
-  <si>
-    <t>752.0</t>
-  </si>
-  <si>
-    <t>2724.0</t>
-  </si>
-  <si>
-    <t>2765.0</t>
-  </si>
-  <si>
-    <t>-41.0</t>
-  </si>
-  <si>
-    <t>1555.0</t>
-  </si>
-  <si>
-    <t>97.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>246.0</t>
-  </si>
-  <si>
-    <t>439.0</t>
-  </si>
-  <si>
-    <t>160.0</t>
-  </si>
-  <si>
-    <t>215.0</t>
-  </si>
-  <si>
-    <t>-55.0</t>
-  </si>
-  <si>
-    <t>-26.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>2630527.0</t>
-  </si>
-  <si>
-    <t>2696803.0</t>
-  </si>
-  <si>
-    <t>-66276.0</t>
-  </si>
-  <si>
-    <t>479.0</t>
-  </si>
-  <si>
-    <t>465.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>1451.0</t>
-  </si>
-  <si>
-    <t>1772.0</t>
-  </si>
-  <si>
-    <t>-321.0</t>
-  </si>
-  <si>
-    <t>-18.0</t>
-  </si>
-  <si>
-    <t>2173.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>152.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>-39.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>6403216.0</t>
-  </si>
-  <si>
-    <t>5806893.0</t>
-  </si>
-  <si>
-    <t>596323.0</t>
-  </si>
-  <si>
-    <t>947.0</t>
-  </si>
-  <si>
-    <t>859.0</t>
-  </si>
-  <si>
-    <t>88.0</t>
-  </si>
-  <si>
-    <t>3505.0</t>
-  </si>
-  <si>
-    <t>3927.0</t>
-  </si>
-  <si>
-    <t>-422.0</t>
-  </si>
-  <si>
-    <t>4650.0</t>
-  </si>
-  <si>
-    <t>280.0</t>
-  </si>
-  <si>
-    <t>113.0</t>
-  </si>
-  <si>
-    <t>167.0</t>
-  </si>
-  <si>
-    <t>298.0</t>
-  </si>
-  <si>
-    <t>362.0</t>
-  </si>
-  <si>
-    <t>-64.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>6521633.0</t>
-  </si>
-  <si>
-    <t>6114011.0</t>
-  </si>
-  <si>
-    <t>407622.0</t>
-  </si>
-  <si>
-    <t>1418.0</t>
-  </si>
-  <si>
-    <t>1356.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>5539.0</t>
-  </si>
-  <si>
-    <t>6730.0</t>
-  </si>
-  <si>
-    <t>-1191.0</t>
-  </si>
-  <si>
-    <t>7129.0</t>
-  </si>
-  <si>
-    <t>284.0</t>
-  </si>
-  <si>
-    <t>146.0</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>119.0</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>129.0</t>
-  </si>
-  <si>
-    <t>286.0</t>
-  </si>
-  <si>
-    <t>392.0</t>
-  </si>
-  <si>
-    <t>-106.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>7789461.0</t>
-  </si>
-  <si>
-    <t>6953065.0</t>
-  </si>
-  <si>
-    <t>836396.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>2610.0</t>
-  </si>
-  <si>
-    <t>2251.0</t>
-  </si>
-  <si>
-    <t>359.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>11964.0</t>
-  </si>
-  <si>
-    <t>11125.0</t>
-  </si>
-  <si>
-    <t>839.0</t>
-  </si>
-  <si>
-    <t>11152.0</t>
-  </si>
-  <si>
-    <t>309.0</t>
-  </si>
-  <si>
-    <t>132.0</t>
-  </si>
-  <si>
-    <t>134.0</t>
-  </si>
-  <si>
-    <t>507.0</t>
-  </si>
-  <si>
-    <t>997.0</t>
-  </si>
-  <si>
-    <t>-490.0</t>
-  </si>
-  <si>
-    <t>-49.0</t>
-  </si>
-  <si>
-    <t>331.0</t>
-  </si>
-  <si>
-    <t>410.0</t>
-  </si>
-  <si>
-    <t>-79.0</t>
-  </si>
-  <si>
-    <t>-19.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>5200242.0</t>
-  </si>
-  <si>
-    <t>3541725.0</t>
-  </si>
-  <si>
-    <t>1658517.0</t>
-  </si>
-  <si>
-    <t>1306.0</t>
-  </si>
-  <si>
-    <t>1375.0</t>
-  </si>
-  <si>
-    <t>-69.0</t>
-  </si>
-  <si>
-    <t>-5.0</t>
-  </si>
-  <si>
-    <t>5447.0</t>
-  </si>
-  <si>
-    <t>7898.0</t>
-  </si>
-  <si>
-    <t>-2451.0</t>
-  </si>
-  <si>
-    <t>17642.0</t>
-  </si>
-  <si>
-    <t>399.0</t>
-  </si>
-  <si>
-    <t>239.0</t>
-  </si>
-  <si>
-    <t>149.0</t>
-  </si>
-  <si>
-    <t>130.0</t>
-  </si>
-  <si>
-    <t>-47.0</t>
-  </si>
-  <si>
-    <t>229.0</t>
-  </si>
-  <si>
-    <t>346.0</t>
-  </si>
-  <si>
-    <t>-117.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>724515.0</t>
-  </si>
-  <si>
-    <t>526289.0</t>
-  </si>
-  <si>
-    <t>198226.0</t>
-  </si>
-  <si>
-    <t>38.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>143.0</t>
-  </si>
-  <si>
-    <t>70.0</t>
-  </si>
-  <si>
-    <t>31.0</t>
-  </si>
-  <si>
-    <t>155.0</t>
+    <t>169.0</t>
   </si>
   <si>
     <t>2017-06-30</t>
-  </si>
-  <si>
-    <t>-43.0</t>
   </si>
 </sst>
 </file>
@@ -1617,19 +1653,19 @@
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1637,10 +1673,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
@@ -1649,25 +1685,25 @@
         <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1675,10 +1711,10 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
         <v>18</v>
@@ -1687,36 +1723,36 @@
         <v>19</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
         <v>18</v>
@@ -1725,33 +1761,33 @@
         <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1760,36 +1796,36 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1798,24 +1834,24 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1824,25 +1860,25 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1916,31 +1952,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="E2" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>84</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1948,37 +1984,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="E3" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F3" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="K3" t="s">
-        <v>207</v>
+        <v>126</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1986,186 +2022,186 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F4" t="s">
-        <v>223</v>
+        <v>238</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>224</v>
+        <v>239</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="K4" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="E5" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F5" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F6" t="s">
-        <v>228</v>
+        <v>242</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>229</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>243</v>
       </c>
       <c r="K6" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="E7" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F7" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>232</v>
+        <v>246</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>233</v>
+        <v>247</v>
       </c>
       <c r="K7" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="E8" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="F8" t="s">
-        <v>169</v>
+        <v>248</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="K8" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2239,31 +2275,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="E2" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F2" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>139</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2271,37 +2307,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F3" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>164</v>
+        <v>259</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2309,186 +2345,186 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F4" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="K4" t="s">
-        <v>134</v>
+        <v>77</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F5" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>119</v>
+        <v>265</v>
       </c>
       <c r="K6" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="E7" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="K7" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="E8" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="F8" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>256</v>
+        <v>119</v>
       </c>
       <c r="K8" t="s">
-        <v>257</v>
+        <v>177</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2562,31 +2598,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E2" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F2" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="K2" t="s">
-        <v>189</v>
+        <v>140</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2594,37 +2630,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E3" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F3" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>280</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2632,174 +2668,174 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="K4" t="s">
-        <v>74</v>
+        <v>284</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E5" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F5" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E6" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F6" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>287</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="K6" t="s">
-        <v>271</v>
+        <v>289</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F7" t="s">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E8" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="F8" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>275</v>
+        <v>293</v>
       </c>
       <c r="K8" t="s">
-        <v>276</v>
+        <v>211</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -2873,31 +2909,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F2" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="K2" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -2905,37 +2941,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F3" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>301</v>
       </c>
       <c r="K3" t="s">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -2943,174 +2979,174 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F4" t="s">
-        <v>285</v>
+        <v>303</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>287</v>
+        <v>305</v>
       </c>
       <c r="K4" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F5" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F6" t="s">
-        <v>168</v>
+        <v>308</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>290</v>
+        <v>309</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="K6" t="s">
-        <v>292</v>
+        <v>311</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F7" t="s">
-        <v>293</v>
+        <v>312</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="F8" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>101</v>
+        <v>313</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>294</v>
+        <v>200</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>306</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3184,31 +3220,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="E2" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="F2" t="s">
-        <v>297</v>
+        <v>316</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>280</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3216,37 +3252,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="E3" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>319</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>66</v>
+        <v>321</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3254,174 +3290,174 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="E4" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="K4" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="E5" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="F5" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="E6" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="F6" t="s">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>309</v>
+        <v>328</v>
       </c>
       <c r="K6" t="s">
-        <v>105</v>
+        <v>329</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="E7" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>330</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>295</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="F8" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>312</v>
+        <v>127</v>
       </c>
       <c r="K8" t="s">
-        <v>288</v>
+        <v>138</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3495,31 +3531,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E2" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="F2" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="K2" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3527,37 +3563,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E3" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="F3" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>133</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3565,186 +3601,186 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E4" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="F4" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="K4" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E5" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="F5" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E6" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="F6" t="s">
-        <v>325</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>326</v>
+        <v>345</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="K6" t="s">
-        <v>327</v>
+        <v>346</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E7" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="F7" t="s">
-        <v>328</v>
+        <v>347</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>291</v>
+        <v>349</v>
       </c>
       <c r="K7" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="E8" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="F8" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3818,31 +3854,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="F2" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="K2" t="s">
-        <v>339</v>
+        <v>54</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -3850,37 +3886,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="E3" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="F3" t="s">
-        <v>340</v>
+        <v>359</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>341</v>
+        <v>360</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="K3" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -3888,186 +3924,186 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="E4" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="F4" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>345</v>
+        <v>364</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>346</v>
+        <v>365</v>
       </c>
       <c r="K4" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="E5" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="F5" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>347</v>
+        <v>366</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="E6" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="F6" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>349</v>
+        <v>368</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>101</v>
+        <v>313</v>
       </c>
       <c r="K6" t="s">
-        <v>350</v>
+        <v>369</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="E7" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="F7" t="s">
-        <v>351</v>
+        <v>370</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>353</v>
+        <v>372</v>
       </c>
       <c r="K7" t="s">
-        <v>354</v>
+        <v>373</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="E8" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="F8" t="s">
-        <v>355</v>
+        <v>374</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>356</v>
+        <v>375</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>357</v>
+        <v>376</v>
       </c>
       <c r="K8" t="s">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4141,31 +4177,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="E2" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="F2" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="K2" t="s">
-        <v>114</v>
+        <v>136</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4173,37 +4209,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="E3" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="F3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>366</v>
+        <v>384</v>
       </c>
       <c r="K3" t="s">
-        <v>367</v>
+        <v>138</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4211,186 +4247,186 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="E4" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="F4" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>200</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="E5" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="F5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="E6" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="F6" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>273</v>
+        <v>291</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="K6" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="E7" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="F7" t="s">
-        <v>375</v>
+        <v>329</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>101</v>
+        <v>313</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>376</v>
+        <v>340</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>359</v>
+        <v>377</v>
       </c>
       <c r="E8" t="s">
-        <v>360</v>
+        <v>378</v>
       </c>
       <c r="F8" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="K8" t="s">
-        <v>236</v>
+        <v>155</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4464,31 +4500,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="E2" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="F2" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="K2" t="s">
-        <v>385</v>
+        <v>140</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4496,37 +4532,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>395</v>
+      </c>
+      <c r="E3" t="s">
+        <v>396</v>
+      </c>
+      <c r="F3" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E3" t="s">
-        <v>381</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>386</v>
-      </c>
-      <c r="I3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" t="s">
-        <v>83</v>
-      </c>
       <c r="K3" t="s">
-        <v>387</v>
+        <v>138</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4534,171 +4570,171 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="E4" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>400</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>388</v>
+        <v>401</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>389</v>
+        <v>402</v>
       </c>
       <c r="K4" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="E5" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="F5" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>395</v>
+      </c>
+      <c r="E6" t="s">
+        <v>396</v>
+      </c>
+      <c r="F6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>380</v>
-      </c>
-      <c r="E6" t="s">
-        <v>381</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
       <c r="I6" t="s">
-        <v>391</v>
+        <v>404</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>302</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="E7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="E8" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="F8" t="s">
-        <v>293</v>
+        <v>88</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="K8" t="s">
-        <v>392</v>
+        <v>46</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -4772,31 +4808,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>74</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -4804,37 +4840,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F3" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -4842,171 +4878,171 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F4" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="O8" t="s">
         <v>69</v>
-      </c>
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" t="s">
-        <v>65</v>
-      </c>
-      <c r="J8" t="s">
-        <v>75</v>
-      </c>
-      <c r="K8" t="s">
-        <v>37</v>
-      </c>
-      <c r="O8" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5080,31 +5116,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5112,37 +5148,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5150,171 +5186,171 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F4" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-      <c r="F6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G6" t="s">
-        <v>59</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F8" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5388,31 +5424,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5420,37 +5456,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5458,174 +5494,174 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="K4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>122</v>
       </c>
       <c r="K6" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="K8" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -5699,31 +5735,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>133</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -5731,37 +5767,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E3" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>135</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -5769,171 +5805,171 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E4" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>120</v>
+        <v>29</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="K4" t="s">
-        <v>91</v>
+        <v>138</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E5" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F5" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F6" t="s">
         <v>46</v>
       </c>
-      <c r="B6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="E7" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" t="s">
+        <v>140</v>
+      </c>
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
         <v>61</v>
       </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E8" t="s">
-        <v>117</v>
-      </c>
-      <c r="F8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G8" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" t="s">
-        <v>30</v>
-      </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="K8" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6007,31 +6043,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E2" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="K2" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -6039,37 +6075,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E3" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="K3" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6077,186 +6113,186 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="K4" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E5" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F5" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F6" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="K6" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="K7" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="E8" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="F8" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
       <c r="K8" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6330,31 +6366,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -6362,37 +6398,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="K3" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6400,174 +6436,174 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E4" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="K4" t="s">
-        <v>148</v>
+        <v>181</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E6" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>184</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="K6" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E7" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="K8" t="s">
-        <v>171</v>
+        <v>115</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6641,31 +6677,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="K2" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -6673,37 +6709,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="E3" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>179</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -6711,186 +6747,186 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="E4" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>197</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="K4" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="F5" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="K6" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="F7" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H7" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="K7" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="E8" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="F8" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="K8" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -6964,31 +7000,31 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E2" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F2" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="K2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -6996,37 +7032,37 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="G3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="O3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -7034,174 +7070,174 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F4" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="I4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="K4" t="s">
-        <v>207</v>
+        <v>151</v>
       </c>
       <c r="O4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E5" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F5" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="J5" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="O5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F6" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>77</v>
+        <v>225</v>
       </c>
       <c r="I6" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="K6" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="O6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E7" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F7" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="O7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E8" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="F8" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="I8" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="K8" t="s">
-        <v>214</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/secteur-action-publique/securite/regions/barometre-resultats-securite-regions-synthese.xlsx
+++ b/secteur-action-publique/securite/regions/barometre-resultats-securite-regions-synthese.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1716" uniqueCount="402">
   <si>
     <t>mesure</t>
   </si>
@@ -93,10 +93,10 @@
     <t>Guadeloupe</t>
   </si>
   <si>
-    <t>600027.0</t>
-  </si>
-  <si>
-    <t>2022-01-31</t>
+    <t>588108.0</t>
+  </si>
+  <si>
+    <t>2022-10-31</t>
   </si>
   <si>
     <t>607406.0</t>
@@ -105,1147 +105,1138 @@
     <t>2021-12-31</t>
   </si>
   <si>
-    <t>-7379.0</t>
+    <t>-19298.0</t>
+  </si>
+  <si>
+    <t>-3.0</t>
+  </si>
+  <si>
+    <t>heures de patrouille sur douze mois *</t>
+  </si>
+  <si>
+    <t>Atteintes aux personnes dans les transports en commun</t>
+  </si>
+  <si>
+    <t>nb-atteintes-personnes</t>
+  </si>
+  <si>
+    <t>24.0</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>-19.0</t>
+  </si>
+  <si>
+    <t>-44.0</t>
+  </si>
+  <si>
+    <t>atteintes aux personnes dans l'année</t>
+  </si>
+  <si>
+    <t>Atteintes aux biens dans les transports en commun</t>
+  </si>
+  <si>
+    <t>nb-atteintes-biens</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>-28.0</t>
+  </si>
+  <si>
+    <t>-45.0</t>
+  </si>
+  <si>
+    <t>atteintes aux biens dans l'année</t>
+  </si>
+  <si>
+    <t>Lutter contre les stupéfiants</t>
+  </si>
+  <si>
+    <t>Nombre d'amendes forfaitaires délictuelles dressées</t>
+  </si>
+  <si>
+    <t>nb-amendes-delictuelles-dressees</t>
+  </si>
+  <si>
+    <t>825.0</t>
+  </si>
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>2020-05-31</t>
+  </si>
+  <si>
+    <t>amendes dressées</t>
+  </si>
+  <si>
+    <t>Lutter contre les violences faites aux femmes</t>
+  </si>
+  <si>
+    <t>Nombre d’ordonnances de protection délivrées</t>
+  </si>
+  <si>
+    <t>nb-ordonnances-delivrees</t>
+  </si>
+  <si>
+    <t>35.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>218.0</t>
+  </si>
+  <si>
+    <t>ordonnances dans l'année</t>
+  </si>
+  <si>
+    <t>Lutter contre les atteintes aux principes républicains</t>
+  </si>
+  <si>
+    <t>Nombre de contrôles réalisés dans le cadre des CLIR ou des dispositifs existant localement avant la mise en place progressive des CLIR</t>
+  </si>
+  <si>
+    <t>nb-controles-clir</t>
+  </si>
+  <si>
+    <t>contrôles</t>
+  </si>
+  <si>
+    <t>Réduire la mortalité sur les routes</t>
+  </si>
+  <si>
+    <t>Nombre de morts sur les routes</t>
+  </si>
+  <si>
+    <t>nb-morts-routes</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>-6.0</t>
+  </si>
+  <si>
+    <t>-15.0</t>
+  </si>
+  <si>
+    <t>morts dans l'année</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>466045.0</t>
+  </si>
+  <si>
+    <t>444319.0</t>
+  </si>
+  <si>
+    <t>21726.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>60.0</t>
+  </si>
+  <si>
+    <t>-12.0</t>
+  </si>
+  <si>
+    <t>-20.0</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>79.0</t>
+  </si>
+  <si>
+    <t>-43.0</t>
+  </si>
+  <si>
+    <t>-54.0</t>
+  </si>
+  <si>
+    <t>677.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>-9.0</t>
+  </si>
+  <si>
+    <t>-30.0</t>
+  </si>
+  <si>
+    <t>03</t>
+  </si>
+  <si>
+    <t>Guyane</t>
+  </si>
+  <si>
+    <t>1035299.0</t>
+  </si>
+  <si>
+    <t>977430.0</t>
+  </si>
+  <si>
+    <t>57869.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>58.0</t>
+  </si>
+  <si>
+    <t>-16.0</t>
+  </si>
+  <si>
+    <t>53.0</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>-38.0</t>
+  </si>
+  <si>
+    <t>-42.0</t>
+  </si>
+  <si>
+    <t>192.0</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>28.0</t>
+  </si>
+  <si>
+    <t>26.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>La Réunion</t>
+  </si>
+  <si>
+    <t>745162.0</t>
+  </si>
+  <si>
+    <t>734486.0</t>
+  </si>
+  <si>
+    <t>10676.0</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>206.0</t>
+  </si>
+  <si>
+    <t>281.0</t>
+  </si>
+  <si>
+    <t>-75.0</t>
+  </si>
+  <si>
+    <t>-27.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>284.0</t>
+  </si>
+  <si>
+    <t>-114.0</t>
+  </si>
+  <si>
+    <t>-40.0</t>
+  </si>
+  <si>
+    <t>595.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>19.0</t>
+  </si>
+  <si>
+    <t>211.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>47.0</t>
+  </si>
+  <si>
+    <t>06</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>473205.0</t>
+  </si>
+  <si>
+    <t>491257.0</t>
+  </si>
+  <si>
+    <t>-18052.0</t>
+  </si>
+  <si>
+    <t>-4.0</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>50.0</t>
   </si>
   <si>
     <t>-1.0</t>
   </si>
   <si>
-    <t>heures de patrouille sur douze mois *</t>
-  </si>
-  <si>
-    <t>Atteintes aux personnes dans les transports en commun</t>
-  </si>
-  <si>
-    <t>nb-atteintes-personnes</t>
-  </si>
-  <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>2017-12-31</t>
-  </si>
-  <si>
-    <t>-19.0</t>
-  </si>
-  <si>
-    <t>-44.0</t>
-  </si>
-  <si>
-    <t>atteintes aux personnes dans l'année</t>
-  </si>
-  <si>
-    <t>Atteintes aux biens dans les transports en commun</t>
-  </si>
-  <si>
-    <t>nb-atteintes-biens</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>62.0</t>
-  </si>
-  <si>
-    <t>-28.0</t>
-  </si>
-  <si>
-    <t>-45.0</t>
-  </si>
-  <si>
-    <t>atteintes aux biens dans l'année</t>
-  </si>
-  <si>
-    <t>Lutter contre les stupéfiants</t>
-  </si>
-  <si>
-    <t>Nombre d'amendes forfaitaires délictuelles dressées</t>
-  </si>
-  <si>
-    <t>nb-amendes-delictuelles-dressees</t>
-  </si>
-  <si>
-    <t>465.0</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>2020-05-31</t>
-  </si>
-  <si>
-    <t>amendes dressées</t>
-  </si>
-  <si>
-    <t>Lutter contre les violences faites aux femmes</t>
-  </si>
-  <si>
-    <t>Nombre d’ordonnances de protection délivrées</t>
-  </si>
-  <si>
-    <t>nb-ordonnances-delivrees</t>
-  </si>
-  <si>
-    <t>25.0</t>
+    <t>27.0</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>Île-de-France</t>
+  </si>
+  <si>
+    <t>28813422.0</t>
+  </si>
+  <si>
+    <t>10331587.0</t>
+  </si>
+  <si>
+    <t>18481835.0</t>
+  </si>
+  <si>
+    <t>179.0</t>
+  </si>
+  <si>
+    <t>14594.0</t>
+  </si>
+  <si>
+    <t>15985.0</t>
+  </si>
+  <si>
+    <t>-1391.0</t>
+  </si>
+  <si>
+    <t>62415.0</t>
+  </si>
+  <si>
+    <t>73666.0</t>
+  </si>
+  <si>
+    <t>-11251.0</t>
+  </si>
+  <si>
+    <t>39509.0</t>
+  </si>
+  <si>
+    <t>846.0</t>
+  </si>
+  <si>
+    <t>428.0</t>
+  </si>
+  <si>
+    <t>418.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>992.0</t>
+  </si>
+  <si>
+    <t>2651.0</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>-1659.0</t>
+  </si>
+  <si>
+    <t>-63.0</t>
+  </si>
+  <si>
+    <t>209.0</t>
+  </si>
+  <si>
+    <t>319.0</t>
+  </si>
+  <si>
+    <t>-110.0</t>
+  </si>
+  <si>
+    <t>-34.0</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>Centre-Val de Loire</t>
+  </si>
+  <si>
+    <t>2626351.0</t>
+  </si>
+  <si>
+    <t>2697668.0</t>
+  </si>
+  <si>
+    <t>-71317.0</t>
+  </si>
+  <si>
+    <t>511.0</t>
+  </si>
+  <si>
+    <t>591.0</t>
+  </si>
+  <si>
+    <t>-80.0</t>
+  </si>
+  <si>
+    <t>-14.0</t>
+  </si>
+  <si>
+    <t>1534.0</t>
+  </si>
+  <si>
+    <t>1710.0</t>
+  </si>
+  <si>
+    <t>-176.0</t>
+  </si>
+  <si>
+    <t>-10.0</t>
+  </si>
+  <si>
+    <t>2839.0</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>55.0</t>
+  </si>
+  <si>
+    <t>133.0</t>
+  </si>
+  <si>
+    <t>136.0</t>
+  </si>
+  <si>
+    <t>-56.0</t>
+  </si>
+  <si>
+    <t>-29.0</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>Bourgogne-Franche-Comté</t>
+  </si>
+  <si>
+    <t>3226799.0</t>
+  </si>
+  <si>
+    <t>3243281.0</t>
+  </si>
+  <si>
+    <t>-16482.0</t>
+  </si>
+  <si>
+    <t>450.0</t>
+  </si>
+  <si>
+    <t>449.0</t>
+  </si>
+  <si>
+    <t>1189.0</t>
+  </si>
+  <si>
+    <t>1698.0</t>
+  </si>
+  <si>
+    <t>-509.0</t>
+  </si>
+  <si>
+    <t>3872.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>259.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>246.0</t>
+  </si>
+  <si>
+    <t>1892.0</t>
+  </si>
+  <si>
+    <t>138.0</t>
+  </si>
+  <si>
+    <t>244.0</t>
+  </si>
+  <si>
+    <t>-106.0</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Normandie</t>
+  </si>
+  <si>
+    <t>3634192.0</t>
+  </si>
+  <si>
+    <t>3135245.0</t>
+  </si>
+  <si>
+    <t>498947.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>461.0</t>
+  </si>
+  <si>
+    <t>550.0</t>
+  </si>
+  <si>
+    <t>-89.0</t>
+  </si>
+  <si>
+    <t>1584.0</t>
+  </si>
+  <si>
+    <t>1749.0</t>
+  </si>
+  <si>
+    <t>-165.0</t>
+  </si>
+  <si>
+    <t>7679.0</t>
+  </si>
+  <si>
+    <t>173.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>101.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>77.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>191.0</t>
+  </si>
+  <si>
+    <t>-57.0</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>Hauts-de-France</t>
+  </si>
+  <si>
+    <t>6059461.0</t>
+  </si>
+  <si>
+    <t>3796842.0</t>
+  </si>
+  <si>
+    <t>2262619.0</t>
+  </si>
+  <si>
+    <t>1323.0</t>
+  </si>
+  <si>
+    <t>1412.0</t>
+  </si>
+  <si>
+    <t>3422.0</t>
+  </si>
+  <si>
+    <t>3905.0</t>
+  </si>
+  <si>
+    <t>-483.0</t>
+  </si>
+  <si>
+    <t>12806.0</t>
+  </si>
+  <si>
+    <t>167.0</t>
+  </si>
+  <si>
+    <t>114.0</t>
+  </si>
+  <si>
+    <t>215.0</t>
+  </si>
+  <si>
+    <t>176.0</t>
+  </si>
+  <si>
+    <t>268.0</t>
+  </si>
+  <si>
+    <t>-92.0</t>
+  </si>
+  <si>
+    <t>193.0</t>
+  </si>
+  <si>
+    <t>289.0</t>
+  </si>
+  <si>
+    <t>-96.0</t>
+  </si>
+  <si>
+    <t>-33.0</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>Grand Est</t>
+  </si>
+  <si>
+    <t>5823008.0</t>
+  </si>
+  <si>
+    <t>5281563.0</t>
+  </si>
+  <si>
+    <t>541445.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>1257.0</t>
+  </si>
+  <si>
+    <t>1153.0</t>
+  </si>
+  <si>
+    <t>104.0</t>
+  </si>
+  <si>
+    <t>3176.0</t>
+  </si>
+  <si>
+    <t>3596.0</t>
+  </si>
+  <si>
+    <t>-420.0</t>
+  </si>
+  <si>
+    <t>5390.0</t>
+  </si>
+  <si>
+    <t>261.0</t>
+  </si>
+  <si>
+    <t>82.0</t>
+  </si>
+  <si>
+    <t>522.0</t>
+  </si>
+  <si>
+    <t>384.0</t>
+  </si>
+  <si>
+    <t>278.0</t>
+  </si>
+  <si>
+    <t>194.0</t>
+  </si>
+  <si>
+    <t>-87.0</t>
+  </si>
+  <si>
+    <t>-31.0</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>Pays de la Loire</t>
+  </si>
+  <si>
+    <t>3338526.0</t>
+  </si>
+  <si>
+    <t>2894031.0</t>
+  </si>
+  <si>
+    <t>444495.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>859.0</t>
+  </si>
+  <si>
+    <t>802.0</t>
+  </si>
+  <si>
+    <t>57.0</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>3118.0</t>
+  </si>
+  <si>
+    <t>3037.0</t>
+  </si>
+  <si>
+    <t>81.0</t>
+  </si>
+  <si>
+    <t>2991.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>94.0</t>
+  </si>
+  <si>
+    <t>157.0</t>
+  </si>
+  <si>
+    <t>-58.0</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>Bretagne</t>
+  </si>
+  <si>
+    <t>2769593.0</t>
+  </si>
+  <si>
+    <t>2696803.0</t>
+  </si>
+  <si>
+    <t>72790.0</t>
+  </si>
+  <si>
+    <t>544.0</t>
+  </si>
+  <si>
+    <t>517.0</t>
+  </si>
+  <si>
+    <t>1646.0</t>
+  </si>
+  <si>
+    <t>1972.0</t>
+  </si>
+  <si>
+    <t>-326.0</t>
+  </si>
+  <si>
+    <t>-17.0</t>
+  </si>
+  <si>
+    <t>3733.0</t>
+  </si>
+  <si>
+    <t>71.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>102.0</t>
+  </si>
+  <si>
+    <t>177.0</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Nouvelle-Aquitaine</t>
+  </si>
+  <si>
+    <t>6415834.0</t>
+  </si>
+  <si>
+    <t>5806893.0</t>
+  </si>
+  <si>
+    <t>608941.0</t>
+  </si>
+  <si>
+    <t>906.0</t>
+  </si>
+  <si>
+    <t>951.0</t>
+  </si>
+  <si>
+    <t>-5.0</t>
+  </si>
+  <si>
+    <t>3917.0</t>
+  </si>
+  <si>
+    <t>4286.0</t>
+  </si>
+  <si>
+    <t>-369.0</t>
+  </si>
+  <si>
+    <t>5975.0</t>
+  </si>
+  <si>
+    <t>406.0</t>
+  </si>
+  <si>
+    <t>113.0</t>
+  </si>
+  <si>
+    <t>293.0</t>
+  </si>
+  <si>
+    <t>169.0</t>
+  </si>
+  <si>
+    <t>312.0</t>
+  </si>
+  <si>
+    <t>362.0</t>
+  </si>
+  <si>
+    <t>-50.0</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>Occitanie</t>
+  </si>
+  <si>
+    <t>6656181.0</t>
+  </si>
+  <si>
+    <t>6114011.0</t>
+  </si>
+  <si>
+    <t>542170.0</t>
+  </si>
+  <si>
+    <t>1449.0</t>
+  </si>
+  <si>
+    <t>1478.0</t>
+  </si>
+  <si>
+    <t>-2.0</t>
+  </si>
+  <si>
+    <t>6081.0</t>
+  </si>
+  <si>
+    <t>7353.0</t>
+  </si>
+  <si>
+    <t>-1272.0</t>
+  </si>
+  <si>
+    <t>11766.0</t>
+  </si>
+  <si>
+    <t>146.0</t>
+  </si>
+  <si>
+    <t>132.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>269.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>217.0</t>
+  </si>
+  <si>
+    <t>417.0</t>
+  </si>
+  <si>
+    <t>288.0</t>
+  </si>
+  <si>
+    <t>392.0</t>
+  </si>
+  <si>
+    <t>-104.0</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>Auvergne-Rhône-Alpes</t>
+  </si>
+  <si>
+    <t>7901117.0</t>
+  </si>
+  <si>
+    <t>6953065.0</t>
+  </si>
+  <si>
+    <t>948052.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>2872.0</t>
+  </si>
+  <si>
+    <t>2478.0</t>
+  </si>
+  <si>
+    <t>394.0</t>
+  </si>
+  <si>
+    <t>13377.0</t>
+  </si>
+  <si>
+    <t>12359.0</t>
+  </si>
+  <si>
+    <t>1018.0</t>
+  </si>
+  <si>
+    <t>16515.0</t>
+  </si>
+  <si>
+    <t>230.0</t>
+  </si>
+  <si>
+    <t>174.0</t>
+  </si>
+  <si>
+    <t>181.0</t>
+  </si>
+  <si>
+    <t>997.0</t>
+  </si>
+  <si>
+    <t>-816.0</t>
+  </si>
+  <si>
+    <t>-82.0</t>
+  </si>
+  <si>
+    <t>317.0</t>
+  </si>
+  <si>
+    <t>410.0</t>
+  </si>
+  <si>
+    <t>-93.0</t>
+  </si>
+  <si>
+    <t>-23.0</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>Provence-Alpes-Côte d'Azur</t>
+  </si>
+  <si>
+    <t>5614009.0</t>
+  </si>
+  <si>
+    <t>3541725.0</t>
+  </si>
+  <si>
+    <t>2072284.0</t>
+  </si>
+  <si>
+    <t>59.0</t>
+  </si>
+  <si>
+    <t>1417.0</t>
+  </si>
+  <si>
+    <t>1475.0</t>
+  </si>
+  <si>
+    <t>6042.0</t>
+  </si>
+  <si>
+    <t>8575.0</t>
+  </si>
+  <si>
+    <t>-2533.0</t>
+  </si>
+  <si>
+    <t>26967.0</t>
+  </si>
+  <si>
+    <t>426.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>266.0</t>
+  </si>
+  <si>
+    <t>166.0</t>
+  </si>
+  <si>
+    <t>235.0</t>
+  </si>
+  <si>
+    <t>346.0</t>
+  </si>
+  <si>
+    <t>-111.0</t>
+  </si>
+  <si>
+    <t>-32.0</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>Corse</t>
+  </si>
+  <si>
+    <t>730459.0</t>
+  </si>
+  <si>
+    <t>526289.0</t>
+  </si>
+  <si>
+    <t>204170.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>258.0</t>
   </si>
   <si>
     <t>2020-09-30</t>
   </si>
   <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>127.0</t>
-  </si>
-  <si>
-    <t>ordonnances dans l'année</t>
-  </si>
-  <si>
-    <t>Lutter contre les atteintes aux principes républicains</t>
-  </si>
-  <si>
-    <t>Nombre de contrôles réalisés dans le cadre des CLIR ou des dispositifs existant localement avant la mise en place progressive des CLIR</t>
-  </si>
-  <si>
-    <t>nb-controles-clir</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>contrôles</t>
-  </si>
-  <si>
-    <t>Réduire la mortalité sur les routes</t>
-  </si>
-  <si>
-    <t>Nombre de morts sur les routes</t>
-  </si>
-  <si>
-    <t>nb-morts-routes</t>
-  </si>
-  <si>
-    <t>65.0</t>
-  </si>
-  <si>
-    <t>41.0</t>
-  </si>
-  <si>
-    <t>59.0</t>
-  </si>
-  <si>
-    <t>morts</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>Martinique</t>
-  </si>
-  <si>
-    <t>445212.0</t>
-  </si>
-  <si>
-    <t>444319.0</t>
-  </si>
-  <si>
-    <t>893.0</t>
-  </si>
-  <si>
-    <t>48.0</t>
-  </si>
-  <si>
-    <t>60.0</t>
-  </si>
-  <si>
-    <t>-12.0</t>
-  </si>
-  <si>
-    <t>-20.0</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>79.0</t>
-  </si>
-  <si>
-    <t>-43.0</t>
-  </si>
-  <si>
-    <t>-54.0</t>
-  </si>
-  <si>
-    <t>601.0</t>
-  </si>
-  <si>
-    <t>51.0</t>
-  </si>
-  <si>
-    <t>2020-12-31</t>
-  </si>
-  <si>
-    <t>2017-03-31</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>30.0</t>
-  </si>
-  <si>
-    <t>-3.0</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>Guyane</t>
-  </si>
-  <si>
-    <t>966364.0</t>
-  </si>
-  <si>
-    <t>977430.0</t>
-  </si>
-  <si>
-    <t>-11066.0</t>
-  </si>
-  <si>
-    <t>42.0</t>
-  </si>
-  <si>
-    <t>58.0</t>
-  </si>
-  <si>
-    <t>-16.0</t>
-  </si>
-  <si>
-    <t>53.0</t>
-  </si>
-  <si>
-    <t>91.0</t>
-  </si>
-  <si>
-    <t>-38.0</t>
-  </si>
-  <si>
-    <t>-42.0</t>
-  </si>
-  <si>
-    <t>162.0</t>
-  </si>
-  <si>
-    <t>35.0</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>9.0</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>La Réunion</t>
-  </si>
-  <si>
-    <t>743665.0</t>
-  </si>
-  <si>
-    <t>734486.0</t>
-  </si>
-  <si>
-    <t>9179.0</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>206.0</t>
-  </si>
-  <si>
-    <t>281.0</t>
-  </si>
-  <si>
-    <t>-75.0</t>
-  </si>
-  <si>
-    <t>-27.0</t>
-  </si>
-  <si>
-    <t>170.0</t>
-  </si>
-  <si>
-    <t>284.0</t>
-  </si>
-  <si>
-    <t>-114.0</t>
-  </si>
-  <si>
-    <t>-40.0</t>
-  </si>
-  <si>
-    <t>321.0</t>
-  </si>
-  <si>
-    <t>2017-09-30</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
-    <t>233.0</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>47.0</t>
-  </si>
-  <si>
-    <t>-6.0</t>
-  </si>
-  <si>
-    <t>-13.0</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>Mayotte</t>
-  </si>
-  <si>
-    <t>482849.0</t>
-  </si>
-  <si>
-    <t>491257.0</t>
-  </si>
-  <si>
-    <t>-8408.0</t>
-  </si>
-  <si>
-    <t>-2.0</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>50.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>-4.0</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
     <t>12.0</t>
   </si>
   <si>
-    <t>4.0</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>Île-de-France</t>
-  </si>
-  <si>
-    <t>14160000.0</t>
-  </si>
-  <si>
-    <t>10331587.0</t>
-  </si>
-  <si>
-    <t>3828413.0</t>
-  </si>
-  <si>
-    <t>37.0</t>
-  </si>
-  <si>
-    <t>14594.0</t>
-  </si>
-  <si>
-    <t>15985.0</t>
-  </si>
-  <si>
-    <t>-1391.0</t>
-  </si>
-  <si>
-    <t>-9.0</t>
-  </si>
-  <si>
-    <t>62415.0</t>
-  </si>
-  <si>
-    <t>73666.0</t>
-  </si>
-  <si>
-    <t>-11251.0</t>
-  </si>
-  <si>
-    <t>-15.0</t>
-  </si>
-  <si>
-    <t>31104.0</t>
-  </si>
-  <si>
-    <t>799.0</t>
-  </si>
-  <si>
-    <t>428.0</t>
-  </si>
-  <si>
-    <t>371.0</t>
-  </si>
-  <si>
-    <t>87.0</t>
-  </si>
-  <si>
-    <t>1754.0</t>
-  </si>
-  <si>
-    <t>2651.0</t>
-  </si>
-  <si>
-    <t>2018-12-31</t>
-  </si>
-  <si>
-    <t>-897.0</t>
-  </si>
-  <si>
-    <t>-34.0</t>
-  </si>
-  <si>
-    <t>292.0</t>
-  </si>
-  <si>
-    <t>319.0</t>
-  </si>
-  <si>
-    <t>-8.0</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>Centre-Val de Loire</t>
-  </si>
-  <si>
-    <t>2534470.0</t>
-  </si>
-  <si>
-    <t>2697668.0</t>
-  </si>
-  <si>
-    <t>-163198.0</t>
-  </si>
-  <si>
-    <t>511.0</t>
-  </si>
-  <si>
-    <t>591.0</t>
-  </si>
-  <si>
-    <t>-80.0</t>
-  </si>
-  <si>
-    <t>-14.0</t>
-  </si>
-  <si>
-    <t>1534.0</t>
-  </si>
-  <si>
-    <t>1710.0</t>
-  </si>
-  <si>
-    <t>-176.0</t>
-  </si>
-  <si>
-    <t>-10.0</t>
-  </si>
-  <si>
-    <t>2878.0</t>
-  </si>
-  <si>
-    <t>101.0</t>
-  </si>
-  <si>
-    <t>55.0</t>
-  </si>
-  <si>
-    <t>46.0</t>
-  </si>
-  <si>
-    <t>84.0</t>
-  </si>
-  <si>
-    <t>140.0</t>
-  </si>
-  <si>
-    <t>192.0</t>
-  </si>
-  <si>
-    <t>-52.0</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>Bourgogne-Franche-Comté</t>
-  </si>
-  <si>
-    <t>3194089.0</t>
-  </si>
-  <si>
-    <t>3243281.0</t>
-  </si>
-  <si>
-    <t>-49192.0</t>
-  </si>
-  <si>
-    <t>450.0</t>
-  </si>
-  <si>
-    <t>449.0</t>
-  </si>
-  <si>
-    <t>1189.0</t>
-  </si>
-  <si>
-    <t>1698.0</t>
-  </si>
-  <si>
-    <t>-509.0</t>
-  </si>
-  <si>
-    <t>-30.0</t>
-  </si>
-  <si>
-    <t>2995.0</t>
-  </si>
-  <si>
-    <t>103.0</t>
-  </si>
-  <si>
-    <t>73.0</t>
-  </si>
-  <si>
-    <t>243.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>230.0</t>
-  </si>
-  <si>
-    <t>1769.0</t>
-  </si>
-  <si>
-    <t>180.0</t>
-  </si>
-  <si>
-    <t>244.0</t>
-  </si>
-  <si>
-    <t>-64.0</t>
-  </si>
-  <si>
-    <t>-26.0</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>Normandie</t>
-  </si>
-  <si>
-    <t>3428437.0</t>
-  </si>
-  <si>
-    <t>3135245.0</t>
-  </si>
-  <si>
-    <t>293192.0</t>
-  </si>
-  <si>
-    <t>461.0</t>
-  </si>
-  <si>
-    <t>550.0</t>
-  </si>
-  <si>
-    <t>-89.0</t>
-  </si>
-  <si>
-    <t>1584.0</t>
-  </si>
-  <si>
-    <t>1749.0</t>
-  </si>
-  <si>
-    <t>-165.0</t>
-  </si>
-  <si>
-    <t>4610.0</t>
-  </si>
-  <si>
-    <t>217.0</t>
-  </si>
-  <si>
-    <t>72.0</t>
-  </si>
-  <si>
-    <t>145.0</t>
-  </si>
-  <si>
-    <t>201.0</t>
-  </si>
-  <si>
-    <t>155.0</t>
-  </si>
-  <si>
-    <t>191.0</t>
-  </si>
-  <si>
-    <t>-36.0</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>Hauts-de-France</t>
-  </si>
-  <si>
-    <t>5721940.0</t>
-  </si>
-  <si>
-    <t>3796842.0</t>
-  </si>
-  <si>
-    <t>1925098.0</t>
-  </si>
-  <si>
-    <t>1323.0</t>
-  </si>
-  <si>
-    <t>1412.0</t>
-  </si>
-  <si>
-    <t>3422.0</t>
-  </si>
-  <si>
-    <t>3905.0</t>
-  </si>
-  <si>
-    <t>-483.0</t>
-  </si>
-  <si>
-    <t>9305.0</t>
-  </si>
-  <si>
-    <t>200.0</t>
-  </si>
-  <si>
-    <t>147.0</t>
-  </si>
-  <si>
-    <t>277.0</t>
-  </si>
-  <si>
-    <t>96.0</t>
-  </si>
-  <si>
-    <t>268.0</t>
-  </si>
-  <si>
-    <t>-172.0</t>
-  </si>
-  <si>
-    <t>256.0</t>
-  </si>
-  <si>
-    <t>289.0</t>
-  </si>
-  <si>
-    <t>-33.0</t>
-  </si>
-  <si>
-    <t>-11.0</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>Grand Est</t>
-  </si>
-  <si>
-    <t>5578141.0</t>
-  </si>
-  <si>
-    <t>5281563.0</t>
-  </si>
-  <si>
-    <t>296578.0</t>
-  </si>
-  <si>
-    <t>1257.0</t>
-  </si>
-  <si>
-    <t>1153.0</t>
-  </si>
-  <si>
-    <t>104.0</t>
-  </si>
-  <si>
-    <t>3176.0</t>
-  </si>
-  <si>
-    <t>3596.0</t>
-  </si>
-  <si>
-    <t>-420.0</t>
-  </si>
-  <si>
-    <t>4151.0</t>
-  </si>
-  <si>
-    <t>82.0</t>
-  </si>
-  <si>
-    <t>135.0</t>
-  </si>
-  <si>
-    <t>165.0</t>
-  </si>
-  <si>
-    <t>675.0</t>
-  </si>
-  <si>
-    <t>138.0</t>
-  </si>
-  <si>
-    <t>537.0</t>
-  </si>
-  <si>
-    <t>389.0</t>
-  </si>
-  <si>
-    <t>241.0</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>Pays de la Loire</t>
-  </si>
-  <si>
-    <t>3253741.0</t>
-  </si>
-  <si>
-    <t>2894031.0</t>
-  </si>
-  <si>
-    <t>359710.0</t>
-  </si>
-  <si>
-    <t>859.0</t>
-  </si>
-  <si>
-    <t>802.0</t>
-  </si>
-  <si>
-    <t>57.0</t>
-  </si>
-  <si>
-    <t>7.0</t>
-  </si>
-  <si>
-    <t>3118.0</t>
-  </si>
-  <si>
-    <t>3037.0</t>
-  </si>
-  <si>
-    <t>81.0</t>
-  </si>
-  <si>
-    <t>3.0</t>
-  </si>
-  <si>
-    <t>1595.0</t>
-  </si>
-  <si>
-    <t>97.0</t>
-  </si>
-  <si>
-    <t>28.0</t>
-  </si>
-  <si>
-    <t>69.0</t>
-  </si>
-  <si>
-    <t>246.0</t>
-  </si>
-  <si>
-    <t>189.0</t>
-  </si>
-  <si>
-    <t>160.0</t>
-  </si>
-  <si>
-    <t>215.0</t>
-  </si>
-  <si>
-    <t>-55.0</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>Bretagne</t>
-  </si>
-  <si>
-    <t>2699494.0</t>
-  </si>
-  <si>
-    <t>2696803.0</t>
-  </si>
-  <si>
-    <t>2691.0</t>
-  </si>
-  <si>
-    <t>544.0</t>
-  </si>
-  <si>
-    <t>517.0</t>
-  </si>
-  <si>
-    <t>27.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>1646.0</t>
-  </si>
-  <si>
-    <t>1972.0</t>
-  </si>
-  <si>
-    <t>-326.0</t>
-  </si>
-  <si>
-    <t>-17.0</t>
-  </si>
-  <si>
-    <t>2419.0</t>
-  </si>
-  <si>
-    <t>111.0</t>
-  </si>
-  <si>
-    <t>44.0</t>
-  </si>
-  <si>
-    <t>67.0</t>
-  </si>
-  <si>
-    <t>152.0</t>
-  </si>
-  <si>
-    <t>39.0</t>
-  </si>
-  <si>
-    <t>177.0</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Nouvelle-Aquitaine</t>
-  </si>
-  <si>
-    <t>6195792.0</t>
-  </si>
-  <si>
-    <t>5806893.0</t>
-  </si>
-  <si>
-    <t>388899.0</t>
-  </si>
-  <si>
-    <t>906.0</t>
-  </si>
-  <si>
-    <t>951.0</t>
-  </si>
-  <si>
-    <t>-5.0</t>
-  </si>
-  <si>
-    <t>3917.0</t>
-  </si>
-  <si>
-    <t>4286.0</t>
-  </si>
-  <si>
-    <t>-369.0</t>
-  </si>
-  <si>
-    <t>4871.0</t>
-  </si>
-  <si>
-    <t>280.0</t>
-  </si>
-  <si>
-    <t>113.0</t>
-  </si>
-  <si>
-    <t>167.0</t>
-  </si>
-  <si>
-    <t>148.0</t>
-  </si>
-  <si>
-    <t>120.0</t>
-  </si>
-  <si>
-    <t>349.0</t>
-  </si>
-  <si>
-    <t>362.0</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>Occitanie</t>
-  </si>
-  <si>
-    <t>6343493.0</t>
-  </si>
-  <si>
-    <t>6114011.0</t>
-  </si>
-  <si>
-    <t>229482.0</t>
-  </si>
-  <si>
-    <t>1449.0</t>
-  </si>
-  <si>
-    <t>1478.0</t>
-  </si>
-  <si>
-    <t>-29.0</t>
-  </si>
-  <si>
-    <t>6081.0</t>
-  </si>
-  <si>
-    <t>7353.0</t>
-  </si>
-  <si>
-    <t>-1272.0</t>
-  </si>
-  <si>
-    <t>7512.0</t>
-  </si>
-  <si>
-    <t>146.0</t>
-  </si>
-  <si>
-    <t>95.0</t>
-  </si>
-  <si>
-    <t>499.0</t>
-  </si>
-  <si>
-    <t>52.0</t>
-  </si>
-  <si>
-    <t>447.0</t>
-  </si>
-  <si>
-    <t>860.0</t>
-  </si>
-  <si>
-    <t>357.0</t>
-  </si>
-  <si>
-    <t>392.0</t>
-  </si>
-  <si>
-    <t>-35.0</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>Auvergne-Rhône-Alpes</t>
-  </si>
-  <si>
-    <t>7688044.0</t>
-  </si>
-  <si>
-    <t>6953065.0</t>
-  </si>
-  <si>
-    <t>734979.0</t>
-  </si>
-  <si>
-    <t>2872.0</t>
-  </si>
-  <si>
-    <t>2478.0</t>
-  </si>
-  <si>
-    <t>394.0</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>13377.0</t>
-  </si>
-  <si>
-    <t>12359.0</t>
-  </si>
-  <si>
-    <t>1018.0</t>
-  </si>
-  <si>
-    <t>12088.0</t>
-  </si>
-  <si>
-    <t>309.0</t>
-  </si>
-  <si>
-    <t>132.0</t>
-  </si>
-  <si>
-    <t>134.0</t>
-  </si>
-  <si>
-    <t>286.0</t>
-  </si>
-  <si>
-    <t>997.0</t>
-  </si>
-  <si>
-    <t>-711.0</t>
-  </si>
-  <si>
-    <t>-71.0</t>
-  </si>
-  <si>
-    <t>347.0</t>
-  </si>
-  <si>
-    <t>410.0</t>
-  </si>
-  <si>
-    <t>-63.0</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>Provence-Alpes-Côte d'Azur</t>
-  </si>
-  <si>
-    <t>5308271.0</t>
-  </si>
-  <si>
-    <t>3541725.0</t>
-  </si>
-  <si>
-    <t>1766546.0</t>
-  </si>
-  <si>
-    <t>1417.0</t>
-  </si>
-  <si>
-    <t>1475.0</t>
-  </si>
-  <si>
-    <t>-58.0</t>
-  </si>
-  <si>
-    <t>6042.0</t>
-  </si>
-  <si>
-    <t>8575.0</t>
-  </si>
-  <si>
-    <t>-2533.0</t>
-  </si>
-  <si>
-    <t>19083.0</t>
-  </si>
-  <si>
-    <t>399.0</t>
-  </si>
-  <si>
-    <t>239.0</t>
-  </si>
-  <si>
-    <t>149.0</t>
-  </si>
-  <si>
-    <t>293.0</t>
-  </si>
-  <si>
-    <t>346.0</t>
-  </si>
-  <si>
-    <t>-53.0</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>Corse</t>
-  </si>
-  <si>
-    <t>587854.0</t>
-  </si>
-  <si>
-    <t>526289.0</t>
-  </si>
-  <si>
-    <t>61565.0</t>
-  </si>
-  <si>
-    <t>76.0</t>
-  </si>
-  <si>
-    <t>74.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>169.0</t>
-  </si>
-  <si>
-    <t>2017-06-30</t>
+    <t>40.0</t>
   </si>
 </sst>
 </file>
@@ -1764,30 +1755,30 @@
         <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
         <v>45</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1796,10 +1787,10 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>54</v>
@@ -1808,24 +1799,24 @@
         <v>31</v>
       </c>
       <c r="J6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" t="s">
         <v>55</v>
       </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
         <v>56</v>
-      </c>
-      <c r="O6" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1834,24 +1825,24 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
@@ -1860,25 +1851,25 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
         <v>66</v>
       </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>67</v>
       </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>29</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="O8" t="s">
         <v>68</v>
-      </c>
-      <c r="O8" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1952,28 +1943,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>230</v>
+      </c>
+      <c r="E2" t="s">
         <v>231</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>232</v>
-      </c>
-      <c r="F2" t="s">
-        <v>233</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
+        <v>233</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
         <v>234</v>
       </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
-        <v>235</v>
-      </c>
       <c r="K2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -1990,28 +1981,28 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" t="s">
         <v>231</v>
       </c>
-      <c r="E3" t="s">
-        <v>232</v>
-      </c>
       <c r="F3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K3" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -2028,25 +2019,25 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
+        <v>230</v>
+      </c>
+      <c r="E4" t="s">
         <v>231</v>
       </c>
-      <c r="E4" t="s">
-        <v>232</v>
-      </c>
       <c r="F4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
         <v>239</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
-        <v>240</v>
       </c>
       <c r="K4" t="s">
         <v>77</v>
@@ -2066,142 +2057,142 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" t="s">
         <v>231</v>
       </c>
-      <c r="E5" t="s">
-        <v>232</v>
-      </c>
       <c r="F5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E6" t="s">
         <v>231</v>
       </c>
-      <c r="E6" t="s">
-        <v>232</v>
-      </c>
       <c r="F6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>100</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
         <v>242</v>
       </c>
-      <c r="G6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>243</v>
       </c>
-      <c r="K6" t="s">
-        <v>244</v>
-      </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
       <c r="D7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E7" t="s">
         <v>231</v>
       </c>
-      <c r="E7" t="s">
-        <v>232</v>
-      </c>
       <c r="F7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
         <v>245</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s">
-        <v>246</v>
       </c>
       <c r="I7" t="s">
         <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="K7" t="s">
-        <v>210</v>
+        <v>169</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E8" t="s">
+        <v>231</v>
+      </c>
+      <c r="F8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E8" t="s">
-        <v>232</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>248</v>
       </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
         <v>249</v>
       </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>250</v>
       </c>
-      <c r="K8" t="s">
-        <v>251</v>
-      </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2275,28 +2266,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>251</v>
+      </c>
+      <c r="E2" t="s">
         <v>252</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>253</v>
-      </c>
-      <c r="F2" t="s">
-        <v>254</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
+        <v>254</v>
+      </c>
+      <c r="I2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" t="s">
         <v>255</v>
       </c>
-      <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>256</v>
-      </c>
-      <c r="K2" t="s">
-        <v>139</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -2313,10 +2304,10 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E3" t="s">
         <v>252</v>
-      </c>
-      <c r="E3" t="s">
-        <v>253</v>
       </c>
       <c r="F3" t="s">
         <v>257</v>
@@ -2334,7 +2325,7 @@
         <v>259</v>
       </c>
       <c r="K3" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -2351,10 +2342,10 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
+        <v>251</v>
+      </c>
+      <c r="E4" t="s">
         <v>252</v>
-      </c>
-      <c r="E4" t="s">
-        <v>253</v>
       </c>
       <c r="F4" t="s">
         <v>260</v>
@@ -2389,142 +2380,142 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" t="s">
         <v>252</v>
-      </c>
-      <c r="E5" t="s">
-        <v>253</v>
       </c>
       <c r="F5" t="s">
         <v>263</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
         <v>263</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
+        <v>251</v>
+      </c>
+      <c r="E6" t="s">
         <v>252</v>
       </c>
-      <c r="E6" t="s">
-        <v>253</v>
-      </c>
       <c r="F6" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>265</v>
+        <v>149</v>
       </c>
       <c r="K6" t="s">
-        <v>266</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
       <c r="D7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E7" t="s">
         <v>252</v>
       </c>
-      <c r="E7" t="s">
-        <v>253</v>
-      </c>
       <c r="F7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>268</v>
+        <v>206</v>
       </c>
       <c r="I7" t="s">
         <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>251</v>
+      </c>
+      <c r="E8" t="s">
+        <v>252</v>
+      </c>
+      <c r="F8" t="s">
+        <v>269</v>
+      </c>
+      <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>252</v>
-      </c>
-      <c r="E8" t="s">
-        <v>253</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
+        <v>117</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>270</v>
+      </c>
+      <c r="K8" t="s">
         <v>271</v>
       </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>113</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" t="s">
-        <v>177</v>
-      </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2619,7 +2610,7 @@
         <v>276</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>277</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -2642,22 +2633,22 @@
         <v>273</v>
       </c>
       <c r="F3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="K3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -2680,22 +2671,22 @@
         <v>273</v>
       </c>
       <c r="F4" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="K4" t="s">
-        <v>284</v>
+        <v>86</v>
       </c>
       <c r="O4" t="s">
         <v>41</v>
@@ -2721,30 +2712,30 @@
         <v>285</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
         <v>285</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
         <v>272</v>
@@ -2753,36 +2744,36 @@
         <v>273</v>
       </c>
       <c r="F6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
         <v>286</v>
       </c>
-      <c r="G6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" t="s">
-        <v>287</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>288</v>
-      </c>
       <c r="K6" t="s">
-        <v>289</v>
+        <v>264</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>272</v>
@@ -2791,24 +2782,24 @@
         <v>273</v>
       </c>
       <c r="F7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>272</v>
@@ -2817,25 +2808,25 @@
         <v>273</v>
       </c>
       <c r="F8" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
-        <v>292</v>
+        <v>243</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="K8" t="s">
-        <v>211</v>
+        <v>119</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2909,28 +2900,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E2" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F2" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="K2" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -2947,28 +2938,28 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" t="s">
         <v>295</v>
-      </c>
-      <c r="F3" t="s">
-        <v>299</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>301</v>
+        <v>141</v>
       </c>
       <c r="K3" t="s">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -2985,28 +2976,28 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E4" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F4" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="K4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O4" t="s">
         <v>41</v>
@@ -3023,130 +3014,130 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E5" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E6" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F6" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>310</v>
+        <v>141</v>
       </c>
       <c r="K6" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
         <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>294</v>
-      </c>
-      <c r="E7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>290</v>
+      </c>
+      <c r="E8" t="s">
+        <v>291</v>
+      </c>
+      <c r="F8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>294</v>
-      </c>
-      <c r="E8" t="s">
-        <v>295</v>
-      </c>
-      <c r="F8" t="s">
-        <v>243</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>200</v>
+        <v>118</v>
       </c>
       <c r="K8" t="s">
-        <v>306</v>
+        <v>103</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3220,28 +3211,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="K2" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -3258,19 +3249,19 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -3279,7 +3270,7 @@
         <v>40</v>
       </c>
       <c r="K3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -3296,28 +3287,28 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E4" t="s">
+        <v>308</v>
+      </c>
+      <c r="F4" t="s">
         <v>315</v>
-      </c>
-      <c r="F4" t="s">
-        <v>322</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="K4" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="O4" t="s">
         <v>41</v>
@@ -3334,130 +3325,130 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E5" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="E6" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="F6" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="K6" t="s">
-        <v>329</v>
+        <v>202</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F7" t="s">
+        <v>322</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
         <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>314</v>
-      </c>
-      <c r="E7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>307</v>
+      </c>
+      <c r="E8" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" t="s">
+        <v>323</v>
+      </c>
+      <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>314</v>
-      </c>
-      <c r="E8" t="s">
-        <v>315</v>
-      </c>
-      <c r="F8" t="s">
-        <v>331</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>127</v>
+        <v>325</v>
       </c>
       <c r="K8" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3531,28 +3522,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="K2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -3569,28 +3560,28 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E3" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F3" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>340</v>
+        <v>189</v>
       </c>
       <c r="K3" t="s">
-        <v>133</v>
+        <v>333</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -3607,28 +3598,28 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E4" t="s">
+        <v>327</v>
+      </c>
+      <c r="F4" t="s">
         <v>334</v>
-      </c>
-      <c r="F4" t="s">
-        <v>341</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K4" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="O4" t="s">
         <v>41</v>
@@ -3645,142 +3636,142 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E5" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F5" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E6" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="K6" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
       <c r="D7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="F7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="I7" t="s">
         <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="K7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>326</v>
+      </c>
+      <c r="E8" t="s">
+        <v>327</v>
+      </c>
+      <c r="F8" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>333</v>
-      </c>
-      <c r="E8" t="s">
-        <v>334</v>
-      </c>
-      <c r="F8" t="s">
-        <v>351</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K8" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3854,28 +3845,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E2" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F2" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="K2" t="s">
-        <v>54</v>
+        <v>353</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -3892,28 +3883,28 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E3" t="s">
+        <v>349</v>
+      </c>
+      <c r="F3" t="s">
         <v>354</v>
-      </c>
-      <c r="E3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F3" t="s">
-        <v>359</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K3" t="s">
-        <v>362</v>
+        <v>214</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -3930,28 +3921,28 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E4" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F4" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="O4" t="s">
         <v>41</v>
@@ -3968,142 +3959,142 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E6" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F6" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>368</v>
+        <v>339</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="K6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
       <c r="D7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F7" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="I7" t="s">
         <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="K7" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>348</v>
+      </c>
+      <c r="E8" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" t="s">
+        <v>367</v>
+      </c>
+      <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>354</v>
-      </c>
-      <c r="E8" t="s">
-        <v>355</v>
-      </c>
-      <c r="F8" t="s">
-        <v>374</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="K8" t="s">
-        <v>155</v>
+        <v>370</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4177,28 +4168,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E2" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="K2" t="s">
-        <v>136</v>
+        <v>376</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -4215,28 +4206,28 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3" t="s">
         <v>377</v>
-      </c>
-      <c r="E3" t="s">
-        <v>378</v>
-      </c>
-      <c r="F3" t="s">
-        <v>382</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>384</v>
+        <v>289</v>
       </c>
       <c r="K3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -4253,28 +4244,28 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E4" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F4" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="K4" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
         <v>41</v>
@@ -4291,142 +4282,142 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E5" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F6" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>291</v>
+        <v>384</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="K6" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
       <c r="D7" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="E7" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F7" t="s">
-        <v>329</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="I7" t="s">
         <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>340</v>
+        <v>277</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>371</v>
+      </c>
+      <c r="E8" t="s">
+        <v>372</v>
+      </c>
+      <c r="F8" t="s">
+        <v>387</v>
+      </c>
+      <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>377</v>
-      </c>
-      <c r="E8" t="s">
-        <v>378</v>
-      </c>
-      <c r="F8" t="s">
-        <v>392</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="K8" t="s">
-        <v>155</v>
+        <v>390</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4500,28 +4491,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F2" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="K2" t="s">
-        <v>140</v>
+        <v>396</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -4538,28 +4529,28 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="K3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -4576,28 +4567,28 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E4" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F4" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>401</v>
+        <v>201</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>402</v>
+        <v>108</v>
       </c>
       <c r="K4" t="s">
-        <v>284</v>
+        <v>86</v>
       </c>
       <c r="O4" t="s">
         <v>41</v>
@@ -4614,112 +4605,112 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E5" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E6" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="F6" t="s">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>399</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>404</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>391</v>
+      </c>
+      <c r="E7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
         <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>395</v>
-      </c>
-      <c r="E7" t="s">
-        <v>396</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>391</v>
+      </c>
+      <c r="E8" t="s">
+        <v>392</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
         <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>395</v>
-      </c>
-      <c r="E8" t="s">
-        <v>396</v>
-      </c>
-      <c r="F8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
       </c>
       <c r="H8" t="s">
         <v>88</v>
@@ -4728,13 +4719,13 @@
         <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>400</v>
       </c>
       <c r="K8" t="s">
-        <v>46</v>
+        <v>401</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4808,28 +4799,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" t="s">
         <v>70</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>71</v>
-      </c>
-      <c r="F2" t="s">
-        <v>72</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
+        <v>73</v>
+      </c>
+      <c r="K2" t="s">
         <v>74</v>
-      </c>
-      <c r="K2" t="s">
-        <v>46</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -4846,10 +4837,10 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
         <v>70</v>
-      </c>
-      <c r="E3" t="s">
-        <v>71</v>
       </c>
       <c r="F3" t="s">
         <v>75</v>
@@ -4884,10 +4875,10 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" t="s">
         <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -4922,112 +4913,112 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" t="s">
         <v>70</v>
-      </c>
-      <c r="E5" t="s">
-        <v>71</v>
       </c>
       <c r="F5" t="s">
         <v>83</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
         <v>83</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" t="s">
         <v>70</v>
-      </c>
-      <c r="E6" t="s">
-        <v>71</v>
       </c>
       <c r="F6" t="s">
         <v>84</v>
       </c>
       <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
         <v>85</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
       </c>
       <c r="J6" t="s">
         <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
         <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>70</v>
-      </c>
-      <c r="E7" t="s">
-        <v>71</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
       <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" t="s">
         <v>70</v>
-      </c>
-      <c r="E8" t="s">
-        <v>71</v>
       </c>
       <c r="F8" t="s">
         <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
         <v>88</v>
@@ -5036,13 +5027,13 @@
         <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5116,28 +5107,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -5154,25 +5145,25 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K3" t="s">
         <v>39</v>
@@ -5192,28 +5183,28 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="O4" t="s">
         <v>41</v>
@@ -5230,127 +5221,127 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>91</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
         <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F8" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" t="s">
-        <v>103</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5424,28 +5415,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="K2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -5462,28 +5453,28 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E3" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="K3" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -5500,28 +5491,28 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="K4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="O4" t="s">
         <v>41</v>
@@ -5538,130 +5529,130 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F6" t="s">
         <v>106</v>
       </c>
-      <c r="E6" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" t="s">
-        <v>88</v>
-      </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="J6" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="K6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
         <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F8" t="s">
+        <v>129</v>
+      </c>
+      <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" t="s">
-        <v>107</v>
-      </c>
-      <c r="F8" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
       <c r="H8" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I8" t="s">
         <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>126</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s">
-        <v>127</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5735,28 +5726,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I2" t="s">
         <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -5773,19 +5764,19 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E3" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
@@ -5794,7 +5785,7 @@
         <v>54</v>
       </c>
       <c r="K3" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -5811,13 +5802,13 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -5829,10 +5820,10 @@
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="K4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="O4" t="s">
         <v>41</v>
@@ -5849,127 +5840,127 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="F6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>142</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="J6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
         <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="H8" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
         <v>129</v>
       </c>
-      <c r="F8" t="s">
-        <v>140</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>61</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>141</v>
-      </c>
-      <c r="K8" t="s">
-        <v>136</v>
-      </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6043,28 +6034,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -6081,28 +6072,28 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K3" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -6119,28 +6110,28 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K4" t="s">
-        <v>155</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
         <v>41</v>
@@ -6157,51 +6148,51 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F5" t="s">
         <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
         <v>156</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
         <v>157</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
         <v>158</v>
@@ -6216,30 +6207,30 @@
         <v>160</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
       <c r="D7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" t="s">
         <v>161</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
         <v>162</v>
@@ -6254,30 +6245,30 @@
         <v>165</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
       <c r="D8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F8" t="s">
         <v>166</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
         <v>167</v>
@@ -6286,13 +6277,13 @@
         <v>31</v>
       </c>
       <c r="J8" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="K8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6366,28 +6357,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K2" t="s">
-        <v>126</v>
+        <v>25</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -6404,28 +6395,28 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="K3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -6442,28 +6433,28 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="O4" t="s">
         <v>41</v>
@@ -6480,130 +6471,130 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>185</v>
+        <v>100</v>
       </c>
       <c r="K6" t="s">
-        <v>186</v>
+        <v>84</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
         <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E7" t="s">
-        <v>170</v>
-      </c>
-      <c r="F7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
       <c r="D8" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E8" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F8" t="s">
         <v>187</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="H8" t="s">
+        <v>104</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
         <v>188</v>
       </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>189</v>
       </c>
-      <c r="K8" t="s">
-        <v>115</v>
-      </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -6698,7 +6689,7 @@
         <v>194</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -6733,10 +6724,10 @@
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="K3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -6774,7 +6765,7 @@
         <v>199</v>
       </c>
       <c r="K4" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
         <v>41</v>
@@ -6797,33 +6788,33 @@
         <v>191</v>
       </c>
       <c r="F5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
         <v>190</v>
@@ -6832,36 +6823,36 @@
         <v>191</v>
       </c>
       <c r="F6" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="G6" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="I6" t="s">
         <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K6" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
       </c>
       <c r="D7" t="s">
         <v>190</v>
@@ -6870,36 +6861,36 @@
         <v>191</v>
       </c>
       <c r="F7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I7" t="s">
         <v>163</v>
       </c>
       <c r="J7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="O7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
       </c>
       <c r="D8" t="s">
         <v>190</v>
@@ -6908,25 +6899,25 @@
         <v>191</v>
       </c>
       <c r="F8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>207</v>
+      </c>
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
         <v>208</v>
       </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>210</v>
-      </c>
       <c r="K8" t="s">
-        <v>211</v>
+        <v>81</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -7000,28 +6991,28 @@
         <v>17</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
         <v>21</v>
       </c>
       <c r="H2" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="I2" t="s">
         <v>31</v>
       </c>
       <c r="J2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="K2" t="s">
-        <v>105</v>
+        <v>214</v>
       </c>
       <c r="O2" t="s">
         <v>26</v>
@@ -7038,28 +7029,28 @@
         <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I3" t="s">
         <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="O3" t="s">
         <v>34</v>
@@ -7076,28 +7067,28 @@
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E4" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I4" t="s">
         <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K4" t="s">
-        <v>151</v>
+        <v>89</v>
       </c>
       <c r="O4" t="s">
         <v>41</v>
@@ -7114,130 +7105,130 @@
         <v>44</v>
       </c>
       <c r="D5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="O5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>223</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
         <v>224</v>
       </c>
-      <c r="G6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>225</v>
       </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
-        <v>226</v>
-      </c>
-      <c r="K6" t="s">
-        <v>227</v>
-      </c>
       <c r="O6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
         <v>58</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" t="s">
+        <v>210</v>
+      </c>
+      <c r="F7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="O7" t="s">
         <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" t="s">
         <v>63</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G8" t="s">
         <v>64</v>
       </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>228</v>
       </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" t="s">
         <v>229</v>
       </c>
-      <c r="I8" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" t="s">
-        <v>230</v>
-      </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
